--- a/sentence_level/data/sentences/all/2012_debby_tornado.xlsx
+++ b/sentence_level/data/sentences/all/2012_debby_tornado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="252">
   <si>
     <t>2012_debby_tornado</t>
   </si>
@@ -22,24 +22,24 @@
     <t>Red Cross</t>
   </si>
   <si>
+    <t>Young, who is on dialysis and had to postpone a hospital trip, was on the phone with the Red Cross and her landlord Monday trying to get the roof taken care of — or her family moved — before the rain started up again.</t>
+  </si>
+  <si>
     <t>He and his wife packed bags for a few days and headed to a makeshift shelter set up by the Red Cross, in the cafeteria of Chapel on the Hill, a church in Seminole.</t>
   </si>
   <si>
     <t>Janet McGuire of the Red Cross said she had heard an estimated 50 people were on the way.</t>
   </si>
   <si>
-    <t>Young, who is on dialysis and had to postpone a hospital trip, was on the phone with the Red Cross and her landlord Monday trying to get the roof taken care of — or her family moved — before the rain started up again.</t>
-  </si>
-  <si>
     <t>Highlands County Sheriff's Office</t>
   </si>
   <si>
+    <t>That Sunday afternoon twister flung 32-year-old Heather Town about 200 feet into the surrounding woods when it hit her home, the Highlands County Sheriff's Office said Monday.</t>
+  </si>
+  <si>
     <t>The Highlands County Sheriff's Office said in a news release that several tornadoes moved through the area southeast of Tampa, damaging homes.</t>
   </si>
   <si>
-    <t>That Sunday afternoon twister flung 32-year-old Heather Town about 200 feet into the surrounding woods when it hit her home, the Highlands County Sheriff's Office said Monday.</t>
-  </si>
-  <si>
     <t>Shell</t>
   </si>
   <si>
@@ -58,564 +58,564 @@
     <t>Tampa Bay</t>
   </si>
   <si>
+    <t>Tropical Storm Debby, messy, unorganized and noncommittal in its path, loitered out in the gulf and sent lashing bands of record-breaking rain over Tampa Bay and its surrounding counties.</t>
+  </si>
+  <si>
+    <t>High winds forced the closure of an interstate bridge that spans Tampa Bay and links St. Petersburg with areas to the southeast.</t>
+  </si>
+  <si>
+    <t>Even though Tropical Storm Debby has yet to make landfall, she's brought her wrath upon the Tampa Bay area.</t>
+  </si>
+  <si>
+    <t>Florida officials said the storm has left an estimated 35,000 people without power and forced the closure of a four-mile (six-km) bridge spanning Tampa Bay that connects the city of St. Petersburg with the Bradenton area.</t>
+  </si>
+  <si>
+    <t>Tampa Bay affiliate, FOX 13 reported 32-year-old, Heather Town was thrown from her home on Montana Trail when the tornado hit her home.</t>
+  </si>
+  <si>
+    <t>It was unclear if any tornadoes actually touched down in the Tampa Bay area.</t>
+  </si>
+  <si>
+    <t>The Sunshine Skyway bridge, which stretches over Tampa Bay and connects Bradenton with St. Petersburg, was closed Sunday because of high winds and remained closed Monday, Pinellas County officials said.</t>
+  </si>
+  <si>
+    <t>In other areas of the Southeast, Debby raked the Tampa Bay area with high wind and heavy rain Monday in a drenching that could top 2 feet over the next few days and trigger widespread flooding.</t>
+  </si>
+  <si>
+    <t>The longer it sits, the more rain we get.”  High winds and the threat of flooding forced the closing of an interstate highway bridge that spans Tampa Bay and links St. Petersburg with areas to the southwest.</t>
+  </si>
+  <si>
+    <t>Dan Shaffer shares photos and images from across the Tampa Bay area.</t>
+  </si>
+  <si>
+    <t>On St. Pete Beach in the Tampa Bay area, surfers enjoyed the large waves in the Gulf, which is usually so calm the water looks like glass.</t>
+  </si>
+  <si>
     <t>Tropical Storm Debby brings heavy rain, strong winds to Tampa Bay.</t>
   </si>
   <si>
-    <t>Tropical Storm Debby, messy, unorganized and noncommittal in its path, loitered out in the gulf and sent lashing bands of record-breaking rain over Tampa Bay and its surrounding counties.</t>
+    <t>The old oak in the family's back yard at 301 E Clinton St. in Old Seminole Heights burst through the guest bedroom ceiling just before 5 a.m. as Tropical Storm Debby raged outside, sending wind gusts of up to 50 mph tearing through the Tampa Bay area.</t>
   </si>
   <si>
     <t>Southeast of Tampa Bay in Highlands County, Sheriff's Office spokeswoman Nell Hays said a woman was found dead in a house in the Highlands town of Venus that was destroyed in the storm.</t>
   </si>
   <si>
-    <t>It was unclear if any tornadoes actually touched down in the Tampa Bay area.</t>
-  </si>
-  <si>
-    <t>The Sunshine Skyway bridge, which stretches over Tampa Bay and connects Bradenton with St. Petersburg, was closed Sunday because of high winds and remained closed Monday, Pinellas County officials said.</t>
-  </si>
-  <si>
-    <t>Florida officials said the storm has left an estimated 35,000 people without power and forced the closure of a four-mile (six-km) bridge spanning Tampa Bay that connects the city of St. Petersburg with the Bradenton area.</t>
-  </si>
-  <si>
-    <t>Even though Tropical Storm Debby has yet to make landfall, she's brought her wrath upon the Tampa Bay area.</t>
-  </si>
-  <si>
-    <t>Dan Shaffer shares photos and images from across the Tampa Bay area.</t>
-  </si>
-  <si>
-    <t>The old oak in the family's back yard at 301 E Clinton St. in Old Seminole Heights burst through the guest bedroom ceiling just before 5 a.m. as Tropical Storm Debby raged outside, sending wind gusts of up to 50 mph tearing through the Tampa Bay area.</t>
-  </si>
-  <si>
-    <t>Tampa Bay affiliate, FOX 13 reported 32-year-old, Heather Town was thrown from her home on Montana Trail when the tornado hit her home.</t>
-  </si>
-  <si>
-    <t>High winds forced the closure of an interstate bridge that spans Tampa Bay and links St. Petersburg with areas to the southeast.</t>
-  </si>
-  <si>
-    <t>In other areas of the Southeast, Debby raked the Tampa Bay area with high wind and heavy rain Monday in a drenching that could top 2 feet over the next few days and trigger widespread flooding.</t>
-  </si>
-  <si>
-    <t>The longer it sits, the more rain we get.”  High winds and the threat of flooding forced the closing of an interstate highway bridge that spans Tampa Bay and links St. Petersburg with areas to the southwest.</t>
-  </si>
-  <si>
-    <t>On St. Pete Beach in the Tampa Bay area, surfers enjoyed the large waves in the Gulf, which is usually so calm the water looks like glass.</t>
-  </si>
-  <si>
     <t>NWS</t>
   </si>
   <si>
+    <t>St. Johns County was under a tornado watch through late Monday night and is under a flood warning until this evening, according to the NWS.</t>
+  </si>
+  <si>
+    <t>The NWS recorded a waterspout about eight nautical miles off the coast of Vilano Beach on Monday evening at about 5:45 p.m.</t>
+  </si>
+  <si>
+    <t>Since forming on Saturday, more than 25 reports of tornadoes have been received by the National Weather Service (NWS) including damage reports from possible tornadoes in the Naples, Saint Petersburg and Jacksonville areas.</t>
+  </si>
+  <si>
+    <t>NWS tells news that at 8:37 AM EST Doppler Radar spotted a “severe thunderstorm it strong rotation”.</t>
+  </si>
+  <si>
     <t>Phil Peterson, a meteorologist with the NWS, said Tropical Storm Debby is a very slow-moving storm that is traveling northeast across Florida from the Gulf of Mexico.</t>
   </si>
   <si>
-    <t>The NWS recorded a waterspout about eight nautical miles off the coast of Vilano Beach on Monday evening at about 5:45 p.m.</t>
-  </si>
-  <si>
-    <t>St. Johns County was under a tornado watch through late Monday night and is under a flood warning until this evening, according to the NWS.</t>
-  </si>
-  <si>
-    <t>Since forming on Saturday, more than 25 reports of tornadoes have been received by the National Weather Service (NWS) including damage reports from possible tornadoes in the Naples, Saint Petersburg and Jacksonville areas.</t>
-  </si>
-  <si>
     <t>NWS had issued more than 60 tornado warnings across parts of the state as of noon Monday.</t>
   </si>
   <si>
-    <t>NWS tells news that at 8:37 AM EST Doppler Radar spotted a “severe thunderstorm it strong rotation”.</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
+    <t>Steady rainfall spurred by Debby is expected to extend to southern areas of Alabama, Georgia and South Carolina.</t>
+  </si>
+  <si>
+    <t>The direction of steering flow will continue to affect moisture in Southeast Georgia and South Carolina, Packett said.</t>
+  </si>
+  <si>
+    <t>3:15 p.m. A tornado watch has been posted for all of northeast Florida and Southeast Georgia until 11 p.m.  2:45 p.m. Bradford County Sheriff's Office and Animal Control staff finished relocating about 60 dogs, cats and puppies from the county animal shelter to high ground at the county fairgrounds.</t>
+  </si>
+  <si>
+    <t>A few tornadoes are possible today across the eastern Florida panhandle, the Florida peninsula, and southern Georgia.</t>
+  </si>
+  <si>
+    <t>5 to 10 inches are possible over central Florida and southeast Georgia into coastal South Carolina.</t>
+  </si>
+  <si>
+    <t>Central Florida and southeast Georgia will likely be drenched with 5 to 10 inches, with smaller but still significant precipitation amounts in parts of coastal Alabama, southeastern Louisiana and south Florida.</t>
+  </si>
+  <si>
+    <t>It should be a nasty weather week for Florida and southeast Georgia.</t>
+  </si>
+  <si>
+    <t>9:50 a.m. Tornado warnings have been issued for northeastern Camden and southeastern Glynn counties in Georgia, expiring at 10:15 a.m.  9:45 a.m. Steve Letro, meteorologist-in-charge of Jacksonville's National Weather Service office, said the First Coast can expect periodic bands of heavy rain over the next few days, with periodic breaks.</t>
+  </si>
+  <si>
+    <t>In a news statement Monday, the National Weather Service told news of a tornado warning for Glynn County, Georgia and neighboring areas.</t>
+  </si>
+  <si>
+    <t>Most of the strongest storms are occurring throughout central Florida and even as far northeast into southeastern Georgia.</t>
+  </si>
+  <si>
+    <t>“It’s not going to intensify much,” he said, “But it looks like it’ll be here for a while.”  The storm has caused several tornadoes in central Florida and southern Georgia — something that St. Augustine residents should be aware of, Peterson said.</t>
+  </si>
+  <si>
+    <t>9:10 a.m. A tornado warning posted for southeastern Camden and Glynn counties in Georgia is set to expire at 9:30 a.m.  A stalled Tropical Storm Debby will likely pound the First Coast with periodic heavy rain for days, causing  flooding and other weather-related issues, according to the National Weather Service.</t>
+  </si>
+  <si>
     <t>The storm is expected to produce the following rain accumulations in the next couple of days: 6 to 12 inches across northern Florida, 4 to 8 inches across central Florida and extreme southeastern Georgia, and 3 to 5 inches in south Florida and extreme southeastern South Carolina.</t>
   </si>
   <si>
-    <t>A few tornadoes are possible today across the eastern Florida panhandle, the Florida peninsula, and southern Georgia.</t>
-  </si>
-  <si>
-    <t>Central Florida and southeast Georgia will likely be drenched with 5 to 10 inches, with smaller but still significant precipitation amounts in parts of coastal Alabama, southeastern Louisiana and south Florida.</t>
-  </si>
-  <si>
-    <t>3:15 p.m. A tornado watch has been posted for all of northeast Florida and Southeast Georgia until 11 p.m.  2:45 p.m. Bradford County Sheriff's Office and Animal Control staff finished relocating about 60 dogs, cats and puppies from the county animal shelter to high ground at the county fairgrounds.</t>
-  </si>
-  <si>
-    <t>9:50 a.m. Tornado warnings have been issued for northeastern Camden and southeastern Glynn counties in Georgia, expiring at 10:15 a.m.  9:45 a.m. Steve Letro, meteorologist-in-charge of Jacksonville's National Weather Service office, said the First Coast can expect periodic bands of heavy rain over the next few days, with periodic breaks.</t>
-  </si>
-  <si>
-    <t>9:10 a.m. A tornado warning posted for southeastern Camden and Glynn counties in Georgia is set to expire at 9:30 a.m.  A stalled Tropical Storm Debby will likely pound the First Coast with periodic heavy rain for days, causing  flooding and other weather-related issues, according to the National Weather Service.</t>
+    <t>The hurricane center also warned that more tornadoes were possible in parts of Florida and southern Georgia.</t>
   </si>
   <si>
     <t>A warning, expiring at 9:30 a.m., is currently in place for southeastern Camden and southern Glynn counties in Georgia.</t>
   </si>
   <si>
-    <t>“It’s not going to intensify much,” he said, “But it looks like it’ll be here for a while.”  The storm has caused several tornadoes in central Florida and southern Georgia — something that St. Augustine residents should be aware of, Peterson said.</t>
-  </si>
-  <si>
-    <t>Steady rainfall spurred by Debby is expected to extend to southern areas of Alabama, Georgia and South Carolina.</t>
-  </si>
-  <si>
-    <t>The hurricane center also warned that more tornadoes were possible in parts of Florida and southern Georgia.</t>
-  </si>
-  <si>
-    <t>In a news statement Monday, the National Weather Service told news of a tornado warning for Glynn County, Georgia and neighboring areas.</t>
-  </si>
-  <si>
-    <t>The direction of steering flow will continue to affect moisture in Southeast Georgia and South Carolina, Packett said.</t>
-  </si>
-  <si>
-    <t>Most of the strongest storms are occurring throughout central Florida and even as far northeast into southeastern Georgia.</t>
-  </si>
-  <si>
-    <t>5 to 10 inches are possible over central Florida and southeast Georgia into coastal South Carolina.</t>
-  </si>
-  <si>
-    <t>It should be a nasty weather week for Florida and southeast Georgia.</t>
-  </si>
-  <si>
     <t>National Hurricane Center</t>
   </si>
   <si>
+    <t>Packing 60 mph winds, Debby's eye was still 115 miles south-southwest of Apalachiocola, Florida (and 195 miles east-southeast of the mouth of the Mississippi River in Louisiana) according to the National Hurricane Center's 7 p.m. (8 p.m.</t>
+  </si>
+  <si>
+    <t>One of the latest advisories from the National Hurricane Center put the storm southwest of Apalachicola and stationary with maximum sustained winds of 45 mph.</t>
+  </si>
+  <si>
+    <t>Stacy Stewart, a senior hurricane specialist with the National Hurricane Center, said of the twisters: 'This is quite common with this type of storm.</t>
+  </si>
+  <si>
+    <t>Debby was already bringing up to 5 inches of rain per hour on parts of the Panhandle, and the National Hurricane Center said northern Florida could see another 6 to 12 inches in the next two days.</t>
+  </si>
+  <si>
+    <t>See a video of a funnel cloud in Alligator Alley sent by a viewer  Senior hurricane specialist Stacy Stewart with the National Hurricane Center says ``tornadic activity goes up'' because such strong winds are not typical.</t>
+  </si>
+  <si>
+    <t>The National Hurricane Center’s (NHC) latest track indicates a little easterly movement, but the movement remains extremely slow.</t>
+  </si>
+  <si>
+    <t>Chris Landsea, a meteorologist at the National Hurricane Center, said forecasters rely on computer models which were contradictory until Sunday.</t>
+  </si>
+  <si>
+    <t>The National Hurricane Center tells news that a tornado in Fernandina Beach, Florida was spotted Monday June 25, 2012 as Tropical Storm Debby 2012 continues its projected path northward.</t>
+  </si>
+  <si>
+    <t>Senior hurricane specialist Stacy Stewart with the National Hurricane Center says “tornadic activity goes up” because such strong winds are not typical.</t>
+  </si>
+  <si>
+    <t>The Miami-based National Hurricane Center said Debby, the first named storm of 2012 to move into the Gulf of Mexico, was packing top sustained winds of about 45 miles per hour (72 kph) and forecasters predicted little change in strength over the next couple of days.</t>
+  </si>
+  <si>
     <t>10 from the National Hurricane Center in Miami says the threat of flooding continues for the next day or two.</t>
   </si>
   <si>
-    <t>Packing 60 mph winds, Debby's eye was still 115 miles south-southwest of Apalachiocola, Florida (and 195 miles east-southeast of the mouth of the Mississippi River in Louisiana) according to the National Hurricane Center's 7 p.m. (8 p.m.</t>
+    <t>"This is quite common with this type of storm," senior hurricane specialist Stacy Stewart with the National Hurricane Center said of the twisters.</t>
+  </si>
+  <si>
+    <t>According to the National Hurricane Center, almost all tropical cyclones near or at landfall spawn at least one tornado, provided enough of the storm's circulation moves over land, which was the case in Florida.</t>
   </si>
   <si>
     <t>The computer model spread still shows no clear direction, but the National Hurricane Center has given up on the westward push towards Texas.</t>
   </si>
   <si>
-    <t>See a video of a funnel cloud in Alligator Alley sent by a viewer  Senior hurricane specialist Stacy Stewart with the National Hurricane Center says ``tornadic activity goes up'' because such strong winds are not typical.</t>
-  </si>
-  <si>
-    <t>Chris Landsea, a meteorologist at the National Hurricane Center, said forecasters rely on computer models which were contradictory until Sunday.</t>
-  </si>
-  <si>
-    <t>Stacy Stewart, a senior hurricane specialist with the National Hurricane Center, said of the twisters: 'This is quite common with this type of storm.</t>
-  </si>
-  <si>
-    <t>Debby was already bringing up to 5 inches of rain per hour on parts of the Panhandle, and the National Hurricane Center said northern Florida could see another 6 to 12 inches in the next two days.</t>
-  </si>
-  <si>
-    <t>One of the latest advisories from the National Hurricane Center put the storm southwest of Apalachicola and stationary with maximum sustained winds of 45 mph.</t>
-  </si>
-  <si>
-    <t>The Miami-based National Hurricane Center said Debby, the first named storm of 2012 to move into the Gulf of Mexico, was packing top sustained winds of about 45 miles per hour (72 kph) and forecasters predicted little change in strength over the next couple of days.</t>
-  </si>
-  <si>
-    <t>Senior hurricane specialist Stacy Stewart with the National Hurricane Center says “tornadic activity goes up” because such strong winds are not typical.</t>
-  </si>
-  <si>
-    <t>According to the National Hurricane Center, almost all tropical cyclones near or at landfall spawn at least one tornado, provided enough of the storm's circulation moves over land, which was the case in Florida.</t>
-  </si>
-  <si>
-    <t>The National Hurricane Center tells news that a tornado in Fernandina Beach, Florida was spotted Monday June 25, 2012 as Tropical Storm Debby 2012 continues its projected path northward.</t>
-  </si>
-  <si>
-    <t>"This is quite common with this type of storm," senior hurricane specialist Stacy Stewart with the National Hurricane Center said of the twisters.</t>
-  </si>
-  <si>
-    <t>The National Hurricane Center’s (NHC) latest track indicates a little easterly movement, but the movement remains extremely slow.</t>
-  </si>
-  <si>
     <t>Florida</t>
   </si>
   <si>
+    <t>On Sunday, Debby spawned twisters that killed a woman, badly injured a child and wrecked homes in central Florida in rural Highlands County, according to an emergency management official.</t>
+  </si>
+  <si>
+    <t>The Storm Prediction Center has noted 15 tornado reports today in Florida.</t>
+  </si>
+  <si>
+    <t>The Sunshine Skyway Bridge remains closed this morning, according to the Florida Highway Patrol due to high winds.</t>
+  </si>
+  <si>
+    <t>Scott's Executive Order directs all state agencies, including the Florida National Guard, to provide any necessary assistance when requested by local governments.</t>
+  </si>
+  <si>
+    <t>Debby spawns rash of tornadoes in Florida; 1 killed (photos, video).</t>
+  </si>
+  <si>
+    <t>Such sustained winds were recorded early Sunday evening in several spots on the Florida Panhandle, west of Apalachicola.</t>
+  </si>
+  <si>
+    <t>Meanwhile, a state of emergency was declared in the states of Florida and Louisiana as residents pick up the pieces in the areas hardest hit by Debby.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby Projected Path Prompts Florida Tornado in Fernandina Beach.</t>
+  </si>
+  <si>
+    <t>The bridge leading to St. George Island, a vacation spot along the Florida Panhandle, was closed to everyone except residents, renters and business owners to keep looters out.</t>
+  </si>
+  <si>
+    <t>Beyond that, the new forecast track showed Debby remaining a tropical storm as it moves northward and makes landfall, possibly Thursday, on the Florida Panhandle.</t>
+  </si>
+  <si>
+    <t>Revised forecasts showed Debby remaining a tropical storm until it makes landfall early Thursday near Apalachee Bay, in the bend of the state where the Florida Panhandle ends.</t>
+  </si>
+  <si>
+    <t>Isolated storm total amounts of 25 inches are possible in north Florida.</t>
+  </si>
+  <si>
+    <t>Debby is one Florida tourist who appears to be here to stay through the end of the week.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby is bringing a deluge of water to Florida, but what slight rain the Coastal Empire saw from the storm Monday should be the most we get as today is expected to be drier.</t>
+  </si>
+  <si>
+    <t>Debby already has been blamed for one death in Venus, Florida, about 100 miles southeast of Tampa, when a woman died while trying to shelter her 3-year-old daughter during a tornado.</t>
+  </si>
+  <si>
+    <t>Thousands were on the beach at Pensacola Beach, Florida, on Sunday morning.</t>
+  </si>
+  <si>
+    <t>Heather Town, 32, was found dead after the tornado ripped through her mobile home in Venus, Florida, in the debris of a barbed wire fence, with her young daughter in her arms.</t>
+  </si>
+  <si>
+    <t>The same alert is also in place for people south of the River to Englewood, Florida, officials tell news.</t>
+  </si>
+  <si>
+    <t>Wind and tropical storm conditions will continue over portions of the Florida Gulf Coast tonight and Tuesday.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby spawns fatal tornado in Florida, drenches coast - .com.</t>
+  </si>
+  <si>
+    <t>10:00 AM CDT Monday, June 25, 2012   Location: 28.6°N 85.2°W   Moving: Northeast at 3 miles per hour   Minimum pressure: 995 millibars   Maximum sustained winds: 45 miles per hour  Tropical Storm Warnings: East of the Alabama-Florida border eastward to the Suwannee River.</t>
+  </si>
+  <si>
+    <t>Rainfall totals have already been very impressive across Florida.</t>
+  </si>
+  <si>
+    <t>Parts of northern Florida could get 10 to 15 inches of rain, and some spots as much as 25 inches, as the storm wrings itself out, forecasters said.</t>
+  </si>
+  <si>
+    <t>And high winds have prompted authorities to shut down the Sunshine Skyway bridge on Interstate 275 connecting St. Petersburg and Bradenton, Florida, said Elizabeth LaRotonda with St. Petersburg police.</t>
+  </si>
+  <si>
+    <t>Forecast models show Debby making landfall along the northern Florida Gulf Coast by Thursday.</t>
+  </si>
+  <si>
+    <t>Forecasters said it would crawl to the northeast, come ashore along Florida’s northwestern coast on Wednesday and track slowly across the state, exiting along the Atlantic Coast by Saturday morning and losing steam along the way.</t>
+  </si>
+  <si>
+    <t>The Florida Highway Patrol closed the Sunshine Skyway bridge because of vicious gusts.</t>
+  </si>
+  <si>
+    <t>"Some communities are already grappling with flooding, wind damage and electrical outages," said Scott, who ordered all state agencies, including the  Florida National Guard, to provide any necessary assistance requested by local governments.</t>
+  </si>
+  <si>
+    <t>Barring major forecast changes, Debby's bands will bring steady rain and wind to all of Central Florida through the end of the week, spawning the threat of rapid-forming tornadoes and dropping up to 8 inches of rain in different locations across the region, forecasters said.</t>
+  </si>
+  <si>
+    <t>There are no reports of any injuries after authorities say a tornado touched down in southwest Florida as Tropical Storm Debby formed.</t>
+  </si>
+  <si>
+    <t>Debby is actually more than 100 miles off the north Florida coast, and barely moving.</t>
+  </si>
+  <si>
+    <t>A tropical storm warning is effect still for residents east of the Alabama-Florida border, east to the Suwannee River.</t>
+  </si>
+  <si>
+    <t>Monday, as it churned slowly in the Gulf, it had again drifted -- this time going generally northeast and putting Central Florida counties in its projected path.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tropical Storm Debby Drenches Florida. </t>
+  </si>
+  <si>
+    <t>It could dump more than a foot (30 cm) of rain in some areas of the state, with isolated amounts of more than two feet (64 cm) in north Florida, the hurricane center said.</t>
+  </si>
+  <si>
+    <t>Tampa, Florida -- The flood waters in the South Tampa area are beginning to recede this morning, but several cars flooded out by the deep waters remain stalled in some of the hardest hit areas like Manhattan Avenue.</t>
+  </si>
+  <si>
+    <t>What that means for Central Florida is more rain, flooding and more wind for the next few days.</t>
+  </si>
+  <si>
+    <t>Slideshow: How Florida is dealing with Debby  "Because of the broad impact of Tropical Storm Debby, virtually every county in Florida could be affected," Scott said.</t>
+  </si>
+  <si>
+    <t>“The widespread flooding is the biggest concern,” said Florida Emergency Operations Center spokeswoman Julie Roberts.</t>
+  </si>
+  <si>
+    <t>Debby was essentially stationary about 115 miles (185 km) south-southwest of Apalachicola, Florida, on Sunday evening.</t>
+  </si>
+  <si>
+    <t>The highest potential is 25 inches along portions of the Florida Panhandle.</t>
+  </si>
+  <si>
+    <t>The combination of a storm surge and the high tide could cause 4 to 6 feet of flooding at Florida's Apalachee Bay to Waccasassa Bay, forecasters said.</t>
+  </si>
+  <si>
+    <t>Expect tornado watches to be issued throughout the next 24 to 48 hours across Florida as the storms stays to the west of the coast.</t>
+  </si>
+  <si>
+    <t>We could easily see 10 to 15 inches of rain over eastern portions of the Florida panhandle and northern Florida with isolated areas seeing nearly 25 inches!</t>
+  </si>
+  <si>
+    <t>An erratic Tropical Storm Debby stalled just off the Florida Panhandle on Monday evening, dumping sheets of rain on Florida's Big Bend marshes and towns far down the peninsula.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby drenches Florida's Gulf Coast (+video).</t>
+  </si>
+  <si>
+    <t>Much of north-central Florida was experiencing drought conditions until Tropical Storm Debby came through.</t>
+  </si>
+  <si>
+    <t>The expansive, stalled Tropical Storm Debby lashed Florida on Sunday, spawning apparent tornadoes in the central part of the state that killed one woman, a county spokeswoman said.</t>
+  </si>
+  <si>
+    <t>Weitlich said forecasters will likely extend a flood warning beyond Lake County for low-lying areas as rain bands form over Central Florida.</t>
+  </si>
+  <si>
+    <t>The death in Florida was blamed on a tornado spawned by the storm, while a man went missing in the Gulf of Mexico at an Alabama beach.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Watches: South of the Suwannee River to Englewood, Florida.</t>
+  </si>
+  <si>
+    <t>At least a dozen Florida counties have been impacted by possible and or confirmed tornado damage including Polk, Marion, Duval, Miami-Dade, Pasco, Osceole, Brevard, Haree, Highlands, Glades, Palm Beach and Collier.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby still threatening to flood much of Florida Gulf Coast.</t>
+  </si>
+  <si>
+    <t>The twisters came as Debby churned on an uncertain track toward Florida's Gulf coast on Sunday, bringing strong winds and waves that forced the closure of about a quarter of offshore oil and gas production in the Gulf of Mexico.</t>
+  </si>
+  <si>
+    <t>A public advisory said parts of northern Florida could receive 10 to 15 inches of rain, with some areas getting as much as 25.</t>
+  </si>
+  <si>
+    <t>Coastal Alabama and parts of Florida, including the Panhandle, were under tropical storm warnings.</t>
+  </si>
+  <si>
+    <t>MIAMI - Slow-moving Tropical Storm Debby's outer bands lashed Florida with rain and kicked up rough surf off Alabama on Sunday, prompting storm warnings for those states and causing at least one death.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby, its accompanying winds and rains brought flooding to parts of Florida.</t>
+  </si>
+  <si>
+    <t>Officials tracked a tornado northwest of Fernandina Beach, Florida moments ago; weather reports are advising residents to take cover in the area promptly.</t>
+  </si>
+  <si>
+    <t>Debby should dump 10 to 15 inches of rain in the Florida Panhandle and elsewhere in northern Florida before it's done, the hurricane center said, with as much as 25 inches possible in spots.</t>
+  </si>
+  <si>
+    <t>Flash flood threats remain in place across Northern Florida and Southern Alabama as well.</t>
+  </si>
+  <si>
+    <t>Florida wrapped in the eastern circulation of Debby combined with strong low-level shear and instability to lead to the rash of tornadoes.</t>
+  </si>
+  <si>
+    <t>Letro said the most severe weather has been and will be from heavy rain bands that have been pounding central, north and northeast Florida.</t>
+  </si>
+  <si>
+    <t>Debby kicks up storm along Florida panhandle.</t>
+  </si>
+  <si>
+    <t>They are additionally warning residents northwest of Jacksonville Florida today, including Fernandina Beach to be on alert.</t>
+  </si>
+  <si>
+    <t>People in several sparsely populated counties near the crook of Florida’s elbow were urged to leave low-lying neighborhoods because of the danger of flooding.</t>
+  </si>
+  <si>
+    <t>Check out these rainfall totals (in inches) from the past 24 hours up to 8am today (8am June 24, 2012 through 8am June 25, 2012):  Here’s a look by the Hydrometeorological Prediction Center for possible rainfall totals for the next five days:  Bottom line: Tropical Storm Debby will slowly drift to the east-northeast and push through Florida towards the end of the week.</t>
+  </si>
+  <si>
+    <t>At least one person was killed Sunday by a tornado spun off by Debby in Florida, and Alabama authorities searched for a man who disappeared in the rough surf.</t>
+  </si>
+  <si>
+    <t>What Florida really needs, Monson said, is the return of a regular rainfall pattern.</t>
+  </si>
+  <si>
+    <t>"Because of the broad impact of Tropical Storm Debby, virtually every county in Florida could be affected," Scott said in a statement announcing the statewide emergency.</t>
+  </si>
+  <si>
+    <t>Debby already has dumped heavy rain on parts of Florida and spawned some isolated tornadoes, causing damage to homes and knocking down power lines.</t>
+  </si>
+  <si>
+    <t>A tropical storm warning is in effect for the Florida Gulf Coast from Destin to Englewood.</t>
+  </si>
+  <si>
+    <t>Florida Governor Rick Scott declared a state of emergency and a tropical storm warning was in effect along much of the Gulf coastline, from the Florida Panhandle down through the central west coast.</t>
+  </si>
+  <si>
+    <t>Parts of Florida's west coast and coastal Mississippi could see 2 to 4 feet deep waters.</t>
+  </si>
+  <si>
+    <t>The National Hurricane reports to news that several possible tornadoes could form today June 25, 2012 across the eastern Florida Panhandle.</t>
+  </si>
+  <si>
+    <t>Debby brings downpours to Florida's Big Bend - .com.</t>
+  </si>
+  <si>
+    <t>St. George Island and other low-lying areas in Franklin County on the Florida Panhandle, the Federal Emergency Management Agency said in a Sunday night news release.</t>
+  </si>
+  <si>
+    <t>While Debby has yet to make landfall, numerous reports of damage have been reported across parts of Florida from a rash of tornadoes spawned by the storm.</t>
+  </si>
+  <si>
+    <t>Citing the threat of heavy rainfall and potential tornadoes, Florida Gov.</t>
+  </si>
+  <si>
+    <t>CORAL GABLES (LALATE) – Tropical Storm Debby’s projected path is now prompting Florida tornado warnings today.</t>
+  </si>
+  <si>
+    <t>Then, by Sunday night, it headed north toward Florida's Panhandle.</t>
+  </si>
+  <si>
+    <t>Florida's Pinellas Country was also hit hard, with flash flooding in some areas and at least 20 houses with roofs that were partially or fully blown off during a tornado-like storm on Sunday.</t>
+  </si>
+  <si>
+    <t>Debby is currently causing a lot of problems throughout the western coast of Florida and the Panhandle.</t>
+  </si>
+  <si>
+    <t>“Little movement is expect during the next couple of days.” However, “tropical storm conditions will condition over portions of the Florida Gulf Coast Today.” For the latest update, click HERE.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby: Florida reports 15 tornadoes, video.</t>
+  </si>
+  <si>
+    <t>Residents in several counties near the crook of Florida's elbow were urged to leave low-lying neighborhoods because of the threat of flooding.</t>
+  </si>
+  <si>
+    <t>Flash flood warnings were in effect for many areas and the Florida Division of Emergency Management has cautioned that inland flooding is associated with more than half the deaths from tropical cyclones in the United States over the last 30 years.</t>
+  </si>
+  <si>
     <t>One Death   The death in Florida was blamed on a tornado spawned by the storm, while a man went missing in the Gulf of Mexico at an Alabama beach.</t>
   </si>
   <si>
-    <t>Tropical Storm Debby still threatening to flood much of Florida Gulf Coast.</t>
-  </si>
-  <si>
-    <t>A tropical storm warning is in effect for the Florida Gulf Coast from Destin to Englewood.</t>
-  </si>
-  <si>
-    <t>Wind and tropical storm conditions will continue over portions of the Florida Gulf Coast tonight and Tuesday.</t>
-  </si>
-  <si>
-    <t>Isolated storm total amounts of 25 inches are possible in north Florida.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tropical Storm Debby Drenches Florida. </t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby spawns fatal tornado in Florida, drenches coast - .com.</t>
-  </si>
-  <si>
-    <t>The expansive, stalled Tropical Storm Debby lashed Florida on Sunday, spawning apparent tornadoes in the central part of the state that killed one woman, a county spokeswoman said.</t>
+    <t>Tropical Storm Debby lashed parts of Florida with driving rains and high winds on Monday, threatening to trigger more flooding and tornadoes as it hovered off the state's northern Gulf of Mexico coast.</t>
+  </si>
+  <si>
+    <t>The hurricane center said tropical storm conditions will extend for the entire area from the Mississippi-Alabama line eastward to the Suwannee River, Florida, by night's end.</t>
   </si>
   <si>
     <t>The National Weather Service had tornado warnings out, indicating a high likelihood of a twister strike, in spots off-and-on throughout the day Sunday, and a less severe tornado watch is in effect for much of western Florida through 5 a.m. Monday.</t>
   </si>
   <si>
-    <t>Such sustained winds were recorded early Sunday evening in several spots on the Florida Panhandle, west of Apalachicola.</t>
-  </si>
-  <si>
-    <t>St. George Island and other low-lying areas in Franklin County on the Florida Panhandle, the Federal Emergency Management Agency said in a Sunday night news release.</t>
-  </si>
-  <si>
-    <t>And high winds have prompted authorities to shut down the Sunshine Skyway bridge on Interstate 275 connecting St. Petersburg and Bradenton, Florida, said Elizabeth LaRotonda with St. Petersburg police.</t>
-  </si>
-  <si>
-    <t>The hurricane center said tropical storm conditions will extend for the entire area from the Mississippi-Alabama line eastward to the Suwannee River, Florida, by night's end.</t>
-  </si>
-  <si>
-    <t>Beyond that, the new forecast track showed Debby remaining a tropical storm as it moves northward and makes landfall, possibly Thursday, on the Florida Panhandle.</t>
-  </si>
-  <si>
-    <t>Debby should dump 10 to 15 inches of rain in the Florida Panhandle and elsewhere in northern Florida before it's done, the hurricane center said, with as much as 25 inches possible in spots.</t>
-  </si>
-  <si>
-    <t>The combination of a storm surge and the high tide could cause 4 to 6 feet of flooding at Florida's Apalachee Bay to Waccasassa Bay, forecasters said.</t>
-  </si>
-  <si>
-    <t>Parts of Florida's west coast and coastal Mississippi could see 2 to 4 feet deep waters.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby: Florida reports 15 tornadoes, video.</t>
-  </si>
-  <si>
-    <t>Debby is actually more than 100 miles off the north Florida coast, and barely moving.</t>
-  </si>
-  <si>
-    <t>The Storm Prediction Center has noted 15 tornado reports today in Florida.</t>
-  </si>
-  <si>
-    <t>The highest potential is 25 inches along portions of the Florida Panhandle.</t>
-  </si>
-  <si>
-    <t>There are no reports of any injuries after authorities say a tornado touched down in southwest Florida as Tropical Storm Debby formed.</t>
-  </si>
-  <si>
-    <t>Scott's Executive Order directs all state agencies, including the Florida National Guard, to provide any necessary assistance when requested by local governments.</t>
-  </si>
-  <si>
-    <t>Slideshow: How Florida is dealing with Debby  "Because of the broad impact of Tropical Storm Debby, virtually every county in Florida could be affected," Scott said.</t>
-  </si>
-  <si>
-    <t>Letro said the most severe weather has been and will be from heavy rain bands that have been pounding central, north and northeast Florida.</t>
-  </si>
-  <si>
-    <t>Debby is one Florida tourist who appears to be here to stay through the end of the week.</t>
-  </si>
-  <si>
     <t>Despite the immediate dangers of the storm, the heavy rains may have a long-term positive effect for Florida.</t>
   </si>
   <si>
-    <t>Much of north-central Florida was experiencing drought conditions until Tropical Storm Debby came through.</t>
-  </si>
-  <si>
-    <t>What Florida really needs, Monson said, is the return of a regular rainfall pattern.</t>
-  </si>
-  <si>
-    <t>The Florida Highway Patrol closed the Sunshine Skyway bridge because of vicious gusts.</t>
-  </si>
-  <si>
-    <t>Heather Town, 32, was found dead after the tornado ripped through her mobile home in Venus, Florida, in the debris of a barbed wire fence, with her young daughter in her arms.</t>
-  </si>
-  <si>
-    <t>Meanwhile, a state of emergency was declared in the states of Florida and Louisiana as residents pick up the pieces in the areas hardest hit by Debby.</t>
-  </si>
-  <si>
-    <t>The bridge leading to St. George Island, a vacation spot along the Florida Panhandle, was closed to everyone except residents, renters and business owners to keep looters out.</t>
-  </si>
-  <si>
-    <t>A public advisory said parts of northern Florida could receive 10 to 15 inches of rain, with some areas getting as much as 25.</t>
-  </si>
-  <si>
-    <t>The twisters came as Debby churned on an uncertain track toward Florida's Gulf coast on Sunday, bringing strong winds and waves that forced the closure of about a quarter of offshore oil and gas production in the Gulf of Mexico.</t>
-  </si>
-  <si>
-    <t>The death in Florida was blamed on a tornado spawned by the storm, while a man went missing in the Gulf of Mexico at an Alabama beach.</t>
-  </si>
-  <si>
-    <t>Coastal Alabama and parts of Florida, including the Panhandle, were under tropical storm warnings.</t>
-  </si>
-  <si>
-    <t>Residents in several counties near the crook of Florida's elbow were urged to leave low-lying neighborhoods because of the threat of flooding.</t>
-  </si>
-  <si>
-    <t>Debby was essentially stationary about 115 miles (185 km) south-southwest of Apalachicola, Florida, on Sunday evening.</t>
-  </si>
-  <si>
-    <t>Thousands were on the beach at Pensacola Beach, Florida, on Sunday morning.</t>
-  </si>
-  <si>
-    <t>Debby brings downpours to Florida's Big Bend - .com.</t>
-  </si>
-  <si>
-    <t>An erratic Tropical Storm Debby stalled just off the Florida Panhandle on Monday evening, dumping sheets of rain on Florida's Big Bend marshes and towns far down the peninsula.</t>
-  </si>
-  <si>
-    <t>Debby already has been blamed for one death in Venus, Florida, about 100 miles southeast of Tampa, when a woman died while trying to shelter her 3-year-old daughter during a tornado.</t>
-  </si>
-  <si>
-    <t>Citing the threat of heavy rainfall and potential tornadoes, Florida Gov.</t>
-  </si>
-  <si>
-    <t>Revised forecasts showed Debby remaining a tropical storm until it makes landfall early Thursday near Apalachee Bay, in the bend of the state where the Florida Panhandle ends.</t>
-  </si>
-  <si>
-    <t>Then, by Sunday night, it headed north toward Florida's Panhandle.</t>
-  </si>
-  <si>
-    <t>Monday, as it churned slowly in the Gulf, it had again drifted -- this time going generally northeast and putting Central Florida counties in its projected path.</t>
-  </si>
-  <si>
-    <t>What that means for Central Florida is more rain, flooding and more wind for the next few days.</t>
-  </si>
-  <si>
-    <t>Barring major forecast changes, Debby's bands will bring steady rain and wind to all of Central Florida through the end of the week, spawning the threat of rapid-forming tornadoes and dropping up to 8 inches of rain in different locations across the region, forecasters said.</t>
-  </si>
-  <si>
-    <t>Weitlich said forecasters will likely extend a flood warning beyond Lake County for low-lying areas as rain bands form over Central Florida.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby drenches Florida's Gulf Coast (+video).</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby, its accompanying winds and rains brought flooding to parts of Florida.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby lashed parts of Florida with driving rains and high winds on Monday, threatening to trigger more flooding and tornadoes as it hovered off the state's northern Gulf of Mexico coast.</t>
-  </si>
-  <si>
-    <t>Florida Governor Rick Scott declared a state of emergency and a tropical storm warning was in effect along much of the Gulf coastline, from the Florida Panhandle down through the central west coast.</t>
-  </si>
-  <si>
-    <t>"Because of the broad impact of Tropical Storm Debby, virtually every county in Florida could be affected," Scott said in a statement announcing the statewide emergency.</t>
-  </si>
-  <si>
-    <t>"Some communities are already grappling with flooding, wind damage and electrical outages," said Scott, who ordered all state agencies, including the  Florida National Guard, to provide any necessary assistance requested by local governments.</t>
-  </si>
-  <si>
-    <t>Forecast models show Debby making landfall along the northern Florida Gulf Coast by Thursday.</t>
-  </si>
-  <si>
-    <t>It could dump more than a foot (30 cm) of rain in some areas of the state, with isolated amounts of more than two feet (64 cm) in north Florida, the hurricane center said.</t>
-  </si>
-  <si>
-    <t>Flash flood warnings were in effect for many areas and the Florida Division of Emergency Management has cautioned that inland flooding is associated with more than half the deaths from tropical cyclones in the United States over the last 30 years.</t>
-  </si>
-  <si>
-    <t>On Sunday, Debby spawned twisters that killed a woman, badly injured a child and wrecked homes in central Florida in rural Highlands County, according to an emergency management official.</t>
-  </si>
-  <si>
-    <t>Florida's Pinellas Country was also hit hard, with flash flooding in some areas and at least 20 houses with roofs that were partially or fully blown off during a tornado-like storm on Sunday.</t>
-  </si>
-  <si>
-    <t>Debby spawns rash of tornadoes in Florida; 1 killed (photos, video).</t>
-  </si>
-  <si>
-    <t>While Debby has yet to make landfall, numerous reports of damage have been reported across parts of Florida from a rash of tornadoes spawned by the storm.</t>
-  </si>
-  <si>
-    <t>At least a dozen Florida counties have been impacted by possible and or confirmed tornado damage including Polk, Marion, Duval, Miami-Dade, Pasco, Osceole, Brevard, Haree, Highlands, Glades, Palm Beach and Collier.</t>
-  </si>
-  <si>
-    <t>Florida wrapped in the eastern circulation of Debby combined with strong low-level shear and instability to lead to the rash of tornadoes.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby Projected Path Prompts Florida Tornado in Fernandina Beach.</t>
-  </si>
-  <si>
-    <t>CORAL GABLES (LALATE) – Tropical Storm Debby’s projected path is now prompting Florida tornado warnings today.</t>
-  </si>
-  <si>
-    <t>Officials tracked a tornado northwest of Fernandina Beach, Florida moments ago; weather reports are advising residents to take cover in the area promptly.</t>
-  </si>
-  <si>
-    <t>They are additionally warning residents northwest of Jacksonville Florida today, including Fernandina Beach to be on alert.</t>
-  </si>
-  <si>
-    <t>A tropical storm warning is effect still for residents east of the Alabama-Florida border, east to the Suwannee River.</t>
-  </si>
-  <si>
-    <t>The same alert is also in place for people south of the River to Englewood, Florida, officials tell news.</t>
-  </si>
-  <si>
-    <t>“Little movement is expect during the next couple of days.” However, “tropical storm conditions will condition over portions of the Florida Gulf Coast Today.” For the latest update, click HERE.</t>
-  </si>
-  <si>
-    <t>The National Hurricane reports to news that several possible tornadoes could form today June 25, 2012 across the eastern Florida Panhandle.</t>
-  </si>
-  <si>
-    <t>Flash flood threats remain in place across Northern Florida and Southern Alabama as well.</t>
-  </si>
-  <si>
-    <t>Debby kicks up storm along Florida panhandle.</t>
-  </si>
-  <si>
-    <t>MIAMI - Slow-moving Tropical Storm Debby's outer bands lashed Florida with rain and kicked up rough surf off Alabama on Sunday, prompting storm warnings for those states and causing at least one death.</t>
-  </si>
-  <si>
-    <t>Debby already has dumped heavy rain on parts of Florida and spawned some isolated tornadoes, causing damage to homes and knocking down power lines.</t>
-  </si>
-  <si>
-    <t>Tampa, Florida -- The flood waters in the South Tampa area are beginning to recede this morning, but several cars flooded out by the deep waters remain stalled in some of the hardest hit areas like Manhattan Avenue.</t>
-  </si>
-  <si>
-    <t>The Sunshine Skyway Bridge remains closed this morning, according to the Florida Highway Patrol due to high winds.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby is bringing a deluge of water to Florida, but what slight rain the Coastal Empire saw from the storm Monday should be the most we get as today is expected to be drier.</t>
-  </si>
-  <si>
-    <t>At least one person was killed Sunday by a tornado spun off by Debby in Florida, and Alabama authorities searched for a man who disappeared in the rough surf.</t>
-  </si>
-  <si>
-    <t>Forecasters said it would crawl to the northeast, come ashore along Florida’s northwestern coast on Wednesday and track slowly across the state, exiting along the Atlantic Coast by Saturday morning and losing steam along the way.</t>
-  </si>
-  <si>
-    <t>Parts of northern Florida could get 10 to 15 inches of rain, and some spots as much as 25 inches, as the storm wrings itself out, forecasters said.</t>
-  </si>
-  <si>
-    <t>“The widespread flooding is the biggest concern,” said Florida Emergency Operations Center spokeswoman Julie Roberts.</t>
-  </si>
-  <si>
-    <t>People in several sparsely populated counties near the crook of Florida’s elbow were urged to leave low-lying neighborhoods because of the danger of flooding.</t>
-  </si>
-  <si>
-    <t>Debby is currently causing a lot of problems throughout the western coast of Florida and the Panhandle.</t>
-  </si>
-  <si>
-    <t>10:00 AM CDT Monday, June 25, 2012   Location: 28.6°N 85.2°W   Moving: Northeast at 3 miles per hour   Minimum pressure: 995 millibars   Maximum sustained winds: 45 miles per hour  Tropical Storm Warnings: East of the Alabama-Florida border eastward to the Suwannee River.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Watches: South of the Suwannee River to Englewood, Florida.</t>
-  </si>
-  <si>
-    <t>Expect tornado watches to be issued throughout the next 24 to 48 hours across Florida as the storms stays to the west of the coast.</t>
-  </si>
-  <si>
-    <t>We could easily see 10 to 15 inches of rain over eastern portions of the Florida panhandle and northern Florida with isolated areas seeing nearly 25 inches!</t>
-  </si>
-  <si>
-    <t>Rainfall totals have already been very impressive across Florida.</t>
-  </si>
-  <si>
-    <t>Check out these rainfall totals (in inches) from the past 24 hours up to 8am today (8am June 24, 2012 through 8am June 25, 2012):  Here’s a look by the Hydrometeorological Prediction Center for possible rainfall totals for the next five days:  Bottom line: Tropical Storm Debby will slowly drift to the east-northeast and push through Florida towards the end of the week.</t>
-  </si>
-  <si>
     <t>Louisiana Offshore Oil Port</t>
   </si>
   <si>
+    <t>And the Louisiana Offshore Oil Port, which unloads about 1 million barrels per day of U.S. crude oil imports from giant tankers, said it was set to resume operations on Monday, after shutting Sunday due to rough seas.</t>
+  </si>
+  <si>
     <t>The Louisiana Offshore Oil Port (LOOP), the single location where the largest oil tanker ships can directly deliver crude, stopped offloading tankers on Sunday morning, as rough seas were building at its sea terminal.</t>
   </si>
   <si>
-    <t>And the Louisiana Offshore Oil Port, which unloads about 1 million barrels per day of U.S. crude oil imports from giant tankers, said it was set to resume operations on Monday, after shutting Sunday due to rough seas.</t>
-  </si>
-  <si>
     <t>St. Petersburg</t>
   </si>
   <si>
     <t>Debbie Ponceti said wind was pushing run underneath the door to her home in Madeira Beach, about 10 miles east of St. Petersburg, while her front lawn has been reduced to mush and waters in a lagoon near her house are steadily rising.</t>
   </si>
   <si>
+    <t>More clear was the scene in St. Petersburg's Shore Acres.</t>
+  </si>
+  <si>
+    <t>Forecasters declared a flash flood emergency for parts of Franklin, Liberty and Wakulla counties near Tallahassee until late Monday, and Debby drove rising tides across neighborhood streets as far south as the Tampa-St. Petersburg area.</t>
+  </si>
+  <si>
+    <t>CNN iReporter Magalie Caragiorgio said Monday she has been stuck in her home in New Port Richey, near St. Petersburg, since Sunday because of flooding and hasn't been able to get to her job as a nurse.</t>
+  </si>
+  <si>
     <t>Coffee Pot Boulevard in St. Petersburg.</t>
   </si>
   <si>
-    <t>More clear was the scene in St. Petersburg's Shore Acres.</t>
-  </si>
-  <si>
-    <t>Forecasters declared a flash flood emergency for parts of Franklin, Liberty and Wakulla counties near Tallahassee until late Monday, and Debby drove rising tides across neighborhood streets as far south as the Tampa-St. Petersburg area.</t>
-  </si>
-  <si>
-    <t>CNN iReporter Magalie Caragiorgio said Monday she has been stuck in her home in New Port Richey, near St. Petersburg, since Sunday because of flooding and hasn't been able to get to her job as a nurse.</t>
-  </si>
-  <si>
     <t>Tropical Storm Debby</t>
   </si>
   <si>
+    <t>The western portion of Tropical Storm Debby has been lacking throughout the weekend.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby could affect Palm Beach County for days.</t>
+  </si>
+  <si>
+    <t>And BP spokesman Brett Clanton said early Sunday evening that "we've evacuated the majority of our offshore personnel in the Gulf of Mexico" due to Tropical Storm Debby.</t>
+  </si>
+  <si>
+    <t>On Saturday, June 23, 2012, Tropical Storm Debby formed across the eastern Gulf of Mexico.</t>
+  </si>
+  <si>
+    <t>Photos of damage from Tropical Storm Debby.</t>
+  </si>
+  <si>
+    <t>Oak tree arrives in Tampa home's guest bedroom with thud, thanks to Tropical Storm Debby.</t>
+  </si>
+  <si>
+    <t>In fact, Tropical Storm Debby will likely remain stationary over the northern Gulf for the next 24 hours and continue to produce heavy rains, large areas of flooding, and isolated tornadoes for the next three to five days.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby spawns tornado warnings, severe weather.... Just One More Thing...  We have sent you a verification email.</t>
+  </si>
+  <si>
+    <t>At 4 p.m., the center of Tropical Storm Debby was located near latitude 29.3 north, longitude 85.1 west.</t>
+  </si>
+  <si>
+    <t>View a slideshow that includes videos and more photos from the affects of Tropical Storm Debby.</t>
+  </si>
+  <si>
+    <t>Although Tropical Storm Debby has weakened, coastal   flooding is not yet diminishing.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby is a large tropical cyclone, with strong winds and heavy rains occurring at large distances from the center.</t>
+  </si>
+  <si>
+    <t>Rainfall totals will be the biggest threat from Tropical Storm Debby.</t>
+  </si>
+  <si>
+    <t>12:45 p.m. A heavy thunderstorm related to Tropical Storm Debby is being blamed for the shredding of part of a sheet metal roof torn off from a hanger at Jacksonville International Airport this morning.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby a dangerous slow mover | EarthSky.org.</t>
+  </si>
+  <si>
+    <t>Oak tree arrives in Tampa home's guest bedroom with thud, thanks to Tropical Storm Debby  TAMPA — Joseph Shelton woke up from a dream early Monday in a cold sweat.</t>
+  </si>
+  <si>
+    <t>The tornado touched down as Tropical Storm Debby formed.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby brings tornado threat to region.</t>
+  </si>
+  <si>
+    <t>As of now, the track of Tropical Storm Debby shows very little movement for the next several days.</t>
+  </si>
+  <si>
     <t>Tropical Storm Debby advisory No.</t>
   </si>
   <si>
-    <t>Tropical Storm Debby is a large tropical cyclone, with strong winds and heavy rains occurring at large distances from the center.</t>
-  </si>
-  <si>
-    <t>At 4 p.m., the center of Tropical Storm Debby was located near latitude 29.3 north, longitude 85.1 west.</t>
-  </si>
-  <si>
-    <t>Although Tropical Storm Debby has weakened, coastal   flooding is not yet diminishing.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby spawns tornado warnings, severe weather.... Just One More Thing...  We have sent you a verification email.</t>
-  </si>
-  <si>
-    <t>And BP spokesman Brett Clanton said early Sunday evening that "we've evacuated the majority of our offshore personnel in the Gulf of Mexico" due to Tropical Storm Debby.</t>
-  </si>
-  <si>
-    <t>12:45 p.m. A heavy thunderstorm related to Tropical Storm Debby is being blamed for the shredding of part of a sheet metal roof torn off from a hanger at Jacksonville International Airport this morning.</t>
-  </si>
-  <si>
     <t>Tropical Storm Debby is moving slowly toward the northeast at about 3 mph.</t>
   </si>
   <si>
     <t>The projected track of slow-moving Tropical Storm Debby has shifted from the north to the northeast, which will possibly bring more heavy rain bands than initially expected over the First Coast through the weekend, said meteorologist Phil Peterson of the National Weather service.</t>
   </si>
   <si>
-    <t>Tropical Storm Debby could affect Palm Beach County for days.</t>
+    <t>But U.S. regulators said on Monday that Gulf of Mexico oil and gas operators had shut in 44.1 percent of daily oil and 34.8 percent of daily natural gas production because of Tropical Storm Debby, a near doubling of the oil total from Sunday.</t>
   </si>
   <si>
     <t>A young mother was killed while clinging to her toddler daughter to protect her from the devastating tornado spawned by Tropical Storm Debby as it destroyed her mobile home.</t>
   </si>
   <si>
-    <t>Tropical Storm Debby brings tornado threat to region.</t>
-  </si>
-  <si>
-    <t>But U.S. regulators said on Monday that Gulf of Mexico oil and gas operators had shut in 44.1 percent of daily oil and 34.8 percent of daily natural gas production because of Tropical Storm Debby, a near doubling of the oil total from Sunday.</t>
-  </si>
-  <si>
-    <t>Photos of damage from Tropical Storm Debby.</t>
-  </si>
-  <si>
-    <t>Oak tree arrives in Tampa home's guest bedroom with thud, thanks to Tropical Storm Debby.</t>
-  </si>
-  <si>
-    <t>Oak tree arrives in Tampa home's guest bedroom with thud, thanks to Tropical Storm Debby  TAMPA — Joseph Shelton woke up from a dream early Monday in a cold sweat.</t>
-  </si>
-  <si>
-    <t>The tornado touched down as Tropical Storm Debby formed.</t>
+    <t>Tropical Storm Debby’s wind, rain do damage, set records in.... Just One More Thing...  We have sent you a verification email.</t>
   </si>
   <si>
     <t>Tropical Storm Debby to ease up on Coastal Empire.</t>
   </si>
   <si>
-    <t>View a slideshow that includes videos and more photos from the affects of Tropical Storm Debby.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby a dangerous slow mover | EarthSky.org.</t>
-  </si>
-  <si>
-    <t>On Saturday, June 23, 2012, Tropical Storm Debby formed across the eastern Gulf of Mexico.</t>
-  </si>
-  <si>
-    <t>In fact, Tropical Storm Debby will likely remain stationary over the northern Gulf for the next 24 hours and continue to produce heavy rains, large areas of flooding, and isolated tornadoes for the next three to five days.</t>
-  </si>
-  <si>
-    <t>As of now, the track of Tropical Storm Debby shows very little movement for the next several days.</t>
-  </si>
-  <si>
-    <t>The western portion of Tropical Storm Debby has been lacking throughout the weekend.</t>
-  </si>
-  <si>
-    <t>Rainfall totals will be the biggest threat from Tropical Storm Debby.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby’s wind, rain do damage, set records in.... Just One More Thing...  We have sent you a verification email.</t>
-  </si>
-  <si>
     <t>Apalachicola</t>
   </si>
   <si>
+    <t>With tropical storm-force winds extending outward up to 230 miles (370 km) from its center off the northwest coastal town of Apalachicola late Monday afternoon, forecasters said Debby menaced a broad swath of inland territory with flash flooding from torrential downpours.</t>
+  </si>
+  <si>
     <t>By late Sunday night, Debby sat nearly stationary some 115 miles south-southwest of the coastal Panhandle town of Apalachicola, and the storm's unsparing rain and wind were expected to continue today and maybe into Tuesday.</t>
   </si>
   <si>
+    <t>Debby's center was essentially stationary about 110 miles (180 km) south-southwest of Apalachicola, Fla., on Sunday evening.</t>
+  </si>
+  <si>
     <t>ET, Debby was centered 30 miles south-southwest of Apalachicola and was not moving.</t>
   </si>
   <si>
-    <t>With tropical storm-force winds extending outward up to 230 miles (370 km) from its center off the northwest coastal town of Apalachicola late Monday afternoon, forecasters said Debby menaced a broad swath of inland territory with flash flooding from torrential downpours.</t>
-  </si>
-  <si>
-    <t>Debby's center was essentially stationary about 110 miles (180 km) south-southwest of Apalachicola, Fla., on Sunday evening.</t>
-  </si>
-  <si>
     <t>By late afternoon, Debby was in the Gulf of Mexico, 30 miles southwest of Apalachicola, with sustained winds around 45 mph.</t>
   </si>
   <si>
@@ -625,12 +625,12 @@
     <t>'Most true islanders are hanging in there because they know that you may or may not be able to get back to your home when you need to,' said David Walker, an island resident having a beer at Eddy Teach's bar.</t>
   </si>
   <si>
+    <t>On St. George Island, many businesses were closed, but Eddy Teach’s bar had a few customers and used a generator to keep beer and food cold.</t>
+  </si>
+  <si>
     <t>“Most true islanders are hanging in there because they know that you may or may not be able to get back to your home when you need to,” said David Walker, an island resident having a beer at Eddy Teach’s bar.</t>
   </si>
   <si>
-    <t>On St. George Island, many businesses were closed, but Eddy Teach’s bar had a few customers and used a generator to keep beer and food cold.</t>
-  </si>
-  <si>
     <t>BP</t>
   </si>
   <si>
@@ -643,78 +643,81 @@
     <t>National Weather Service</t>
   </si>
   <si>
+    <t>"These tornadoes are characterized by rapid development and also dissipate quickly," said John Pendergrast, senior meteorologist with the National Weather Service in Melbourne.</t>
+  </si>
+  <si>
+    <t>The latest forecast from the National Weather Service calls for an 80 percent chance of rain tonight, with breezy south winds between 15 and 17 mph.</t>
+  </si>
+  <si>
+    <t>Heavy rain swept through Jacksonville through much of the early morning, though a break occurred about 9 a.m., which will be a signature of the storm, said Steve Letro, meteorologist-in-charge of Jacksonville's National Weather Service office.</t>
+  </si>
+  <si>
+    <t>Because it's moving so slowly there is a greater concern for flooding," said Derrick Weitlich, a meteorologist at the National Weather Service in Melbourne.</t>
+  </si>
+  <si>
+    <t>There are currently no tornado or flood warnings in the area, according to the National Weather Service website.</t>
+  </si>
+  <si>
+    <t>The National Weather Service forecasts a 40 percent chance of moderate-to-heavy rain today.</t>
+  </si>
+  <si>
+    <t>"We're so overwhelmed with normal operations that we haven't been able to send anyone out to confirm that," said Dan Noah at the National Weather Service's local office in Ruskin.</t>
+  </si>
+  <si>
+    <t>The tropical storm has dumped between 4 and 8 inches on St. Augustine so far and could give the city up to 20 inches more by Thursday, according to the National Weather Service in Jacksonville.</t>
+  </si>
+  <si>
     <t>The National Weather Service is now predicting as much as 15 to 25 inches of rain in some isolated spots along the First Coast by week's end, said Meteorologist Phil Peterson.</t>
   </si>
   <si>
-    <t>The latest forecast from the National Weather Service calls for an 80 percent chance of rain tonight, with breezy south winds between 15 and 17 mph.</t>
-  </si>
-  <si>
-    <t>There are currently no tornado or flood warnings in the area, according to the National Weather Service website.</t>
-  </si>
-  <si>
-    <t>Heavy rain swept through Jacksonville through much of the early morning, though a break occurred about 9 a.m., which will be a signature of the storm, said Steve Letro, meteorologist-in-charge of Jacksonville's National Weather Service office.</t>
-  </si>
-  <si>
-    <t>The tropical storm has dumped between 4 and 8 inches on St. Augustine so far and could give the city up to 20 inches more by Thursday, according to the National Weather Service in Jacksonville.</t>
-  </si>
-  <si>
-    <t>"We're so overwhelmed with normal operations that we haven't been able to send anyone out to confirm that," said Dan Noah at the National Weather Service's local office in Ruskin.</t>
-  </si>
-  <si>
-    <t>"These tornadoes are characterized by rapid development and also dissipate quickly," said John Pendergrast, senior meteorologist with the National Weather Service in Melbourne.</t>
-  </si>
-  <si>
-    <t>Because it's moving so slowly there is a greater concern for flooding," said Derrick Weitlich, a meteorologist at the National Weather Service in Melbourne.</t>
-  </si>
-  <si>
-    <t>The National Weather Service forecasts a 40 percent chance of moderate-to-heavy rain today.</t>
-  </si>
-  <si>
     <t>Gulf of Mexico</t>
   </si>
   <si>
+    <t>Debby will likely stay fairly weak with winds around 40-50 mph as it continues to upwell colder waters in the northeastern Gulf of Mexico.</t>
+  </si>
+  <si>
+    <t>Look at where the tropical storm has been and where it has been forecast to go: During the weekend, it was heading northwest in the Gulf of Mexico and was Texas-bound.</t>
+  </si>
+  <si>
     <t>The Gulf of Mexico is home to 6.5 percent of U.S. natural gas production, 29 percent of oil output and 40 percent of refining capacity.</t>
   </si>
   <si>
+    <t>Employees have been evacuated from 13 drilling rigs and 61 production platforms in the Gulf of Mexico.</t>
+  </si>
+  <si>
+    <t>About 900 JEA customers were without power at 9 a.m.  Letro said the unpredictability and slow movement of the tropical storm makes it possible that periodic rain could fall in the area throughout much of the week.Letro said there is currently no steering pattern controlling the poorly organized storm, leaving it trapped over the northeastern Gulf of Mexico.</t>
+  </si>
+  <si>
+    <t>With that said, I do not anticipate Debby to develop into a hurricane while it stays stationary off the northeastern coast of the Gulf of Mexico.</t>
+  </si>
+  <si>
+    <t>As it remains stationary over the open waters of the northern Gulf of Mexico, the storm will simply upwell colder ocean water to the surface.</t>
+  </si>
+  <si>
+    <t>Over the weekend, the storm idled about a quarter of U.S. offshore oil and natural gas production in the Gulf of Mexico, based on figures issued by U.S. offshore regulators.</t>
+  </si>
+  <si>
+    <t>In basic terms, there is nothing out there that can give this storm a push to shove it out of the Gulf of Mexico and allow it to move away.</t>
+  </si>
+  <si>
     <t>In fact, the heart of the storm was churning but not moving in the Gulf of Mexico on Sunday evening, and forecasters still don't know where it will end up.</t>
   </si>
   <si>
-    <t>About 900 JEA customers were without power at 9 a.m.  Letro said the unpredictability and slow movement of the tropical storm makes it possible that periodic rain could fall in the area throughout much of the week.Letro said there is currently no steering pattern controlling the poorly organized storm, leaving it trapped over the northeastern Gulf of Mexico.</t>
-  </si>
-  <si>
-    <t>Look at where the tropical storm has been and where it has been forecast to go: During the weekend, it was heading northwest in the Gulf of Mexico and was Texas-bound.</t>
-  </si>
-  <si>
-    <t>Over the weekend, the storm idled about a quarter of U.S. offshore oil and natural gas production in the Gulf of Mexico, based on figures issued by U.S. offshore regulators.</t>
-  </si>
-  <si>
-    <t>Employees have been evacuated from 13 drilling rigs and 61 production platforms in the Gulf of Mexico.</t>
-  </si>
-  <si>
-    <t>In basic terms, there is nothing out there that can give this storm a push to shove it out of the Gulf of Mexico and allow it to move away.</t>
-  </si>
-  <si>
-    <t>As it remains stationary over the open waters of the northern Gulf of Mexico, the storm will simply upwell colder ocean water to the surface.</t>
-  </si>
-  <si>
-    <t>With that said, I do not anticipate Debby to develop into a hurricane while it stays stationary off the northeastern coast of the Gulf of Mexico.</t>
-  </si>
-  <si>
-    <t>Debby will likely stay fairly weak with winds around 40-50 mph as it continues to upwell colder waters in the northeastern Gulf of Mexico.</t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
+    <t>In Alabama, rescuers continued a search on Monday for a swimmer who is presumed dead after he went missing off the Gulf Coast near Orange Beach on Sunday.</t>
+  </si>
+  <si>
     <t>In Orange Beach, Alabama, a 32-year-old man went missing Sunday in rough surf kicked up by the storm, said Coast Guard Lt. j.g.</t>
   </si>
   <si>
-    <t>In Alabama, rescuers continued a search on Monday for a swimmer who is presumed dead after he went missing off the Gulf Coast near Orange Beach on Sunday.</t>
-  </si>
-  <si>
     <t>U.S.</t>
   </si>
   <si>
+    <t>Debby is expected to continue veering away from the U.S. Gulf waters that are home to about 20 percent of U.S. oil and 6 percent of natural gas output.</t>
+  </si>
+  <si>
     <t>Beach areas were "basically underwater," as were many side streets and at least two major thoroughfares -- U.S. Highway 19 and Gulf to Bay Boulevard.</t>
   </si>
   <si>
@@ -724,52 +727,49 @@
     <t>Pasco emergency officials reported severe flooding especially in areas west of U.S. 19.</t>
   </si>
   <si>
-    <t>Debby is expected to continue veering away from the U.S. Gulf waters that are home to about 20 percent of U.S. oil and 6 percent of natural gas output.</t>
-  </si>
-  <si>
     <t>Tampa</t>
   </si>
   <si>
+    <t>TS Debby's deluge flooding Tampa area, stranding drivers.</t>
+  </si>
+  <si>
+    <t>19 N at Tampa Road.</t>
+  </si>
+  <si>
+    <t>Tampa Police say unless there is an emergency, your only solution is to call a tow truck company to get you out.</t>
+  </si>
+  <si>
     <t>Doppler Radar estimates show that over 8 inches of rain has fallen so far just north of Tampa.</t>
   </si>
   <si>
+    <t>The storm, likely to linger for several days, has already doused Tampa with record amounts of rain, toppled trees, downed power lines and flooded roads.</t>
+  </si>
+  <si>
+    <t>It began with Gulfport and Tampa and Pasco County flooding as high tide surged.</t>
+  </si>
+  <si>
+    <t>Meanwhile, areas from Sarasota and the Tampa area are experiencing squalls of strong storms that are producing isolated tornadoes.</t>
+  </si>
+  <si>
+    <t>Neighbors found her still cradling her 3-year-old daughter, who was being treated at a Tampa hospital,  "She never let go of her little one even in death," Highland County Sheriff Susan Benton said in a statement issued Monday afternoon.</t>
+  </si>
+  <si>
+    <t>Bayshore Boulevard in Tampa.</t>
+  </si>
+  <si>
+    <t>Tropical storm warnings were posted from the Panhandle resort of Destin to Englewood, about 50 miles south of Tampa.</t>
+  </si>
+  <si>
+    <t>In Tampa, Barbara Young was lucky to be alive after the storm uprooted a tree that fell on her home as she slept.</t>
+  </si>
+  <si>
+    <t>Up the coast, in Palm Harbor, firefighters reported swift, running water flowing over Lake St. George just north of Tampa Road and Alt.</t>
+  </si>
+  <si>
     <t>Rick Scott has canceled a trip to Tampa and is returning to Tallahassee for a briefing on Debby.</t>
   </si>
   <si>
-    <t>It began with Gulfport and Tampa and Pasco County flooding as high tide surged.</t>
-  </si>
-  <si>
-    <t>Bayshore Boulevard in Tampa.</t>
-  </si>
-  <si>
-    <t>Up the coast, in Palm Harbor, firefighters reported swift, running water flowing over Lake St. George just north of Tampa Road and Alt.</t>
-  </si>
-  <si>
-    <t>19 N at Tampa Road.</t>
-  </si>
-  <si>
-    <t>In Tampa, Barbara Young was lucky to be alive after the storm uprooted a tree that fell on her home as she slept.</t>
-  </si>
-  <si>
-    <t>Tropical storm warnings were posted from the Panhandle resort of Destin to Englewood, about 50 miles south of Tampa.</t>
-  </si>
-  <si>
-    <t>Neighbors found her still cradling her 3-year-old daughter, who was being treated at a Tampa hospital,  "She never let go of her little one even in death," Highland County Sheriff Susan Benton said in a statement issued Monday afternoon.</t>
-  </si>
-  <si>
-    <t>The storm, likely to linger for several days, has already doused Tampa with record amounts of rain, toppled trees, downed power lines and flooded roads.</t>
-  </si>
-  <si>
-    <t>TS Debby's deluge flooding Tampa area, stranding drivers.</t>
-  </si>
-  <si>
     <t>Tampa Police say they are getting reports of flooding this morning in the usual areas where we see flood waters build during major rain events like South Dale Mabry, Bayshore Boulevard, Manhattan, Swann Avenue, and Westshore Boulevard.\  Bayshore Boulevard is closed due to the incliment weather.Avoid the area if you can.</t>
-  </si>
-  <si>
-    <t>Tampa Police say unless there is an emergency, your only solution is to call a tow truck company to get you out.</t>
-  </si>
-  <si>
-    <t>Meanwhile, areas from Sarasota and the Tampa area are experiencing squalls of strong storms that are producing isolated tornadoes.</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C361"/>
+  <dimension ref="A1:C348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1167,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1181,7 +1181,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1192,7 +1192,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1203,7 +1203,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1211,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1225,7 +1225,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1236,7 +1236,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1247,7 +1247,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1258,7 +1258,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1269,7 +1269,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1280,7 +1280,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1291,7 +1291,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1302,7 +1302,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1313,7 +1313,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1335,7 +1335,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1346,7 +1346,7 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1357,7 +1357,7 @@
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1379,7 +1379,7 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1390,7 +1390,7 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1401,7 +1401,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1412,7 +1412,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1423,7 +1423,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1445,7 +1445,7 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1456,7 +1456,7 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1467,7 +1467,7 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1478,7 +1478,7 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1489,7 +1489,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1500,7 +1500,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1511,7 +1511,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1522,7 +1522,7 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1533,7 +1533,7 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1544,7 +1544,7 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1555,7 +1555,7 @@
         <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1566,7 +1566,7 @@
         <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1577,7 +1577,7 @@
         <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1588,7 +1588,7 @@
         <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1596,10 +1596,10 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1610,7 +1610,7 @@
         <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1621,7 +1621,7 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1632,7 +1632,7 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1643,7 +1643,7 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1654,7 +1654,7 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1665,7 +1665,7 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1676,7 +1676,7 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1687,7 +1687,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1698,7 +1698,7 @@
         <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1709,7 +1709,7 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1720,7 +1720,7 @@
         <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1742,7 +1742,7 @@
         <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1750,10 +1750,10 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1761,10 +1761,10 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1772,10 +1772,10 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1786,7 +1786,7 @@
         <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1797,7 +1797,7 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1808,7 +1808,7 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1819,7 +1819,7 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1830,7 +1830,7 @@
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1841,7 +1841,7 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1852,7 +1852,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1863,7 +1863,7 @@
         <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1874,7 +1874,7 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1885,7 +1885,7 @@
         <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1896,7 +1896,7 @@
         <v>66</v>
       </c>
       <c r="C72" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1907,7 +1907,7 @@
         <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1918,7 +1918,7 @@
         <v>66</v>
       </c>
       <c r="C74" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1929,7 +1929,7 @@
         <v>66</v>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1940,7 +1940,7 @@
         <v>66</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1951,7 +1951,7 @@
         <v>66</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1962,7 +1962,7 @@
         <v>66</v>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1973,7 +1973,7 @@
         <v>66</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1984,7 +1984,7 @@
         <v>66</v>
       </c>
       <c r="C80" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1995,7 +1995,7 @@
         <v>66</v>
       </c>
       <c r="C81" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2006,7 +2006,7 @@
         <v>66</v>
       </c>
       <c r="C82" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2017,7 +2017,7 @@
         <v>66</v>
       </c>
       <c r="C83" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2028,7 +2028,7 @@
         <v>66</v>
       </c>
       <c r="C84" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2039,7 +2039,7 @@
         <v>66</v>
       </c>
       <c r="C85" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2050,7 +2050,7 @@
         <v>66</v>
       </c>
       <c r="C86" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2061,7 +2061,7 @@
         <v>66</v>
       </c>
       <c r="C87" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2072,7 +2072,7 @@
         <v>66</v>
       </c>
       <c r="C88" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2083,7 +2083,7 @@
         <v>66</v>
       </c>
       <c r="C89" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2094,7 +2094,7 @@
         <v>66</v>
       </c>
       <c r="C90" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2105,7 +2105,7 @@
         <v>66</v>
       </c>
       <c r="C91" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2116,7 +2116,7 @@
         <v>66</v>
       </c>
       <c r="C92" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2127,7 +2127,7 @@
         <v>66</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2138,7 +2138,7 @@
         <v>66</v>
       </c>
       <c r="C94" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2149,7 +2149,7 @@
         <v>66</v>
       </c>
       <c r="C95" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2160,7 +2160,7 @@
         <v>66</v>
       </c>
       <c r="C96" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2171,7 +2171,7 @@
         <v>66</v>
       </c>
       <c r="C97" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2182,7 +2182,7 @@
         <v>66</v>
       </c>
       <c r="C98" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2193,7 +2193,7 @@
         <v>66</v>
       </c>
       <c r="C99" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2204,7 +2204,7 @@
         <v>66</v>
       </c>
       <c r="C100" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2215,7 +2215,7 @@
         <v>66</v>
       </c>
       <c r="C101" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2226,7 +2226,7 @@
         <v>66</v>
       </c>
       <c r="C102" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2237,7 +2237,7 @@
         <v>66</v>
       </c>
       <c r="C103" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2248,7 +2248,7 @@
         <v>66</v>
       </c>
       <c r="C104" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2259,7 +2259,7 @@
         <v>66</v>
       </c>
       <c r="C105" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2270,7 +2270,7 @@
         <v>66</v>
       </c>
       <c r="C106" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2281,7 +2281,7 @@
         <v>66</v>
       </c>
       <c r="C107" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2292,7 +2292,7 @@
         <v>66</v>
       </c>
       <c r="C108" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2303,7 +2303,7 @@
         <v>66</v>
       </c>
       <c r="C109" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2314,7 +2314,7 @@
         <v>66</v>
       </c>
       <c r="C110" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2325,7 +2325,7 @@
         <v>66</v>
       </c>
       <c r="C111" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2336,7 +2336,7 @@
         <v>66</v>
       </c>
       <c r="C112" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2347,7 +2347,7 @@
         <v>66</v>
       </c>
       <c r="C113" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2358,7 +2358,7 @@
         <v>66</v>
       </c>
       <c r="C114" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2369,7 +2369,7 @@
         <v>66</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2380,7 +2380,7 @@
         <v>66</v>
       </c>
       <c r="C116" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2391,7 +2391,7 @@
         <v>66</v>
       </c>
       <c r="C117" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2402,7 +2402,7 @@
         <v>66</v>
       </c>
       <c r="C118" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2413,7 +2413,7 @@
         <v>66</v>
       </c>
       <c r="C119" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2424,7 +2424,7 @@
         <v>66</v>
       </c>
       <c r="C120" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2435,7 +2435,7 @@
         <v>66</v>
       </c>
       <c r="C121" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2446,7 +2446,7 @@
         <v>66</v>
       </c>
       <c r="C122" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2457,7 +2457,7 @@
         <v>66</v>
       </c>
       <c r="C123" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2468,7 +2468,7 @@
         <v>66</v>
       </c>
       <c r="C124" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2479,7 +2479,7 @@
         <v>66</v>
       </c>
       <c r="C125" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2490,7 +2490,7 @@
         <v>66</v>
       </c>
       <c r="C126" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2501,7 +2501,7 @@
         <v>66</v>
       </c>
       <c r="C127" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2512,7 +2512,7 @@
         <v>66</v>
       </c>
       <c r="C128" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2523,7 +2523,7 @@
         <v>66</v>
       </c>
       <c r="C129" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2534,7 +2534,7 @@
         <v>66</v>
       </c>
       <c r="C130" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2545,7 +2545,7 @@
         <v>66</v>
       </c>
       <c r="C131" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2556,7 +2556,7 @@
         <v>66</v>
       </c>
       <c r="C132" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2567,7 +2567,7 @@
         <v>66</v>
       </c>
       <c r="C133" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2578,7 +2578,7 @@
         <v>66</v>
       </c>
       <c r="C134" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2589,7 +2589,7 @@
         <v>66</v>
       </c>
       <c r="C135" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2600,7 +2600,7 @@
         <v>66</v>
       </c>
       <c r="C136" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2611,7 +2611,7 @@
         <v>66</v>
       </c>
       <c r="C137" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2622,7 +2622,7 @@
         <v>66</v>
       </c>
       <c r="C138" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2633,7 +2633,7 @@
         <v>66</v>
       </c>
       <c r="C139" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2644,7 +2644,7 @@
         <v>66</v>
       </c>
       <c r="C140" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2655,7 +2655,7 @@
         <v>66</v>
       </c>
       <c r="C141" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2666,7 +2666,7 @@
         <v>66</v>
       </c>
       <c r="C142" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2677,7 +2677,7 @@
         <v>66</v>
       </c>
       <c r="C143" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2688,7 +2688,7 @@
         <v>66</v>
       </c>
       <c r="C144" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2699,7 +2699,7 @@
         <v>66</v>
       </c>
       <c r="C145" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2710,7 +2710,7 @@
         <v>66</v>
       </c>
       <c r="C146" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2721,7 +2721,7 @@
         <v>66</v>
       </c>
       <c r="C147" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2732,7 +2732,7 @@
         <v>66</v>
       </c>
       <c r="C148" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2743,7 +2743,7 @@
         <v>66</v>
       </c>
       <c r="C149" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2754,7 +2754,7 @@
         <v>66</v>
       </c>
       <c r="C150" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2765,7 +2765,7 @@
         <v>66</v>
       </c>
       <c r="C151" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2776,7 +2776,7 @@
         <v>66</v>
       </c>
       <c r="C152" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2787,7 +2787,7 @@
         <v>66</v>
       </c>
       <c r="C153" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2798,7 +2798,7 @@
         <v>66</v>
       </c>
       <c r="C154" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2809,7 +2809,7 @@
         <v>66</v>
       </c>
       <c r="C155" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2820,7 +2820,7 @@
         <v>66</v>
       </c>
       <c r="C156" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2831,7 +2831,7 @@
         <v>66</v>
       </c>
       <c r="C157" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2842,7 +2842,7 @@
         <v>66</v>
       </c>
       <c r="C158" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2853,7 +2853,7 @@
         <v>66</v>
       </c>
       <c r="C159" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2864,7 +2864,7 @@
         <v>66</v>
       </c>
       <c r="C160" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2875,7 +2875,7 @@
         <v>66</v>
       </c>
       <c r="C161" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2886,7 +2886,7 @@
         <v>66</v>
       </c>
       <c r="C162" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2897,7 +2897,7 @@
         <v>66</v>
       </c>
       <c r="C163" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2908,7 +2908,7 @@
         <v>66</v>
       </c>
       <c r="C164" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2919,7 +2919,7 @@
         <v>66</v>
       </c>
       <c r="C165" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2930,7 +2930,7 @@
         <v>66</v>
       </c>
       <c r="C166" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2938,10 +2938,10 @@
         <v>0</v>
       </c>
       <c r="B167" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="C167" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2949,10 +2949,10 @@
         <v>0</v>
       </c>
       <c r="B168" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="C168" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2960,10 +2960,10 @@
         <v>0</v>
       </c>
       <c r="B169" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="C169" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2971,10 +2971,10 @@
         <v>0</v>
       </c>
       <c r="B170" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="C170" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2982,10 +2982,10 @@
         <v>0</v>
       </c>
       <c r="B171" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="C171" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2993,10 +2993,10 @@
         <v>0</v>
       </c>
       <c r="B172" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="C172" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3004,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="B173" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="C173" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="B174" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="C174" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3026,10 +3026,10 @@
         <v>0</v>
       </c>
       <c r="B175" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C175" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="B176" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C176" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3051,7 +3051,7 @@
         <v>162</v>
       </c>
       <c r="C177" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3062,7 +3062,7 @@
         <v>162</v>
       </c>
       <c r="C178" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3070,10 +3070,10 @@
         <v>0</v>
       </c>
       <c r="B179" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C179" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3081,10 +3081,10 @@
         <v>0</v>
       </c>
       <c r="B180" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C180" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="B181" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C181" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3103,10 +3103,10 @@
         <v>0</v>
       </c>
       <c r="B182" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C182" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3114,10 +3114,10 @@
         <v>0</v>
       </c>
       <c r="B183" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C183" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3125,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="B184" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C184" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3136,10 +3136,10 @@
         <v>0</v>
       </c>
       <c r="B185" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C185" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3147,10 +3147,10 @@
         <v>0</v>
       </c>
       <c r="B186" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C186" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3161,7 +3161,7 @@
         <v>168</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3172,7 +3172,7 @@
         <v>168</v>
       </c>
       <c r="C188" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3183,7 +3183,7 @@
         <v>168</v>
       </c>
       <c r="C189" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3194,7 +3194,7 @@
         <v>168</v>
       </c>
       <c r="C190" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3205,7 +3205,7 @@
         <v>168</v>
       </c>
       <c r="C191" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3216,7 +3216,7 @@
         <v>168</v>
       </c>
       <c r="C192" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3227,7 +3227,7 @@
         <v>168</v>
       </c>
       <c r="C193" t="s">
-        <v>72</v>
+        <v>176</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3238,7 +3238,7 @@
         <v>168</v>
       </c>
       <c r="C194" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3249,7 +3249,7 @@
         <v>168</v>
       </c>
       <c r="C195" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3260,7 +3260,7 @@
         <v>168</v>
       </c>
       <c r="C196" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3271,7 +3271,7 @@
         <v>168</v>
       </c>
       <c r="C197" t="s">
-        <v>174</v>
+        <v>74</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3282,7 +3282,7 @@
         <v>168</v>
       </c>
       <c r="C198" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3293,7 +3293,7 @@
         <v>168</v>
       </c>
       <c r="C199" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3304,7 +3304,7 @@
         <v>168</v>
       </c>
       <c r="C200" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3315,7 +3315,7 @@
         <v>168</v>
       </c>
       <c r="C201" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3326,7 +3326,7 @@
         <v>168</v>
       </c>
       <c r="C202" t="s">
-        <v>176</v>
+        <v>47</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3337,7 +3337,7 @@
         <v>168</v>
       </c>
       <c r="C203" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3348,7 +3348,7 @@
         <v>168</v>
       </c>
       <c r="C204" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3359,7 +3359,7 @@
         <v>168</v>
       </c>
       <c r="C205" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3370,7 +3370,7 @@
         <v>168</v>
       </c>
       <c r="C206" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3381,7 +3381,7 @@
         <v>168</v>
       </c>
       <c r="C207" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3392,7 +3392,7 @@
         <v>168</v>
       </c>
       <c r="C208" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3403,7 +3403,7 @@
         <v>168</v>
       </c>
       <c r="C209" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3414,7 +3414,7 @@
         <v>168</v>
       </c>
       <c r="C210" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3425,7 +3425,7 @@
         <v>168</v>
       </c>
       <c r="C211" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3436,7 +3436,7 @@
         <v>168</v>
       </c>
       <c r="C212" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3447,7 +3447,7 @@
         <v>168</v>
       </c>
       <c r="C213" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3458,7 +3458,7 @@
         <v>168</v>
       </c>
       <c r="C214" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3469,7 +3469,7 @@
         <v>168</v>
       </c>
       <c r="C215" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3480,7 +3480,7 @@
         <v>168</v>
       </c>
       <c r="C216" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3491,7 +3491,7 @@
         <v>168</v>
       </c>
       <c r="C217" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3502,7 +3502,7 @@
         <v>168</v>
       </c>
       <c r="C218" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3513,7 +3513,7 @@
         <v>168</v>
       </c>
       <c r="C219" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3524,7 +3524,7 @@
         <v>168</v>
       </c>
       <c r="C220" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3535,7 +3535,7 @@
         <v>168</v>
       </c>
       <c r="C221" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3546,7 +3546,7 @@
         <v>168</v>
       </c>
       <c r="C222" t="s">
-        <v>22</v>
+        <v>188</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3557,7 +3557,7 @@
         <v>168</v>
       </c>
       <c r="C223" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3568,7 +3568,7 @@
         <v>168</v>
       </c>
       <c r="C224" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3579,7 +3579,7 @@
         <v>168</v>
       </c>
       <c r="C225" t="s">
-        <v>133</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3590,7 +3590,7 @@
         <v>168</v>
       </c>
       <c r="C226" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3601,7 +3601,7 @@
         <v>168</v>
       </c>
       <c r="C227" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3612,7 +3612,7 @@
         <v>168</v>
       </c>
       <c r="C228" t="s">
-        <v>186</v>
+        <v>26</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3623,7 +3623,7 @@
         <v>168</v>
       </c>
       <c r="C229" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3634,7 +3634,7 @@
         <v>168</v>
       </c>
       <c r="C230" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3642,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="B231" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="C231" t="s">
-        <v>188</v>
+        <v>72</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3653,10 +3653,10 @@
         <v>0</v>
       </c>
       <c r="B232" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="C232" t="s">
-        <v>189</v>
+        <v>53</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3664,10 +3664,10 @@
         <v>0</v>
       </c>
       <c r="B233" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="C233" t="s">
-        <v>190</v>
+        <v>106</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="B234" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="C234" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3686,10 +3686,10 @@
         <v>0</v>
       </c>
       <c r="B235" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="C235" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3697,10 +3697,10 @@
         <v>0</v>
       </c>
       <c r="B236" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="C236" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="B237" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="C237" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3719,10 +3719,10 @@
         <v>0</v>
       </c>
       <c r="B238" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="C238" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3730,10 +3730,10 @@
         <v>0</v>
       </c>
       <c r="B239" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C239" t="s">
-        <v>76</v>
+        <v>202</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3741,10 +3741,10 @@
         <v>0</v>
       </c>
       <c r="B240" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C240" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3752,10 +3752,10 @@
         <v>0</v>
       </c>
       <c r="B241" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C241" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3763,10 +3763,10 @@
         <v>0</v>
       </c>
       <c r="B242" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C242" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3774,10 +3774,10 @@
         <v>0</v>
       </c>
       <c r="B243" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C243" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3785,10 +3785,10 @@
         <v>0</v>
       </c>
       <c r="B244" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C244" t="s">
-        <v>198</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="B245" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C245" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3807,10 +3807,10 @@
         <v>0</v>
       </c>
       <c r="B246" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C246" t="s">
-        <v>200</v>
+        <v>72</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3818,10 +3818,10 @@
         <v>0</v>
       </c>
       <c r="B247" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C247" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3829,10 +3829,10 @@
         <v>0</v>
       </c>
       <c r="B248" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C248" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3840,10 +3840,10 @@
         <v>0</v>
       </c>
       <c r="B249" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C249" t="s">
-        <v>204</v>
+        <v>75</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3851,10 +3851,10 @@
         <v>0</v>
       </c>
       <c r="B250" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C250" t="s">
-        <v>206</v>
+        <v>76</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3862,10 +3862,10 @@
         <v>0</v>
       </c>
       <c r="B251" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C251" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3873,10 +3873,10 @@
         <v>0</v>
       </c>
       <c r="B252" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C252" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3884,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="B253" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C253" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3898,7 +3898,7 @@
         <v>207</v>
       </c>
       <c r="C254" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3909,7 +3909,7 @@
         <v>207</v>
       </c>
       <c r="C255" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3917,10 +3917,10 @@
         <v>0</v>
       </c>
       <c r="B256" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C256" t="s">
-        <v>80</v>
+        <v>209</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3928,10 +3928,10 @@
         <v>0</v>
       </c>
       <c r="B257" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C257" t="s">
-        <v>81</v>
+        <v>210</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3939,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="B258" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C258" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3950,10 +3950,10 @@
         <v>0</v>
       </c>
       <c r="B259" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C259" t="s">
-        <v>99</v>
+        <v>211</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="B260" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C260" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3972,10 +3972,10 @@
         <v>0</v>
       </c>
       <c r="B261" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C261" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3983,10 +3983,10 @@
         <v>0</v>
       </c>
       <c r="B262" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C262" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="B263" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C263" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4005,10 +4005,10 @@
         <v>0</v>
       </c>
       <c r="B264" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C264" t="s">
-        <v>99</v>
+        <v>214</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4019,7 +4019,7 @@
         <v>208</v>
       </c>
       <c r="C265" t="s">
-        <v>75</v>
+        <v>215</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4030,7 +4030,7 @@
         <v>208</v>
       </c>
       <c r="C266" t="s">
-        <v>209</v>
+        <v>47</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4041,7 +4041,7 @@
         <v>208</v>
       </c>
       <c r="C267" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4052,7 +4052,7 @@
         <v>208</v>
       </c>
       <c r="C268" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4063,7 +4063,7 @@
         <v>208</v>
       </c>
       <c r="C269" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4071,10 +4071,10 @@
         <v>0</v>
       </c>
       <c r="B270" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C270" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4082,10 +4082,10 @@
         <v>0</v>
       </c>
       <c r="B271" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C271" t="s">
-        <v>212</v>
+        <v>61</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4093,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="B272" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C272" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4104,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="B273" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C273" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4115,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="B274" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C274" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4126,10 +4126,10 @@
         <v>0</v>
       </c>
       <c r="B275" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C275" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="B276" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C276" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="B277" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C277" t="s">
-        <v>46</v>
+        <v>222</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4159,10 +4159,10 @@
         <v>0</v>
       </c>
       <c r="B278" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C278" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4173,7 +4173,7 @@
         <v>218</v>
       </c>
       <c r="C279" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4184,7 +4184,7 @@
         <v>218</v>
       </c>
       <c r="C280" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4206,7 +4206,7 @@
         <v>218</v>
       </c>
       <c r="C282" t="s">
-        <v>67</v>
+        <v>225</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4217,7 +4217,7 @@
         <v>218</v>
       </c>
       <c r="C283" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4228,7 +4228,7 @@
         <v>218</v>
       </c>
       <c r="C284" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4239,7 +4239,7 @@
         <v>218</v>
       </c>
       <c r="C285" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4250,7 +4250,7 @@
         <v>218</v>
       </c>
       <c r="C286" t="s">
-        <v>29</v>
+        <v>226</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4261,7 +4261,7 @@
         <v>218</v>
       </c>
       <c r="C287" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4272,7 +4272,7 @@
         <v>218</v>
       </c>
       <c r="C288" t="s">
-        <v>102</v>
+        <v>227</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4283,7 +4283,7 @@
         <v>218</v>
       </c>
       <c r="C289" t="s">
-        <v>222</v>
+        <v>116</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4294,7 +4294,7 @@
         <v>218</v>
       </c>
       <c r="C290" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -4305,7 +4305,7 @@
         <v>218</v>
       </c>
       <c r="C291" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -4316,7 +4316,7 @@
         <v>218</v>
       </c>
       <c r="C292" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -4324,10 +4324,10 @@
         <v>0</v>
       </c>
       <c r="B293" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C293" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -4335,10 +4335,10 @@
         <v>0</v>
       </c>
       <c r="B294" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C294" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -4346,10 +4346,10 @@
         <v>0</v>
       </c>
       <c r="B295" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C295" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -4357,10 +4357,10 @@
         <v>0</v>
       </c>
       <c r="B296" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C296" t="s">
-        <v>224</v>
+        <v>41</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -4368,10 +4368,10 @@
         <v>0</v>
       </c>
       <c r="B297" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C297" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="B298" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C298" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -4390,10 +4390,10 @@
         <v>0</v>
       </c>
       <c r="B299" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C299" t="s">
-        <v>225</v>
+        <v>98</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -4401,10 +4401,10 @@
         <v>0</v>
       </c>
       <c r="B300" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C300" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -4412,10 +4412,10 @@
         <v>0</v>
       </c>
       <c r="B301" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C301" t="s">
-        <v>227</v>
+        <v>122</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -4423,10 +4423,10 @@
         <v>0</v>
       </c>
       <c r="B302" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C302" t="s">
-        <v>228</v>
+        <v>123</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -4437,7 +4437,7 @@
         <v>229</v>
       </c>
       <c r="C303" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -4448,7 +4448,7 @@
         <v>229</v>
       </c>
       <c r="C304" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -4459,7 +4459,7 @@
         <v>229</v>
       </c>
       <c r="C305" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -4467,10 +4467,10 @@
         <v>0</v>
       </c>
       <c r="B306" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C306" t="s">
-        <v>102</v>
+        <v>233</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -4478,10 +4478,10 @@
         <v>0</v>
       </c>
       <c r="B307" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C307" t="s">
-        <v>103</v>
+        <v>234</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -4489,10 +4489,10 @@
         <v>0</v>
       </c>
       <c r="B308" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C308" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -4500,10 +4500,10 @@
         <v>0</v>
       </c>
       <c r="B309" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C309" t="s">
-        <v>44</v>
+        <v>226</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4511,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="B310" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C310" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -4522,10 +4522,10 @@
         <v>0</v>
       </c>
       <c r="B311" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C311" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -4533,10 +4533,10 @@
         <v>0</v>
       </c>
       <c r="B312" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C312" t="s">
-        <v>140</v>
+        <v>236</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -4544,10 +4544,10 @@
         <v>0</v>
       </c>
       <c r="B313" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C313" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -4555,10 +4555,10 @@
         <v>0</v>
       </c>
       <c r="B314" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C314" t="s">
-        <v>102</v>
+        <v>191</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -4566,10 +4566,10 @@
         <v>0</v>
       </c>
       <c r="B315" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C315" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -4577,10 +4577,10 @@
         <v>0</v>
       </c>
       <c r="B316" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C316" t="s">
-        <v>147</v>
+        <v>238</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -4588,10 +4588,10 @@
         <v>0</v>
       </c>
       <c r="B317" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C317" t="s">
-        <v>153</v>
+        <v>239</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -4599,10 +4599,10 @@
         <v>0</v>
       </c>
       <c r="B318" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C318" t="s">
-        <v>219</v>
+        <v>21</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -4610,10 +4610,10 @@
         <v>0</v>
       </c>
       <c r="B319" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C319" t="s">
-        <v>9</v>
+        <v>240</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -4621,10 +4621,10 @@
         <v>0</v>
       </c>
       <c r="B320" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C320" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -4632,10 +4632,10 @@
         <v>0</v>
       </c>
       <c r="B321" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C321" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -4643,10 +4643,10 @@
         <v>0</v>
       </c>
       <c r="B322" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C322" t="s">
-        <v>235</v>
+        <v>102</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -4654,10 +4654,10 @@
         <v>0</v>
       </c>
       <c r="B323" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C323" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -4665,10 +4665,10 @@
         <v>0</v>
       </c>
       <c r="B324" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C324" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -4676,10 +4676,10 @@
         <v>0</v>
       </c>
       <c r="B325" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C325" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -4687,10 +4687,10 @@
         <v>0</v>
       </c>
       <c r="B326" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C326" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -4701,7 +4701,7 @@
         <v>237</v>
       </c>
       <c r="C327" t="s">
-        <v>238</v>
+        <v>165</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -4712,7 +4712,7 @@
         <v>237</v>
       </c>
       <c r="C328" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4723,7 +4723,7 @@
         <v>237</v>
       </c>
       <c r="C329" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4734,7 +4734,7 @@
         <v>237</v>
       </c>
       <c r="C330" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4745,7 +4745,7 @@
         <v>237</v>
       </c>
       <c r="C331" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4756,7 +4756,7 @@
         <v>237</v>
       </c>
       <c r="C332" t="s">
-        <v>241</v>
+        <v>81</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4767,7 +4767,7 @@
         <v>237</v>
       </c>
       <c r="C333" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4778,7 +4778,7 @@
         <v>237</v>
       </c>
       <c r="C334" t="s">
-        <v>242</v>
+        <v>184</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4789,7 +4789,7 @@
         <v>237</v>
       </c>
       <c r="C335" t="s">
-        <v>243</v>
+        <v>20</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4800,7 +4800,7 @@
         <v>237</v>
       </c>
       <c r="C336" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4811,7 +4811,7 @@
         <v>237</v>
       </c>
       <c r="C337" t="s">
-        <v>244</v>
+        <v>24</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4822,7 +4822,7 @@
         <v>237</v>
       </c>
       <c r="C338" t="s">
-        <v>6</v>
+        <v>247</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4833,7 +4833,7 @@
         <v>237</v>
       </c>
       <c r="C339" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4844,7 +4844,7 @@
         <v>237</v>
       </c>
       <c r="C340" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4855,7 +4855,7 @@
         <v>237</v>
       </c>
       <c r="C341" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4866,7 +4866,7 @@
         <v>237</v>
       </c>
       <c r="C342" t="s">
-        <v>246</v>
+        <v>22</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4877,7 +4877,7 @@
         <v>237</v>
       </c>
       <c r="C343" t="s">
-        <v>18</v>
+        <v>248</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4888,7 +4888,7 @@
         <v>237</v>
       </c>
       <c r="C344" t="s">
-        <v>19</v>
+        <v>249</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4899,7 +4899,7 @@
         <v>237</v>
       </c>
       <c r="C345" t="s">
-        <v>20</v>
+        <v>250</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4910,7 +4910,7 @@
         <v>237</v>
       </c>
       <c r="C346" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4921,7 +4921,7 @@
         <v>237</v>
       </c>
       <c r="C347" t="s">
-        <v>183</v>
+        <v>26</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4932,150 +4932,7 @@
         <v>237</v>
       </c>
       <c r="C348" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3">
-      <c r="A349" t="s">
-        <v>0</v>
-      </c>
-      <c r="B349" t="s">
-        <v>237</v>
-      </c>
-      <c r="C349" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3">
-      <c r="A350" t="s">
-        <v>0</v>
-      </c>
-      <c r="B350" t="s">
-        <v>237</v>
-      </c>
-      <c r="C350" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
-      <c r="A351" t="s">
-        <v>0</v>
-      </c>
-      <c r="B351" t="s">
-        <v>237</v>
-      </c>
-      <c r="C351" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3">
-      <c r="A352" t="s">
-        <v>0</v>
-      </c>
-      <c r="B352" t="s">
-        <v>237</v>
-      </c>
-      <c r="C352" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3">
-      <c r="A353" t="s">
-        <v>0</v>
-      </c>
-      <c r="B353" t="s">
-        <v>237</v>
-      </c>
-      <c r="C353" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3">
-      <c r="A354" t="s">
-        <v>0</v>
-      </c>
-      <c r="B354" t="s">
-        <v>237</v>
-      </c>
-      <c r="C354" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3">
-      <c r="A355" t="s">
-        <v>0</v>
-      </c>
-      <c r="B355" t="s">
-        <v>237</v>
-      </c>
-      <c r="C355" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3">
-      <c r="A356" t="s">
-        <v>0</v>
-      </c>
-      <c r="B356" t="s">
-        <v>237</v>
-      </c>
-      <c r="C356" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3">
-      <c r="A357" t="s">
-        <v>0</v>
-      </c>
-      <c r="B357" t="s">
-        <v>237</v>
-      </c>
-      <c r="C357" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3">
-      <c r="A358" t="s">
-        <v>0</v>
-      </c>
-      <c r="B358" t="s">
-        <v>237</v>
-      </c>
-      <c r="C358" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3">
-      <c r="A359" t="s">
-        <v>0</v>
-      </c>
-      <c r="B359" t="s">
-        <v>237</v>
-      </c>
-      <c r="C359" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3">
-      <c r="A360" t="s">
-        <v>0</v>
-      </c>
-      <c r="B360" t="s">
-        <v>237</v>
-      </c>
-      <c r="C360" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3">
-      <c r="A361" t="s">
-        <v>0</v>
-      </c>
-      <c r="B361" t="s">
-        <v>237</v>
-      </c>
-      <c r="C361" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/sentence_level/data/sentences/all/2012_debby_tornado.xlsx
+++ b/sentence_level/data/sentences/all/2012_debby_tornado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="252">
   <si>
     <t>2012_debby_tornado</t>
   </si>
@@ -40,205 +40,595 @@
     <t>The Highlands County Sheriff's Office said in a news release that several tornadoes moved through the area southeast of Tampa, damaging homes.</t>
   </si>
   <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Steady rainfall spurred by Debby is expected to extend to southern areas of Alabama, Georgia and South Carolina.</t>
+  </si>
+  <si>
+    <t>The direction of steering flow will continue to affect moisture in Southeast Georgia and South Carolina, Packett said.</t>
+  </si>
+  <si>
+    <t>3:15 p.m. A tornado watch has been posted for all of northeast Florida and Southeast Georgia until 11 p.m.  2:45 p.m. Bradford County Sheriff's Office and Animal Control staff finished relocating about 60 dogs, cats and puppies from the county animal shelter to high ground at the county fairgrounds.</t>
+  </si>
+  <si>
+    <t>A few tornadoes are possible today across the eastern Florida panhandle, the Florida peninsula, and southern Georgia.</t>
+  </si>
+  <si>
+    <t>5 to 10 inches are possible over central Florida and southeast Georgia into coastal South Carolina.</t>
+  </si>
+  <si>
+    <t>Central Florida and southeast Georgia will likely be drenched with 5 to 10 inches, with smaller but still significant precipitation amounts in parts of coastal Alabama, southeastern Louisiana and south Florida.</t>
+  </si>
+  <si>
+    <t>It should be a nasty weather week for Florida and southeast Georgia.</t>
+  </si>
+  <si>
+    <t>9:50 a.m. Tornado warnings have been issued for northeastern Camden and southeastern Glynn counties in Georgia, expiring at 10:15 a.m.  9:45 a.m. Steve Letro, meteorologist-in-charge of Jacksonville's National Weather Service office, said the First Coast can expect periodic bands of heavy rain over the next few days, with periodic breaks.</t>
+  </si>
+  <si>
+    <t>In a news statement Monday, the National Weather Service told news of a tornado warning for Glynn County, Georgia and neighboring areas.</t>
+  </si>
+  <si>
+    <t>Most of the strongest storms are occurring throughout central Florida and even as far northeast into southeastern Georgia.</t>
+  </si>
+  <si>
+    <t>“It’s not going to intensify much,” he said, “But it looks like it’ll be here for a while.”  The storm has caused several tornadoes in central Florida and southern Georgia — something that St. Augustine residents should be aware of, Peterson said.</t>
+  </si>
+  <si>
+    <t>9:10 a.m. A tornado warning posted for southeastern Camden and Glynn counties in Georgia is set to expire at 9:30 a.m.  A stalled Tropical Storm Debby will likely pound the First Coast with periodic heavy rain for days, causing  flooding and other weather-related issues, according to the National Weather Service.</t>
+  </si>
+  <si>
+    <t>The storm is expected to produce the following rain accumulations in the next couple of days: 6 to 12 inches across northern Florida, 4 to 8 inches across central Florida and extreme southeastern Georgia, and 3 to 5 inches in south Florida and extreme southeastern South Carolina.</t>
+  </si>
+  <si>
+    <t>The hurricane center also warned that more tornadoes were possible in parts of Florida and southern Georgia.</t>
+  </si>
+  <si>
+    <t>A warning, expiring at 9:30 a.m., is currently in place for southeastern Camden and southern Glynn counties in Georgia.</t>
+  </si>
+  <si>
+    <t>Tampa Bay</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby, messy, unorganized and noncommittal in its path, loitered out in the gulf and sent lashing bands of record-breaking rain over Tampa Bay and its surrounding counties.</t>
+  </si>
+  <si>
+    <t>High winds forced the closure of an interstate bridge that spans Tampa Bay and links St. Petersburg with areas to the southeast.</t>
+  </si>
+  <si>
+    <t>Even though Tropical Storm Debby has yet to make landfall, she's brought her wrath upon the Tampa Bay area.</t>
+  </si>
+  <si>
+    <t>Florida officials said the storm has left an estimated 35,000 people without power and forced the closure of a four-mile (six-km) bridge spanning Tampa Bay that connects the city of St. Petersburg with the Bradenton area.</t>
+  </si>
+  <si>
+    <t>Tampa Bay affiliate, FOX 13 reported 32-year-old, Heather Town was thrown from her home on Montana Trail when the tornado hit her home.</t>
+  </si>
+  <si>
+    <t>It was unclear if any tornadoes actually touched down in the Tampa Bay area.</t>
+  </si>
+  <si>
+    <t>The Sunshine Skyway bridge, which stretches over Tampa Bay and connects Bradenton with St. Petersburg, was closed Sunday because of high winds and remained closed Monday, Pinellas County officials said.</t>
+  </si>
+  <si>
+    <t>In other areas of the Southeast, Debby raked the Tampa Bay area with high wind and heavy rain Monday in a drenching that could top 2 feet over the next few days and trigger widespread flooding.</t>
+  </si>
+  <si>
+    <t>The longer it sits, the more rain we get.”  High winds and the threat of flooding forced the closing of an interstate highway bridge that spans Tampa Bay and links St. Petersburg with areas to the southwest.</t>
+  </si>
+  <si>
+    <t>Dan Shaffer shares photos and images from across the Tampa Bay area.</t>
+  </si>
+  <si>
+    <t>On St. Pete Beach in the Tampa Bay area, surfers enjoyed the large waves in the Gulf, which is usually so calm the water looks like glass.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby brings heavy rain, strong winds to Tampa Bay.</t>
+  </si>
+  <si>
+    <t>The old oak in the family's back yard at 301 E Clinton St. in Old Seminole Heights burst through the guest bedroom ceiling just before 5 a.m. as Tropical Storm Debby raged outside, sending wind gusts of up to 50 mph tearing through the Tampa Bay area.</t>
+  </si>
+  <si>
+    <t>Southeast of Tampa Bay in Highlands County, Sheriff's Office spokeswoman Nell Hays said a woman was found dead in a house in the Highlands town of Venus that was destroyed in the storm.</t>
+  </si>
+  <si>
+    <t>NWS</t>
+  </si>
+  <si>
+    <t>St. Johns County was under a tornado watch through late Monday night and is under a flood warning until this evening, according to the NWS.</t>
+  </si>
+  <si>
+    <t>The NWS recorded a waterspout about eight nautical miles off the coast of Vilano Beach on Monday evening at about 5:45 p.m.</t>
+  </si>
+  <si>
+    <t>Since forming on Saturday, more than 25 reports of tornadoes have been received by the National Weather Service (NWS) including damage reports from possible tornadoes in the Naples, Saint Petersburg and Jacksonville areas.</t>
+  </si>
+  <si>
+    <t>NWS tells news that at 8:37 AM EST Doppler Radar spotted a “severe thunderstorm it strong rotation”.</t>
+  </si>
+  <si>
+    <t>Phil Peterson, a meteorologist with the NWS, said Tropical Storm Debby is a very slow-moving storm that is traveling northeast across Florida from the Gulf of Mexico.</t>
+  </si>
+  <si>
+    <t>NWS had issued more than 60 tornado warnings across parts of the state as of noon Monday.</t>
+  </si>
+  <si>
+    <t>Apalachicola</t>
+  </si>
+  <si>
+    <t>Such sustained winds were recorded early Sunday evening in several spots on the Florida Panhandle, west of Apalachicola.</t>
+  </si>
+  <si>
+    <t>One of the latest advisories from the National Hurricane Center put the storm southwest of Apalachicola and stationary with maximum sustained winds of 45 mph.</t>
+  </si>
+  <si>
+    <t>Debby was essentially stationary about 115 miles (185 km) south-southwest of Apalachicola, Florida, on Sunday evening.</t>
+  </si>
+  <si>
+    <t>With tropical storm-force winds extending outward up to 230 miles (370 km) from its center off the northwest coastal town of Apalachicola late Monday afternoon, forecasters said Debby menaced a broad swath of inland territory with flash flooding from torrential downpours.</t>
+  </si>
+  <si>
+    <t>By late Sunday night, Debby sat nearly stationary some 115 miles south-southwest of the coastal Panhandle town of Apalachicola, and the storm's unsparing rain and wind were expected to continue today and maybe into Tuesday.</t>
+  </si>
+  <si>
+    <t>Debby's center was essentially stationary about 110 miles (180 km) south-southwest of Apalachicola, Fla., on Sunday evening.</t>
+  </si>
+  <si>
+    <t>ET, Debby was centered 30 miles south-southwest of Apalachicola and was not moving.</t>
+  </si>
+  <si>
+    <t>By late afternoon, Debby was in the Gulf of Mexico, 30 miles southwest of Apalachicola, with sustained winds around 45 mph.</t>
+  </si>
+  <si>
+    <t>National Hurricane Center</t>
+  </si>
+  <si>
+    <t>Packing 60 mph winds, Debby's eye was still 115 miles south-southwest of Apalachiocola, Florida (and 195 miles east-southeast of the mouth of the Mississippi River in Louisiana) according to the National Hurricane Center's 7 p.m. (8 p.m.</t>
+  </si>
+  <si>
+    <t>Stacy Stewart, a senior hurricane specialist with the National Hurricane Center, said of the twisters: 'This is quite common with this type of storm.</t>
+  </si>
+  <si>
+    <t>Debby was already bringing up to 5 inches of rain per hour on parts of the Panhandle, and the National Hurricane Center said northern Florida could see another 6 to 12 inches in the next two days.</t>
+  </si>
+  <si>
+    <t>See a video of a funnel cloud in Alligator Alley sent by a viewer  Senior hurricane specialist Stacy Stewart with the National Hurricane Center says ``tornadic activity goes up'' because such strong winds are not typical.</t>
+  </si>
+  <si>
+    <t>The National Hurricane Center’s (NHC) latest track indicates a little easterly movement, but the movement remains extremely slow.</t>
+  </si>
+  <si>
+    <t>Chris Landsea, a meteorologist at the National Hurricane Center, said forecasters rely on computer models which were contradictory until Sunday.</t>
+  </si>
+  <si>
+    <t>The National Hurricane Center tells news that a tornado in Fernandina Beach, Florida was spotted Monday June 25, 2012 as Tropical Storm Debby 2012 continues its projected path northward.</t>
+  </si>
+  <si>
+    <t>Senior hurricane specialist Stacy Stewart with the National Hurricane Center says “tornadic activity goes up” because such strong winds are not typical.</t>
+  </si>
+  <si>
+    <t>The Miami-based National Hurricane Center said Debby, the first named storm of 2012 to move into the Gulf of Mexico, was packing top sustained winds of about 45 miles per hour (72 kph) and forecasters predicted little change in strength over the next couple of days.</t>
+  </si>
+  <si>
+    <t>10 from the National Hurricane Center in Miami says the threat of flooding continues for the next day or two.</t>
+  </si>
+  <si>
+    <t>"This is quite common with this type of storm," senior hurricane specialist Stacy Stewart with the National Hurricane Center said of the twisters.</t>
+  </si>
+  <si>
+    <t>According to the National Hurricane Center, almost all tropical cyclones near or at landfall spawn at least one tornado, provided enough of the storm's circulation moves over land, which was the case in Florida.</t>
+  </si>
+  <si>
+    <t>The computer model spread still shows no clear direction, but the National Hurricane Center has given up on the westward push towards Texas.</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>On Sunday, Debby spawned twisters that killed a woman, badly injured a child and wrecked homes in central Florida in rural Highlands County, according to an emergency management official.</t>
+  </si>
+  <si>
+    <t>The Storm Prediction Center has noted 15 tornado reports today in Florida.</t>
+  </si>
+  <si>
+    <t>The Sunshine Skyway Bridge remains closed this morning, according to the Florida Highway Patrol due to high winds.</t>
+  </si>
+  <si>
+    <t>Scott's Executive Order directs all state agencies, including the Florida National Guard, to provide any necessary assistance when requested by local governments.</t>
+  </si>
+  <si>
+    <t>Debby spawns rash of tornadoes in Florida; 1 killed (photos, video).</t>
+  </si>
+  <si>
+    <t>Meanwhile, a state of emergency was declared in the states of Florida and Louisiana as residents pick up the pieces in the areas hardest hit by Debby.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby Projected Path Prompts Florida Tornado in Fernandina Beach.</t>
+  </si>
+  <si>
+    <t>Isolated storm total amounts of 25 inches are possible in north Florida.</t>
+  </si>
+  <si>
+    <t>Debby is one Florida tourist who appears to be here to stay through the end of the week.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby is bringing a deluge of water to Florida, but what slight rain the Coastal Empire saw from the storm Monday should be the most we get as today is expected to be drier.</t>
+  </si>
+  <si>
+    <t>Debby already has been blamed for one death in Venus, Florida, about 100 miles southeast of Tampa, when a woman died while trying to shelter her 3-year-old daughter during a tornado.</t>
+  </si>
+  <si>
+    <t>Thousands were on the beach at Pensacola Beach, Florida, on Sunday morning.</t>
+  </si>
+  <si>
+    <t>Heather Town, 32, was found dead after the tornado ripped through her mobile home in Venus, Florida, in the debris of a barbed wire fence, with her young daughter in her arms.</t>
+  </si>
+  <si>
+    <t>The same alert is also in place for people south of the River to Englewood, Florida, officials tell news.</t>
+  </si>
+  <si>
+    <t>Wind and tropical storm conditions will continue over portions of the Florida Gulf Coast tonight and Tuesday.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby spawns fatal tornado in Florida, drenches coast - .com.</t>
+  </si>
+  <si>
+    <t>10:00 AM CDT Monday, June 25, 2012   Location: 28.6°N 85.2°W   Moving: Northeast at 3 miles per hour   Minimum pressure: 995 millibars   Maximum sustained winds: 45 miles per hour  Tropical Storm Warnings: East of the Alabama-Florida border eastward to the Suwannee River.</t>
+  </si>
+  <si>
+    <t>Rainfall totals have already been very impressive across Florida.</t>
+  </si>
+  <si>
+    <t>Parts of northern Florida could get 10 to 15 inches of rain, and some spots as much as 25 inches, as the storm wrings itself out, forecasters said.</t>
+  </si>
+  <si>
+    <t>And high winds have prompted authorities to shut down the Sunshine Skyway bridge on Interstate 275 connecting St. Petersburg and Bradenton, Florida, said Elizabeth LaRotonda with St. Petersburg police.</t>
+  </si>
+  <si>
+    <t>Forecast models show Debby making landfall along the northern Florida Gulf Coast by Thursday.</t>
+  </si>
+  <si>
+    <t>Forecasters said it would crawl to the northeast, come ashore along Florida’s northwestern coast on Wednesday and track slowly across the state, exiting along the Atlantic Coast by Saturday morning and losing steam along the way.</t>
+  </si>
+  <si>
+    <t>The Florida Highway Patrol closed the Sunshine Skyway bridge because of vicious gusts.</t>
+  </si>
+  <si>
+    <t>"Some communities are already grappling with flooding, wind damage and electrical outages," said Scott, who ordered all state agencies, including the  Florida National Guard, to provide any necessary assistance requested by local governments.</t>
+  </si>
+  <si>
+    <t>Barring major forecast changes, Debby's bands will bring steady rain and wind to all of Central Florida through the end of the week, spawning the threat of rapid-forming tornadoes and dropping up to 8 inches of rain in different locations across the region, forecasters said.</t>
+  </si>
+  <si>
+    <t>There are no reports of any injuries after authorities say a tornado touched down in southwest Florida as Tropical Storm Debby formed.</t>
+  </si>
+  <si>
+    <t>Debby is actually more than 100 miles off the north Florida coast, and barely moving.</t>
+  </si>
+  <si>
+    <t>A tropical storm warning is effect still for residents east of the Alabama-Florida border, east to the Suwannee River.</t>
+  </si>
+  <si>
+    <t>Monday, as it churned slowly in the Gulf, it had again drifted -- this time going generally northeast and putting Central Florida counties in its projected path.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tropical Storm Debby Drenches Florida. </t>
+  </si>
+  <si>
+    <t>It could dump more than a foot (30 cm) of rain in some areas of the state, with isolated amounts of more than two feet (64 cm) in north Florida, the hurricane center said.</t>
+  </si>
+  <si>
+    <t>Tampa, Florida -- The flood waters in the South Tampa area are beginning to recede this morning, but several cars flooded out by the deep waters remain stalled in some of the hardest hit areas like Manhattan Avenue.</t>
+  </si>
+  <si>
+    <t>What that means for Central Florida is more rain, flooding and more wind for the next few days.</t>
+  </si>
+  <si>
+    <t>Slideshow: How Florida is dealing with Debby  "Because of the broad impact of Tropical Storm Debby, virtually every county in Florida could be affected," Scott said.</t>
+  </si>
+  <si>
+    <t>“The widespread flooding is the biggest concern,” said Florida Emergency Operations Center spokeswoman Julie Roberts.</t>
+  </si>
+  <si>
+    <t>The combination of a storm surge and the high tide could cause 4 to 6 feet of flooding at Florida's Apalachee Bay to Waccasassa Bay, forecasters said.</t>
+  </si>
+  <si>
+    <t>Expect tornado watches to be issued throughout the next 24 to 48 hours across Florida as the storms stays to the west of the coast.</t>
+  </si>
+  <si>
+    <t>We could easily see 10 to 15 inches of rain over eastern portions of the Florida panhandle and northern Florida with isolated areas seeing nearly 25 inches!</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby drenches Florida's Gulf Coast (+video).</t>
+  </si>
+  <si>
+    <t>Much of north-central Florida was experiencing drought conditions until Tropical Storm Debby came through.</t>
+  </si>
+  <si>
+    <t>The expansive, stalled Tropical Storm Debby lashed Florida on Sunday, spawning apparent tornadoes in the central part of the state that killed one woman, a county spokeswoman said.</t>
+  </si>
+  <si>
+    <t>Weitlich said forecasters will likely extend a flood warning beyond Lake County for low-lying areas as rain bands form over Central Florida.</t>
+  </si>
+  <si>
+    <t>The death in Florida was blamed on a tornado spawned by the storm, while a man went missing in the Gulf of Mexico at an Alabama beach.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Watches: South of the Suwannee River to Englewood, Florida.</t>
+  </si>
+  <si>
+    <t>At least a dozen Florida counties have been impacted by possible and or confirmed tornado damage including Polk, Marion, Duval, Miami-Dade, Pasco, Osceole, Brevard, Haree, Highlands, Glades, Palm Beach and Collier.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby still threatening to flood much of Florida Gulf Coast.</t>
+  </si>
+  <si>
+    <t>The twisters came as Debby churned on an uncertain track toward Florida's Gulf coast on Sunday, bringing strong winds and waves that forced the closure of about a quarter of offshore oil and gas production in the Gulf of Mexico.</t>
+  </si>
+  <si>
+    <t>A public advisory said parts of northern Florida could receive 10 to 15 inches of rain, with some areas getting as much as 25.</t>
+  </si>
+  <si>
+    <t>Coastal Alabama and parts of Florida, including the Panhandle, were under tropical storm warnings.</t>
+  </si>
+  <si>
+    <t>MIAMI - Slow-moving Tropical Storm Debby's outer bands lashed Florida with rain and kicked up rough surf off Alabama on Sunday, prompting storm warnings for those states and causing at least one death.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby, its accompanying winds and rains brought flooding to parts of Florida.</t>
+  </si>
+  <si>
+    <t>Officials tracked a tornado northwest of Fernandina Beach, Florida moments ago; weather reports are advising residents to take cover in the area promptly.</t>
+  </si>
+  <si>
+    <t>Flash flood threats remain in place across Northern Florida and Southern Alabama as well.</t>
+  </si>
+  <si>
+    <t>Florida wrapped in the eastern circulation of Debby combined with strong low-level shear and instability to lead to the rash of tornadoes.</t>
+  </si>
+  <si>
+    <t>Letro said the most severe weather has been and will be from heavy rain bands that have been pounding central, north and northeast Florida.</t>
+  </si>
+  <si>
+    <t>Debby kicks up storm along Florida panhandle.</t>
+  </si>
+  <si>
+    <t>They are additionally warning residents northwest of Jacksonville Florida today, including Fernandina Beach to be on alert.</t>
+  </si>
+  <si>
+    <t>People in several sparsely populated counties near the crook of Florida’s elbow were urged to leave low-lying neighborhoods because of the danger of flooding.</t>
+  </si>
+  <si>
+    <t>Check out these rainfall totals (in inches) from the past 24 hours up to 8am today (8am June 24, 2012 through 8am June 25, 2012):  Here’s a look by the Hydrometeorological Prediction Center for possible rainfall totals for the next five days:  Bottom line: Tropical Storm Debby will slowly drift to the east-northeast and push through Florida towards the end of the week.</t>
+  </si>
+  <si>
+    <t>At least one person was killed Sunday by a tornado spun off by Debby in Florida, and Alabama authorities searched for a man who disappeared in the rough surf.</t>
+  </si>
+  <si>
+    <t>What Florida really needs, Monson said, is the return of a regular rainfall pattern.</t>
+  </si>
+  <si>
+    <t>"Because of the broad impact of Tropical Storm Debby, virtually every county in Florida could be affected," Scott said in a statement announcing the statewide emergency.</t>
+  </si>
+  <si>
+    <t>Debby already has dumped heavy rain on parts of Florida and spawned some isolated tornadoes, causing damage to homes and knocking down power lines.</t>
+  </si>
+  <si>
+    <t>A tropical storm warning is in effect for the Florida Gulf Coast from Destin to Englewood.</t>
+  </si>
+  <si>
+    <t>Parts of Florida's west coast and coastal Mississippi could see 2 to 4 feet deep waters.</t>
+  </si>
+  <si>
+    <t>Debby brings downpours to Florida's Big Bend - .com.</t>
+  </si>
+  <si>
+    <t>While Debby has yet to make landfall, numerous reports of damage have been reported across parts of Florida from a rash of tornadoes spawned by the storm.</t>
+  </si>
+  <si>
+    <t>Citing the threat of heavy rainfall and potential tornadoes, Florida Gov.</t>
+  </si>
+  <si>
+    <t>CORAL GABLES (LALATE) – Tropical Storm Debby’s projected path is now prompting Florida tornado warnings today.</t>
+  </si>
+  <si>
+    <t>Then, by Sunday night, it headed north toward Florida's Panhandle.</t>
+  </si>
+  <si>
+    <t>Florida's Pinellas Country was also hit hard, with flash flooding in some areas and at least 20 houses with roofs that were partially or fully blown off during a tornado-like storm on Sunday.</t>
+  </si>
+  <si>
+    <t>Debby is currently causing a lot of problems throughout the western coast of Florida and the Panhandle.</t>
+  </si>
+  <si>
+    <t>“Little movement is expect during the next couple of days.” However, “tropical storm conditions will condition over portions of the Florida Gulf Coast Today.” For the latest update, click HERE.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby: Florida reports 15 tornadoes, video.</t>
+  </si>
+  <si>
+    <t>Residents in several counties near the crook of Florida's elbow were urged to leave low-lying neighborhoods because of the threat of flooding.</t>
+  </si>
+  <si>
+    <t>Flash flood warnings were in effect for many areas and the Florida Division of Emergency Management has cautioned that inland flooding is associated with more than half the deaths from tropical cyclones in the United States over the last 30 years.</t>
+  </si>
+  <si>
+    <t>Shell, BP and ExxonMobil began evacuating workers from offshore rigs on Sunday, but BP and Shell had made plans to return to those platforms as Debby turned toward Florida.</t>
+  </si>
+  <si>
+    <t>One Death   The death in Florida was blamed on a tornado spawned by the storm, while a man went missing in the Gulf of Mexico at an Alabama beach.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby lashed parts of Florida with driving rains and high winds on Monday, threatening to trigger more flooding and tornadoes as it hovered off the state's northern Gulf of Mexico coast.</t>
+  </si>
+  <si>
+    <t>The hurricane center said tropical storm conditions will extend for the entire area from the Mississippi-Alabama line eastward to the Suwannee River, Florida, by night's end.</t>
+  </si>
+  <si>
+    <t>The National Weather Service had tornado warnings out, indicating a high likelihood of a twister strike, in spots off-and-on throughout the day Sunday, and a less severe tornado watch is in effect for much of western Florida through 5 a.m. Monday.</t>
+  </si>
+  <si>
+    <t>Despite the immediate dangers of the storm, the heavy rains may have a long-term positive effect for Florida.</t>
+  </si>
+  <si>
+    <t>Louisiana Offshore Oil Port</t>
+  </si>
+  <si>
+    <t>And the Louisiana Offshore Oil Port, which unloads about 1 million barrels per day of U.S. crude oil imports from giant tankers, said it was set to resume operations on Monday, after shutting Sunday due to rough seas.</t>
+  </si>
+  <si>
+    <t>The Louisiana Offshore Oil Port (LOOP), the single location where the largest oil tanker ships can directly deliver crude, stopped offloading tankers on Sunday morning, as rough seas were building at its sea terminal.</t>
+  </si>
+  <si>
+    <t>St. Petersburg</t>
+  </si>
+  <si>
+    <t>Debbie Ponceti said wind was pushing run underneath the door to her home in Madeira Beach, about 10 miles east of St. Petersburg, while her front lawn has been reduced to mush and waters in a lagoon near her house are steadily rising.</t>
+  </si>
+  <si>
+    <t>More clear was the scene in St. Petersburg's Shore Acres.</t>
+  </si>
+  <si>
+    <t>Forecasters declared a flash flood emergency for parts of Franklin, Liberty and Wakulla counties near Tallahassee until late Monday, and Debby drove rising tides across neighborhood streets as far south as the Tampa-St. Petersburg area.</t>
+  </si>
+  <si>
+    <t>CNN iReporter Magalie Caragiorgio said Monday she has been stuck in her home in New Port Richey, near St. Petersburg, since Sunday because of flooding and hasn't been able to get to her job as a nurse.</t>
+  </si>
+  <si>
+    <t>Coffee Pot Boulevard in St. Petersburg.</t>
+  </si>
+  <si>
+    <t>U.S.</t>
+  </si>
+  <si>
+    <t>Debby is expected to continue veering away from the U.S. Gulf waters that are home to about 20 percent of U.S. oil and 6 percent of natural gas output.</t>
+  </si>
+  <si>
+    <t>Beach areas were "basically underwater," as were many side streets and at least two major thoroughfares -- U.S. Highway 19 and Gulf to Bay Boulevard.</t>
+  </si>
+  <si>
+    <t>Gulf to Bay Boulevard in Clearwater and U.S. 19 up into Pasco.</t>
+  </si>
+  <si>
+    <t>Over the weekend, the storm idled about a quarter of U.S. offshore oil and natural gas production in the Gulf of Mexico, based on figures issued by U.S. offshore regulators.</t>
+  </si>
+  <si>
+    <t>The Gulf of Mexico is home to 6.5 percent of U.S. natural gas production, 29 percent of oil output and 40 percent of refining capacity.</t>
+  </si>
+  <si>
+    <t>Royal Dutch Shell PLC said Sunday it shut down production at two of its U.S. Gulf of Mexico production platforms Sunday and was evacuating employees as Tropical Storm Debby bore down.</t>
+  </si>
+  <si>
+    <t>Pasco emergency officials reported severe flooding especially in areas west of U.S. 19.</t>
+  </si>
+  <si>
+    <t>But U.S. regulators said on Monday that Gulf of Mexico oil and gas operators had shut in 44.1 percent of daily oil and 34.8 percent of daily natural gas production because of Tropical Storm Debby, a near doubling of the oil total from Sunday.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby</t>
+  </si>
+  <si>
+    <t>The western portion of Tropical Storm Debby has been lacking throughout the weekend.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby could affect Palm Beach County for days.</t>
+  </si>
+  <si>
+    <t>And BP spokesman Brett Clanton said early Sunday evening that "we've evacuated the majority of our offshore personnel in the Gulf of Mexico" due to Tropical Storm Debby.</t>
+  </si>
+  <si>
+    <t>On Saturday, June 23, 2012, Tropical Storm Debby formed across the eastern Gulf of Mexico.</t>
+  </si>
+  <si>
+    <t>Photos of damage from Tropical Storm Debby.</t>
+  </si>
+  <si>
+    <t>Oak tree arrives in Tampa home's guest bedroom with thud, thanks to Tropical Storm Debby.</t>
+  </si>
+  <si>
+    <t>In fact, Tropical Storm Debby will likely remain stationary over the northern Gulf for the next 24 hours and continue to produce heavy rains, large areas of flooding, and isolated tornadoes for the next three to five days.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby spawns tornado warnings, severe weather.... Just One More Thing...  We have sent you a verification email.</t>
+  </si>
+  <si>
+    <t>At 4 p.m., the center of Tropical Storm Debby was located near latitude 29.3 north, longitude 85.1 west.</t>
+  </si>
+  <si>
+    <t>View a slideshow that includes videos and more photos from the affects of Tropical Storm Debby.</t>
+  </si>
+  <si>
+    <t>Although Tropical Storm Debby has weakened, coastal   flooding is not yet diminishing.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby is a large tropical cyclone, with strong winds and heavy rains occurring at large distances from the center.</t>
+  </si>
+  <si>
+    <t>Rainfall totals will be the biggest threat from Tropical Storm Debby.</t>
+  </si>
+  <si>
+    <t>12:45 p.m. A heavy thunderstorm related to Tropical Storm Debby is being blamed for the shredding of part of a sheet metal roof torn off from a hanger at Jacksonville International Airport this morning.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby a dangerous slow mover | EarthSky.org.</t>
+  </si>
+  <si>
+    <t>Oak tree arrives in Tampa home's guest bedroom with thud, thanks to Tropical Storm Debby  TAMPA — Joseph Shelton woke up from a dream early Monday in a cold sweat.</t>
+  </si>
+  <si>
+    <t>An erratic Tropical Storm Debby stalled just off the Florida Panhandle on Monday evening, dumping sheets of rain on Florida's Big Bend marshes and towns far down the peninsula.</t>
+  </si>
+  <si>
+    <t>The tornado touched down as Tropical Storm Debby formed.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby brings tornado threat to region.</t>
+  </si>
+  <si>
+    <t>As of now, the track of Tropical Storm Debby shows very little movement for the next several days.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby advisory No.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby is moving slowly toward the northeast at about 3 mph.</t>
+  </si>
+  <si>
+    <t>The projected track of slow-moving Tropical Storm Debby has shifted from the north to the northeast, which will possibly bring more heavy rain bands than initially expected over the First Coast through the weekend, said meteorologist Phil Peterson of the National Weather service.</t>
+  </si>
+  <si>
+    <t>A young mother was killed while clinging to her toddler daughter to protect her from the devastating tornado spawned by Tropical Storm Debby as it destroyed her mobile home.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby’s wind, rain do damage, set records in.... Just One More Thing...  We have sent you a verification email.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby to ease up on Coastal Empire.</t>
+  </si>
+  <si>
     <t>Shell</t>
   </si>
   <si>
-    <t>Royal Dutch Shell PLC said Sunday it shut down production at two of its U.S. Gulf of Mexico production platforms Sunday and was evacuating employees as Tropical Storm Debby bore down.</t>
-  </si>
-  <si>
     <t>One of them, Shell, said in a statement Sunday morning that it had evacuated 360 staff the previous day and was planning further evacuations.</t>
   </si>
   <si>
-    <t>Shell, BP and ExxonMobil began evacuating workers from offshore rigs on Sunday, but BP and Shell had made plans to return to those platforms as Debby turned toward Florida.</t>
-  </si>
-  <si>
     <t>But on Monday, big offshore Gulf of Mexico drillers like BP Plc and Royal Dutch Shell began returning staff to offshore platforms.</t>
   </si>
   <si>
-    <t>Tampa Bay</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby, messy, unorganized and noncommittal in its path, loitered out in the gulf and sent lashing bands of record-breaking rain over Tampa Bay and its surrounding counties.</t>
-  </si>
-  <si>
-    <t>High winds forced the closure of an interstate bridge that spans Tampa Bay and links St. Petersburg with areas to the southeast.</t>
-  </si>
-  <si>
-    <t>Even though Tropical Storm Debby has yet to make landfall, she's brought her wrath upon the Tampa Bay area.</t>
-  </si>
-  <si>
-    <t>Florida officials said the storm has left an estimated 35,000 people without power and forced the closure of a four-mile (six-km) bridge spanning Tampa Bay that connects the city of St. Petersburg with the Bradenton area.</t>
-  </si>
-  <si>
-    <t>Tampa Bay affiliate, FOX 13 reported 32-year-old, Heather Town was thrown from her home on Montana Trail when the tornado hit her home.</t>
-  </si>
-  <si>
-    <t>It was unclear if any tornadoes actually touched down in the Tampa Bay area.</t>
-  </si>
-  <si>
-    <t>The Sunshine Skyway bridge, which stretches over Tampa Bay and connects Bradenton with St. Petersburg, was closed Sunday because of high winds and remained closed Monday, Pinellas County officials said.</t>
-  </si>
-  <si>
-    <t>In other areas of the Southeast, Debby raked the Tampa Bay area with high wind and heavy rain Monday in a drenching that could top 2 feet over the next few days and trigger widespread flooding.</t>
-  </si>
-  <si>
-    <t>The longer it sits, the more rain we get.”  High winds and the threat of flooding forced the closing of an interstate highway bridge that spans Tampa Bay and links St. Petersburg with areas to the southwest.</t>
-  </si>
-  <si>
-    <t>Dan Shaffer shares photos and images from across the Tampa Bay area.</t>
-  </si>
-  <si>
-    <t>On St. Pete Beach in the Tampa Bay area, surfers enjoyed the large waves in the Gulf, which is usually so calm the water looks like glass.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby brings heavy rain, strong winds to Tampa Bay.</t>
-  </si>
-  <si>
-    <t>The old oak in the family's back yard at 301 E Clinton St. in Old Seminole Heights burst through the guest bedroom ceiling just before 5 a.m. as Tropical Storm Debby raged outside, sending wind gusts of up to 50 mph tearing through the Tampa Bay area.</t>
-  </si>
-  <si>
-    <t>Southeast of Tampa Bay in Highlands County, Sheriff's Office spokeswoman Nell Hays said a woman was found dead in a house in the Highlands town of Venus that was destroyed in the storm.</t>
-  </si>
-  <si>
-    <t>NWS</t>
-  </si>
-  <si>
-    <t>St. Johns County was under a tornado watch through late Monday night and is under a flood warning until this evening, according to the NWS.</t>
-  </si>
-  <si>
-    <t>The NWS recorded a waterspout about eight nautical miles off the coast of Vilano Beach on Monday evening at about 5:45 p.m.</t>
-  </si>
-  <si>
-    <t>Since forming on Saturday, more than 25 reports of tornadoes have been received by the National Weather Service (NWS) including damage reports from possible tornadoes in the Naples, Saint Petersburg and Jacksonville areas.</t>
-  </si>
-  <si>
-    <t>NWS tells news that at 8:37 AM EST Doppler Radar spotted a “severe thunderstorm it strong rotation”.</t>
-  </si>
-  <si>
-    <t>Phil Peterson, a meteorologist with the NWS, said Tropical Storm Debby is a very slow-moving storm that is traveling northeast across Florida from the Gulf of Mexico.</t>
-  </si>
-  <si>
-    <t>NWS had issued more than 60 tornado warnings across parts of the state as of noon Monday.</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Steady rainfall spurred by Debby is expected to extend to southern areas of Alabama, Georgia and South Carolina.</t>
-  </si>
-  <si>
-    <t>The direction of steering flow will continue to affect moisture in Southeast Georgia and South Carolina, Packett said.</t>
-  </si>
-  <si>
-    <t>3:15 p.m. A tornado watch has been posted for all of northeast Florida and Southeast Georgia until 11 p.m.  2:45 p.m. Bradford County Sheriff's Office and Animal Control staff finished relocating about 60 dogs, cats and puppies from the county animal shelter to high ground at the county fairgrounds.</t>
-  </si>
-  <si>
-    <t>A few tornadoes are possible today across the eastern Florida panhandle, the Florida peninsula, and southern Georgia.</t>
-  </si>
-  <si>
-    <t>5 to 10 inches are possible over central Florida and southeast Georgia into coastal South Carolina.</t>
-  </si>
-  <si>
-    <t>Central Florida and southeast Georgia will likely be drenched with 5 to 10 inches, with smaller but still significant precipitation amounts in parts of coastal Alabama, southeastern Louisiana and south Florida.</t>
-  </si>
-  <si>
-    <t>It should be a nasty weather week for Florida and southeast Georgia.</t>
-  </si>
-  <si>
-    <t>9:50 a.m. Tornado warnings have been issued for northeastern Camden and southeastern Glynn counties in Georgia, expiring at 10:15 a.m.  9:45 a.m. Steve Letro, meteorologist-in-charge of Jacksonville's National Weather Service office, said the First Coast can expect periodic bands of heavy rain over the next few days, with periodic breaks.</t>
-  </si>
-  <si>
-    <t>In a news statement Monday, the National Weather Service told news of a tornado warning for Glynn County, Georgia and neighboring areas.</t>
-  </si>
-  <si>
-    <t>Most of the strongest storms are occurring throughout central Florida and even as far northeast into southeastern Georgia.</t>
-  </si>
-  <si>
-    <t>“It’s not going to intensify much,” he said, “But it looks like it’ll be here for a while.”  The storm has caused several tornadoes in central Florida and southern Georgia — something that St. Augustine residents should be aware of, Peterson said.</t>
-  </si>
-  <si>
-    <t>9:10 a.m. A tornado warning posted for southeastern Camden and Glynn counties in Georgia is set to expire at 9:30 a.m.  A stalled Tropical Storm Debby will likely pound the First Coast with periodic heavy rain for days, causing  flooding and other weather-related issues, according to the National Weather Service.</t>
-  </si>
-  <si>
-    <t>The storm is expected to produce the following rain accumulations in the next couple of days: 6 to 12 inches across northern Florida, 4 to 8 inches across central Florida and extreme southeastern Georgia, and 3 to 5 inches in south Florida and extreme southeastern South Carolina.</t>
-  </si>
-  <si>
-    <t>The hurricane center also warned that more tornadoes were possible in parts of Florida and southern Georgia.</t>
-  </si>
-  <si>
-    <t>A warning, expiring at 9:30 a.m., is currently in place for southeastern Camden and southern Glynn counties in Georgia.</t>
-  </si>
-  <si>
-    <t>National Hurricane Center</t>
-  </si>
-  <si>
-    <t>Packing 60 mph winds, Debby's eye was still 115 miles south-southwest of Apalachiocola, Florida (and 195 miles east-southeast of the mouth of the Mississippi River in Louisiana) according to the National Hurricane Center's 7 p.m. (8 p.m.</t>
-  </si>
-  <si>
-    <t>One of the latest advisories from the National Hurricane Center put the storm southwest of Apalachicola and stationary with maximum sustained winds of 45 mph.</t>
-  </si>
-  <si>
-    <t>Stacy Stewart, a senior hurricane specialist with the National Hurricane Center, said of the twisters: 'This is quite common with this type of storm.</t>
-  </si>
-  <si>
-    <t>Debby was already bringing up to 5 inches of rain per hour on parts of the Panhandle, and the National Hurricane Center said northern Florida could see another 6 to 12 inches in the next two days.</t>
-  </si>
-  <si>
-    <t>See a video of a funnel cloud in Alligator Alley sent by a viewer  Senior hurricane specialist Stacy Stewart with the National Hurricane Center says ``tornadic activity goes up'' because such strong winds are not typical.</t>
-  </si>
-  <si>
-    <t>The National Hurricane Center’s (NHC) latest track indicates a little easterly movement, but the movement remains extremely slow.</t>
-  </si>
-  <si>
-    <t>Chris Landsea, a meteorologist at the National Hurricane Center, said forecasters rely on computer models which were contradictory until Sunday.</t>
-  </si>
-  <si>
-    <t>The National Hurricane Center tells news that a tornado in Fernandina Beach, Florida was spotted Monday June 25, 2012 as Tropical Storm Debby 2012 continues its projected path northward.</t>
-  </si>
-  <si>
-    <t>Senior hurricane specialist Stacy Stewart with the National Hurricane Center says “tornadic activity goes up” because such strong winds are not typical.</t>
-  </si>
-  <si>
-    <t>The Miami-based National Hurricane Center said Debby, the first named storm of 2012 to move into the Gulf of Mexico, was packing top sustained winds of about 45 miles per hour (72 kph) and forecasters predicted little change in strength over the next couple of days.</t>
-  </si>
-  <si>
-    <t>10 from the National Hurricane Center in Miami says the threat of flooding continues for the next day or two.</t>
-  </si>
-  <si>
-    <t>"This is quite common with this type of storm," senior hurricane specialist Stacy Stewart with the National Hurricane Center said of the twisters.</t>
-  </si>
-  <si>
-    <t>According to the National Hurricane Center, almost all tropical cyclones near or at landfall spawn at least one tornado, provided enough of the storm's circulation moves over land, which was the case in Florida.</t>
-  </si>
-  <si>
-    <t>The computer model spread still shows no clear direction, but the National Hurricane Center has given up on the westward push towards Texas.</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>On Sunday, Debby spawned twisters that killed a woman, badly injured a child and wrecked homes in central Florida in rural Highlands County, according to an emergency management official.</t>
-  </si>
-  <si>
-    <t>The Storm Prediction Center has noted 15 tornado reports today in Florida.</t>
-  </si>
-  <si>
-    <t>The Sunshine Skyway Bridge remains closed this morning, according to the Florida Highway Patrol due to high winds.</t>
-  </si>
-  <si>
-    <t>Scott's Executive Order directs all state agencies, including the Florida National Guard, to provide any necessary assistance when requested by local governments.</t>
-  </si>
-  <si>
-    <t>Debby spawns rash of tornadoes in Florida; 1 killed (photos, video).</t>
-  </si>
-  <si>
-    <t>Such sustained winds were recorded early Sunday evening in several spots on the Florida Panhandle, west of Apalachicola.</t>
-  </si>
-  <si>
-    <t>Meanwhile, a state of emergency was declared in the states of Florida and Louisiana as residents pick up the pieces in the areas hardest hit by Debby.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby Projected Path Prompts Florida Tornado in Fernandina Beach.</t>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>BP Plc, the largest oil producer in the Gulf of Mexico, was shutting in all of its oil and gas offshore platforms on Sunday.</t>
+  </si>
+  <si>
+    <t>Florida Panhandle</t>
+  </si>
+  <si>
+    <t>The National Hurricane reports to news that several possible tornadoes could form today June 25, 2012 across the eastern Florida Panhandle.</t>
+  </si>
+  <si>
+    <t>St. George Island and other low-lying areas in Franklin County on the Florida Panhandle, the Federal Emergency Management Agency said in a Sunday night news release.</t>
   </si>
   <si>
     <t>The bridge leading to St. George Island, a vacation spot along the Florida Panhandle, was closed to everyone except residents, renters and business owners to keep looters out.</t>
@@ -250,373 +640,70 @@
     <t>Revised forecasts showed Debby remaining a tropical storm until it makes landfall early Thursday near Apalachee Bay, in the bend of the state where the Florida Panhandle ends.</t>
   </si>
   <si>
-    <t>Isolated storm total amounts of 25 inches are possible in north Florida.</t>
-  </si>
-  <si>
-    <t>Debby is one Florida tourist who appears to be here to stay through the end of the week.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby is bringing a deluge of water to Florida, but what slight rain the Coastal Empire saw from the storm Monday should be the most we get as today is expected to be drier.</t>
-  </si>
-  <si>
-    <t>Debby already has been blamed for one death in Venus, Florida, about 100 miles southeast of Tampa, when a woman died while trying to shelter her 3-year-old daughter during a tornado.</t>
-  </si>
-  <si>
-    <t>Thousands were on the beach at Pensacola Beach, Florida, on Sunday morning.</t>
-  </si>
-  <si>
-    <t>Heather Town, 32, was found dead after the tornado ripped through her mobile home in Venus, Florida, in the debris of a barbed wire fence, with her young daughter in her arms.</t>
-  </si>
-  <si>
-    <t>The same alert is also in place for people south of the River to Englewood, Florida, officials tell news.</t>
-  </si>
-  <si>
-    <t>Wind and tropical storm conditions will continue over portions of the Florida Gulf Coast tonight and Tuesday.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby spawns fatal tornado in Florida, drenches coast - .com.</t>
-  </si>
-  <si>
-    <t>10:00 AM CDT Monday, June 25, 2012   Location: 28.6°N 85.2°W   Moving: Northeast at 3 miles per hour   Minimum pressure: 995 millibars   Maximum sustained winds: 45 miles per hour  Tropical Storm Warnings: East of the Alabama-Florida border eastward to the Suwannee River.</t>
-  </si>
-  <si>
-    <t>Rainfall totals have already been very impressive across Florida.</t>
-  </si>
-  <si>
-    <t>Parts of northern Florida could get 10 to 15 inches of rain, and some spots as much as 25 inches, as the storm wrings itself out, forecasters said.</t>
-  </si>
-  <si>
-    <t>And high winds have prompted authorities to shut down the Sunshine Skyway bridge on Interstate 275 connecting St. Petersburg and Bradenton, Florida, said Elizabeth LaRotonda with St. Petersburg police.</t>
-  </si>
-  <si>
-    <t>Forecast models show Debby making landfall along the northern Florida Gulf Coast by Thursday.</t>
-  </si>
-  <si>
-    <t>Forecasters said it would crawl to the northeast, come ashore along Florida’s northwestern coast on Wednesday and track slowly across the state, exiting along the Atlantic Coast by Saturday morning and losing steam along the way.</t>
-  </si>
-  <si>
-    <t>The Florida Highway Patrol closed the Sunshine Skyway bridge because of vicious gusts.</t>
-  </si>
-  <si>
-    <t>"Some communities are already grappling with flooding, wind damage and electrical outages," said Scott, who ordered all state agencies, including the  Florida National Guard, to provide any necessary assistance requested by local governments.</t>
-  </si>
-  <si>
-    <t>Barring major forecast changes, Debby's bands will bring steady rain and wind to all of Central Florida through the end of the week, spawning the threat of rapid-forming tornadoes and dropping up to 8 inches of rain in different locations across the region, forecasters said.</t>
-  </si>
-  <si>
-    <t>There are no reports of any injuries after authorities say a tornado touched down in southwest Florida as Tropical Storm Debby formed.</t>
-  </si>
-  <si>
-    <t>Debby is actually more than 100 miles off the north Florida coast, and barely moving.</t>
-  </si>
-  <si>
-    <t>A tropical storm warning is effect still for residents east of the Alabama-Florida border, east to the Suwannee River.</t>
-  </si>
-  <si>
-    <t>Monday, as it churned slowly in the Gulf, it had again drifted -- this time going generally northeast and putting Central Florida counties in its projected path.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tropical Storm Debby Drenches Florida. </t>
-  </si>
-  <si>
-    <t>It could dump more than a foot (30 cm) of rain in some areas of the state, with isolated amounts of more than two feet (64 cm) in north Florida, the hurricane center said.</t>
-  </si>
-  <si>
-    <t>Tampa, Florida -- The flood waters in the South Tampa area are beginning to recede this morning, but several cars flooded out by the deep waters remain stalled in some of the hardest hit areas like Manhattan Avenue.</t>
-  </si>
-  <si>
-    <t>What that means for Central Florida is more rain, flooding and more wind for the next few days.</t>
-  </si>
-  <si>
-    <t>Slideshow: How Florida is dealing with Debby  "Because of the broad impact of Tropical Storm Debby, virtually every county in Florida could be affected," Scott said.</t>
-  </si>
-  <si>
-    <t>“The widespread flooding is the biggest concern,” said Florida Emergency Operations Center spokeswoman Julie Roberts.</t>
-  </si>
-  <si>
-    <t>Debby was essentially stationary about 115 miles (185 km) south-southwest of Apalachicola, Florida, on Sunday evening.</t>
+    <t>Debby should dump 10 to 15 inches of rain in the Florida Panhandle and elsewhere in northern Florida before it's done, the hurricane center said, with as much as 25 inches possible in spots.</t>
+  </si>
+  <si>
+    <t>Florida Governor Rick Scott declared a state of emergency and a tropical storm warning was in effect along much of the Gulf coastline, from the Florida Panhandle down through the central west coast.</t>
   </si>
   <si>
     <t>The highest potential is 25 inches along portions of the Florida Panhandle.</t>
   </si>
   <si>
-    <t>The combination of a storm surge and the high tide could cause 4 to 6 feet of flooding at Florida's Apalachee Bay to Waccasassa Bay, forecasters said.</t>
-  </si>
-  <si>
-    <t>Expect tornado watches to be issued throughout the next 24 to 48 hours across Florida as the storms stays to the west of the coast.</t>
-  </si>
-  <si>
-    <t>We could easily see 10 to 15 inches of rain over eastern portions of the Florida panhandle and northern Florida with isolated areas seeing nearly 25 inches!</t>
-  </si>
-  <si>
-    <t>An erratic Tropical Storm Debby stalled just off the Florida Panhandle on Monday evening, dumping sheets of rain on Florida's Big Bend marshes and towns far down the peninsula.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby drenches Florida's Gulf Coast (+video).</t>
-  </si>
-  <si>
-    <t>Much of north-central Florida was experiencing drought conditions until Tropical Storm Debby came through.</t>
-  </si>
-  <si>
-    <t>The expansive, stalled Tropical Storm Debby lashed Florida on Sunday, spawning apparent tornadoes in the central part of the state that killed one woman, a county spokeswoman said.</t>
-  </si>
-  <si>
-    <t>Weitlich said forecasters will likely extend a flood warning beyond Lake County for low-lying areas as rain bands form over Central Florida.</t>
-  </si>
-  <si>
-    <t>The death in Florida was blamed on a tornado spawned by the storm, while a man went missing in the Gulf of Mexico at an Alabama beach.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Watches: South of the Suwannee River to Englewood, Florida.</t>
-  </si>
-  <si>
-    <t>At least a dozen Florida counties have been impacted by possible and or confirmed tornado damage including Polk, Marion, Duval, Miami-Dade, Pasco, Osceole, Brevard, Haree, Highlands, Glades, Palm Beach and Collier.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby still threatening to flood much of Florida Gulf Coast.</t>
-  </si>
-  <si>
-    <t>The twisters came as Debby churned on an uncertain track toward Florida's Gulf coast on Sunday, bringing strong winds and waves that forced the closure of about a quarter of offshore oil and gas production in the Gulf of Mexico.</t>
-  </si>
-  <si>
-    <t>A public advisory said parts of northern Florida could receive 10 to 15 inches of rain, with some areas getting as much as 25.</t>
-  </si>
-  <si>
-    <t>Coastal Alabama and parts of Florida, including the Panhandle, were under tropical storm warnings.</t>
-  </si>
-  <si>
-    <t>MIAMI - Slow-moving Tropical Storm Debby's outer bands lashed Florida with rain and kicked up rough surf off Alabama on Sunday, prompting storm warnings for those states and causing at least one death.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby, its accompanying winds and rains brought flooding to parts of Florida.</t>
-  </si>
-  <si>
-    <t>Officials tracked a tornado northwest of Fernandina Beach, Florida moments ago; weather reports are advising residents to take cover in the area promptly.</t>
-  </si>
-  <si>
-    <t>Debby should dump 10 to 15 inches of rain in the Florida Panhandle and elsewhere in northern Florida before it's done, the hurricane center said, with as much as 25 inches possible in spots.</t>
-  </si>
-  <si>
-    <t>Flash flood threats remain in place across Northern Florida and Southern Alabama as well.</t>
-  </si>
-  <si>
-    <t>Florida wrapped in the eastern circulation of Debby combined with strong low-level shear and instability to lead to the rash of tornadoes.</t>
-  </si>
-  <si>
-    <t>Letro said the most severe weather has been and will be from heavy rain bands that have been pounding central, north and northeast Florida.</t>
-  </si>
-  <si>
-    <t>Debby kicks up storm along Florida panhandle.</t>
-  </si>
-  <si>
-    <t>They are additionally warning residents northwest of Jacksonville Florida today, including Fernandina Beach to be on alert.</t>
-  </si>
-  <si>
-    <t>People in several sparsely populated counties near the crook of Florida’s elbow were urged to leave low-lying neighborhoods because of the danger of flooding.</t>
-  </si>
-  <si>
-    <t>Check out these rainfall totals (in inches) from the past 24 hours up to 8am today (8am June 24, 2012 through 8am June 25, 2012):  Here’s a look by the Hydrometeorological Prediction Center for possible rainfall totals for the next five days:  Bottom line: Tropical Storm Debby will slowly drift to the east-northeast and push through Florida towards the end of the week.</t>
-  </si>
-  <si>
-    <t>At least one person was killed Sunday by a tornado spun off by Debby in Florida, and Alabama authorities searched for a man who disappeared in the rough surf.</t>
-  </si>
-  <si>
-    <t>What Florida really needs, Monson said, is the return of a regular rainfall pattern.</t>
-  </si>
-  <si>
-    <t>"Because of the broad impact of Tropical Storm Debby, virtually every county in Florida could be affected," Scott said in a statement announcing the statewide emergency.</t>
-  </si>
-  <si>
-    <t>Debby already has dumped heavy rain on parts of Florida and spawned some isolated tornadoes, causing damage to homes and knocking down power lines.</t>
-  </si>
-  <si>
-    <t>A tropical storm warning is in effect for the Florida Gulf Coast from Destin to Englewood.</t>
-  </si>
-  <si>
-    <t>Florida Governor Rick Scott declared a state of emergency and a tropical storm warning was in effect along much of the Gulf coastline, from the Florida Panhandle down through the central west coast.</t>
-  </si>
-  <si>
-    <t>Parts of Florida's west coast and coastal Mississippi could see 2 to 4 feet deep waters.</t>
-  </si>
-  <si>
-    <t>The National Hurricane reports to news that several possible tornadoes could form today June 25, 2012 across the eastern Florida Panhandle.</t>
-  </si>
-  <si>
-    <t>Debby brings downpours to Florida's Big Bend - .com.</t>
-  </si>
-  <si>
-    <t>St. George Island and other low-lying areas in Franklin County on the Florida Panhandle, the Federal Emergency Management Agency said in a Sunday night news release.</t>
-  </si>
-  <si>
-    <t>While Debby has yet to make landfall, numerous reports of damage have been reported across parts of Florida from a rash of tornadoes spawned by the storm.</t>
-  </si>
-  <si>
-    <t>Citing the threat of heavy rainfall and potential tornadoes, Florida Gov.</t>
-  </si>
-  <si>
-    <t>CORAL GABLES (LALATE) – Tropical Storm Debby’s projected path is now prompting Florida tornado warnings today.</t>
-  </si>
-  <si>
-    <t>Then, by Sunday night, it headed north toward Florida's Panhandle.</t>
-  </si>
-  <si>
-    <t>Florida's Pinellas Country was also hit hard, with flash flooding in some areas and at least 20 houses with roofs that were partially or fully blown off during a tornado-like storm on Sunday.</t>
-  </si>
-  <si>
-    <t>Debby is currently causing a lot of problems throughout the western coast of Florida and the Panhandle.</t>
-  </si>
-  <si>
-    <t>“Little movement is expect during the next couple of days.” However, “tropical storm conditions will condition over portions of the Florida Gulf Coast Today.” For the latest update, click HERE.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby: Florida reports 15 tornadoes, video.</t>
-  </si>
-  <si>
-    <t>Residents in several counties near the crook of Florida's elbow were urged to leave low-lying neighborhoods because of the threat of flooding.</t>
-  </si>
-  <si>
-    <t>Flash flood warnings were in effect for many areas and the Florida Division of Emergency Management has cautioned that inland flooding is associated with more than half the deaths from tropical cyclones in the United States over the last 30 years.</t>
-  </si>
-  <si>
-    <t>One Death   The death in Florida was blamed on a tornado spawned by the storm, while a man went missing in the Gulf of Mexico at an Alabama beach.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby lashed parts of Florida with driving rains and high winds on Monday, threatening to trigger more flooding and tornadoes as it hovered off the state's northern Gulf of Mexico coast.</t>
-  </si>
-  <si>
-    <t>The hurricane center said tropical storm conditions will extend for the entire area from the Mississippi-Alabama line eastward to the Suwannee River, Florida, by night's end.</t>
-  </si>
-  <si>
-    <t>The National Weather Service had tornado warnings out, indicating a high likelihood of a twister strike, in spots off-and-on throughout the day Sunday, and a less severe tornado watch is in effect for much of western Florida through 5 a.m. Monday.</t>
-  </si>
-  <si>
-    <t>Despite the immediate dangers of the storm, the heavy rains may have a long-term positive effect for Florida.</t>
-  </si>
-  <si>
-    <t>Louisiana Offshore Oil Port</t>
-  </si>
-  <si>
-    <t>And the Louisiana Offshore Oil Port, which unloads about 1 million barrels per day of U.S. crude oil imports from giant tankers, said it was set to resume operations on Monday, after shutting Sunday due to rough seas.</t>
-  </si>
-  <si>
-    <t>The Louisiana Offshore Oil Port (LOOP), the single location where the largest oil tanker ships can directly deliver crude, stopped offloading tankers on Sunday morning, as rough seas were building at its sea terminal.</t>
-  </si>
-  <si>
-    <t>St. Petersburg</t>
-  </si>
-  <si>
-    <t>Debbie Ponceti said wind was pushing run underneath the door to her home in Madeira Beach, about 10 miles east of St. Petersburg, while her front lawn has been reduced to mush and waters in a lagoon near her house are steadily rising.</t>
-  </si>
-  <si>
-    <t>More clear was the scene in St. Petersburg's Shore Acres.</t>
-  </si>
-  <si>
-    <t>Forecasters declared a flash flood emergency for parts of Franklin, Liberty and Wakulla counties near Tallahassee until late Monday, and Debby drove rising tides across neighborhood streets as far south as the Tampa-St. Petersburg area.</t>
-  </si>
-  <si>
-    <t>CNN iReporter Magalie Caragiorgio said Monday she has been stuck in her home in New Port Richey, near St. Petersburg, since Sunday because of flooding and hasn't been able to get to her job as a nurse.</t>
-  </si>
-  <si>
-    <t>Coffee Pot Boulevard in St. Petersburg.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby</t>
-  </si>
-  <si>
-    <t>The western portion of Tropical Storm Debby has been lacking throughout the weekend.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby could affect Palm Beach County for days.</t>
-  </si>
-  <si>
-    <t>And BP spokesman Brett Clanton said early Sunday evening that "we've evacuated the majority of our offshore personnel in the Gulf of Mexico" due to Tropical Storm Debby.</t>
-  </si>
-  <si>
-    <t>On Saturday, June 23, 2012, Tropical Storm Debby formed across the eastern Gulf of Mexico.</t>
-  </si>
-  <si>
-    <t>Photos of damage from Tropical Storm Debby.</t>
-  </si>
-  <si>
-    <t>Oak tree arrives in Tampa home's guest bedroom with thud, thanks to Tropical Storm Debby.</t>
-  </si>
-  <si>
-    <t>In fact, Tropical Storm Debby will likely remain stationary over the northern Gulf for the next 24 hours and continue to produce heavy rains, large areas of flooding, and isolated tornadoes for the next three to five days.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby spawns tornado warnings, severe weather.... Just One More Thing...  We have sent you a verification email.</t>
-  </si>
-  <si>
-    <t>At 4 p.m., the center of Tropical Storm Debby was located near latitude 29.3 north, longitude 85.1 west.</t>
-  </si>
-  <si>
-    <t>View a slideshow that includes videos and more photos from the affects of Tropical Storm Debby.</t>
-  </si>
-  <si>
-    <t>Although Tropical Storm Debby has weakened, coastal   flooding is not yet diminishing.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby is a large tropical cyclone, with strong winds and heavy rains occurring at large distances from the center.</t>
-  </si>
-  <si>
-    <t>Rainfall totals will be the biggest threat from Tropical Storm Debby.</t>
-  </si>
-  <si>
-    <t>12:45 p.m. A heavy thunderstorm related to Tropical Storm Debby is being blamed for the shredding of part of a sheet metal roof torn off from a hanger at Jacksonville International Airport this morning.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby a dangerous slow mover | EarthSky.org.</t>
-  </si>
-  <si>
-    <t>Oak tree arrives in Tampa home's guest bedroom with thud, thanks to Tropical Storm Debby  TAMPA — Joseph Shelton woke up from a dream early Monday in a cold sweat.</t>
-  </si>
-  <si>
-    <t>The tornado touched down as Tropical Storm Debby formed.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby brings tornado threat to region.</t>
-  </si>
-  <si>
-    <t>As of now, the track of Tropical Storm Debby shows very little movement for the next several days.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby advisory No.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby is moving slowly toward the northeast at about 3 mph.</t>
-  </si>
-  <si>
-    <t>The projected track of slow-moving Tropical Storm Debby has shifted from the north to the northeast, which will possibly bring more heavy rain bands than initially expected over the First Coast through the weekend, said meteorologist Phil Peterson of the National Weather service.</t>
-  </si>
-  <si>
-    <t>But U.S. regulators said on Monday that Gulf of Mexico oil and gas operators had shut in 44.1 percent of daily oil and 34.8 percent of daily natural gas production because of Tropical Storm Debby, a near doubling of the oil total from Sunday.</t>
-  </si>
-  <si>
-    <t>A young mother was killed while clinging to her toddler daughter to protect her from the devastating tornado spawned by Tropical Storm Debby as it destroyed her mobile home.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby’s wind, rain do damage, set records in.... Just One More Thing...  We have sent you a verification email.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby to ease up on Coastal Empire.</t>
-  </si>
-  <si>
-    <t>Apalachicola</t>
-  </si>
-  <si>
-    <t>With tropical storm-force winds extending outward up to 230 miles (370 km) from its center off the northwest coastal town of Apalachicola late Monday afternoon, forecasters said Debby menaced a broad swath of inland territory with flash flooding from torrential downpours.</t>
-  </si>
-  <si>
-    <t>By late Sunday night, Debby sat nearly stationary some 115 miles south-southwest of the coastal Panhandle town of Apalachicola, and the storm's unsparing rain and wind were expected to continue today and maybe into Tuesday.</t>
-  </si>
-  <si>
-    <t>Debby's center was essentially stationary about 110 miles (180 km) south-southwest of Apalachicola, Fla., on Sunday evening.</t>
-  </si>
-  <si>
-    <t>ET, Debby was centered 30 miles south-southwest of Apalachicola and was not moving.</t>
-  </si>
-  <si>
-    <t>By late afternoon, Debby was in the Gulf of Mexico, 30 miles southwest of Apalachicola, with sustained winds around 45 mph.</t>
+    <t>National Weather Service</t>
+  </si>
+  <si>
+    <t>"These tornadoes are characterized by rapid development and also dissipate quickly," said John Pendergrast, senior meteorologist with the National Weather Service in Melbourne.</t>
+  </si>
+  <si>
+    <t>The latest forecast from the National Weather Service calls for an 80 percent chance of rain tonight, with breezy south winds between 15 and 17 mph.</t>
+  </si>
+  <si>
+    <t>Heavy rain swept through Jacksonville through much of the early morning, though a break occurred about 9 a.m., which will be a signature of the storm, said Steve Letro, meteorologist-in-charge of Jacksonville's National Weather Service office.</t>
+  </si>
+  <si>
+    <t>Because it's moving so slowly there is a greater concern for flooding," said Derrick Weitlich, a meteorologist at the National Weather Service in Melbourne.</t>
+  </si>
+  <si>
+    <t>There are currently no tornado or flood warnings in the area, according to the National Weather Service website.</t>
+  </si>
+  <si>
+    <t>The National Weather Service forecasts a 40 percent chance of moderate-to-heavy rain today.</t>
+  </si>
+  <si>
+    <t>"We're so overwhelmed with normal operations that we haven't been able to send anyone out to confirm that," said Dan Noah at the National Weather Service's local office in Ruskin.</t>
+  </si>
+  <si>
+    <t>The tropical storm has dumped between 4 and 8 inches on St. Augustine so far and could give the city up to 20 inches more by Thursday, according to the National Weather Service in Jacksonville.</t>
+  </si>
+  <si>
+    <t>The National Weather Service is now predicting as much as 15 to 25 inches of rain in some isolated spots along the First Coast by week's end, said Meteorologist Phil Peterson.</t>
+  </si>
+  <si>
+    <t>Gulf of Mexico</t>
+  </si>
+  <si>
+    <t>Debby will likely stay fairly weak with winds around 40-50 mph as it continues to upwell colder waters in the northeastern Gulf of Mexico.</t>
+  </si>
+  <si>
+    <t>Look at where the tropical storm has been and where it has been forecast to go: During the weekend, it was heading northwest in the Gulf of Mexico and was Texas-bound.</t>
+  </si>
+  <si>
+    <t>Employees have been evacuated from 13 drilling rigs and 61 production platforms in the Gulf of Mexico.</t>
+  </si>
+  <si>
+    <t>About 900 JEA customers were without power at 9 a.m.  Letro said the unpredictability and slow movement of the tropical storm makes it possible that periodic rain could fall in the area throughout much of the week.Letro said there is currently no steering pattern controlling the poorly organized storm, leaving it trapped over the northeastern Gulf of Mexico.</t>
+  </si>
+  <si>
+    <t>With that said, I do not anticipate Debby to develop into a hurricane while it stays stationary off the northeastern coast of the Gulf of Mexico.</t>
+  </si>
+  <si>
+    <t>As it remains stationary over the open waters of the northern Gulf of Mexico, the storm will simply upwell colder ocean water to the surface.</t>
+  </si>
+  <si>
+    <t>In basic terms, there is nothing out there that can give this storm a push to shove it out of the Gulf of Mexico and allow it to move away.</t>
+  </si>
+  <si>
+    <t>In fact, the heart of the storm was churning but not moving in the Gulf of Mexico on Sunday evening, and forecasters still don't know where it will end up.</t>
   </si>
   <si>
     <t>Eddy Teach</t>
@@ -631,78 +718,6 @@
     <t>“Most true islanders are hanging in there because they know that you may or may not be able to get back to your home when you need to,” said David Walker, an island resident having a beer at Eddy Teach’s bar.</t>
   </si>
   <si>
-    <t>BP</t>
-  </si>
-  <si>
-    <t>BP Plc, the largest oil producer in the Gulf of Mexico, was shutting in all of its oil and gas offshore platforms on Sunday.</t>
-  </si>
-  <si>
-    <t>Florida Panhandle</t>
-  </si>
-  <si>
-    <t>National Weather Service</t>
-  </si>
-  <si>
-    <t>"These tornadoes are characterized by rapid development and also dissipate quickly," said John Pendergrast, senior meteorologist with the National Weather Service in Melbourne.</t>
-  </si>
-  <si>
-    <t>The latest forecast from the National Weather Service calls for an 80 percent chance of rain tonight, with breezy south winds between 15 and 17 mph.</t>
-  </si>
-  <si>
-    <t>Heavy rain swept through Jacksonville through much of the early morning, though a break occurred about 9 a.m., which will be a signature of the storm, said Steve Letro, meteorologist-in-charge of Jacksonville's National Weather Service office.</t>
-  </si>
-  <si>
-    <t>Because it's moving so slowly there is a greater concern for flooding," said Derrick Weitlich, a meteorologist at the National Weather Service in Melbourne.</t>
-  </si>
-  <si>
-    <t>There are currently no tornado or flood warnings in the area, according to the National Weather Service website.</t>
-  </si>
-  <si>
-    <t>The National Weather Service forecasts a 40 percent chance of moderate-to-heavy rain today.</t>
-  </si>
-  <si>
-    <t>"We're so overwhelmed with normal operations that we haven't been able to send anyone out to confirm that," said Dan Noah at the National Weather Service's local office in Ruskin.</t>
-  </si>
-  <si>
-    <t>The tropical storm has dumped between 4 and 8 inches on St. Augustine so far and could give the city up to 20 inches more by Thursday, according to the National Weather Service in Jacksonville.</t>
-  </si>
-  <si>
-    <t>The National Weather Service is now predicting as much as 15 to 25 inches of rain in some isolated spots along the First Coast by week's end, said Meteorologist Phil Peterson.</t>
-  </si>
-  <si>
-    <t>Gulf of Mexico</t>
-  </si>
-  <si>
-    <t>Debby will likely stay fairly weak with winds around 40-50 mph as it continues to upwell colder waters in the northeastern Gulf of Mexico.</t>
-  </si>
-  <si>
-    <t>Look at where the tropical storm has been and where it has been forecast to go: During the weekend, it was heading northwest in the Gulf of Mexico and was Texas-bound.</t>
-  </si>
-  <si>
-    <t>The Gulf of Mexico is home to 6.5 percent of U.S. natural gas production, 29 percent of oil output and 40 percent of refining capacity.</t>
-  </si>
-  <si>
-    <t>Employees have been evacuated from 13 drilling rigs and 61 production platforms in the Gulf of Mexico.</t>
-  </si>
-  <si>
-    <t>About 900 JEA customers were without power at 9 a.m.  Letro said the unpredictability and slow movement of the tropical storm makes it possible that periodic rain could fall in the area throughout much of the week.Letro said there is currently no steering pattern controlling the poorly organized storm, leaving it trapped over the northeastern Gulf of Mexico.</t>
-  </si>
-  <si>
-    <t>With that said, I do not anticipate Debby to develop into a hurricane while it stays stationary off the northeastern coast of the Gulf of Mexico.</t>
-  </si>
-  <si>
-    <t>As it remains stationary over the open waters of the northern Gulf of Mexico, the storm will simply upwell colder ocean water to the surface.</t>
-  </si>
-  <si>
-    <t>Over the weekend, the storm idled about a quarter of U.S. offshore oil and natural gas production in the Gulf of Mexico, based on figures issued by U.S. offshore regulators.</t>
-  </si>
-  <si>
-    <t>In basic terms, there is nothing out there that can give this storm a push to shove it out of the Gulf of Mexico and allow it to move away.</t>
-  </si>
-  <si>
-    <t>In fact, the heart of the storm was churning but not moving in the Gulf of Mexico on Sunday evening, and forecasters still don't know where it will end up.</t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -710,21 +725,6 @@
   </si>
   <si>
     <t>In Orange Beach, Alabama, a 32-year-old man went missing Sunday in rough surf kicked up by the storm, said Coast Guard Lt. j.g.</t>
-  </si>
-  <si>
-    <t>U.S.</t>
-  </si>
-  <si>
-    <t>Debby is expected to continue veering away from the U.S. Gulf waters that are home to about 20 percent of U.S. oil and 6 percent of natural gas output.</t>
-  </si>
-  <si>
-    <t>Beach areas were "basically underwater," as were many side streets and at least two major thoroughfares -- U.S. Highway 19 and Gulf to Bay Boulevard.</t>
-  </si>
-  <si>
-    <t>Gulf to Bay Boulevard in Clearwater and U.S. 19 up into Pasco.</t>
-  </si>
-  <si>
-    <t>Pasco emergency officials reported severe flooding especially in areas west of U.S. 19.</t>
   </si>
   <si>
     <t>Tampa</t>
@@ -1101,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C348"/>
+  <dimension ref="A1:C324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1211,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1222,10 +1222,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1233,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1255,10 +1255,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1321,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
         <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1398,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1409,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1442,10 +1442,10 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
         <v>35</v>
-      </c>
-      <c r="C31" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1453,10 +1453,10 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1464,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1475,10 +1475,10 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1486,10 +1486,10 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1508,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1519,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1541,10 +1541,10 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
         <v>47</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
         <v>48</v>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
         <v>49</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
         <v>50</v>
@@ -1596,10 +1596,10 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
         <v>51</v>
-      </c>
-      <c r="C45" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1629,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1662,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1673,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1695,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1717,10 +1717,10 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1728,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1750,10 +1750,10 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1761,10 +1761,10 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
         <v>66</v>
-      </c>
-      <c r="C60" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1772,10 +1772,10 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1794,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1805,10 +1805,10 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -1860,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1871,10 +1871,10 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1882,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1893,10 +1893,10 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1904,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1937,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1948,10 +1948,10 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1959,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1981,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1992,10 +1992,10 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2025,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2036,10 +2036,10 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2069,10 +2069,10 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2080,10 +2080,10 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2091,10 +2091,10 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2102,10 +2102,10 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2113,10 +2113,10 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2124,10 +2124,10 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C95" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2157,10 +2157,10 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2168,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2179,10 +2179,10 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2190,10 +2190,10 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2201,10 +2201,10 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C100" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2212,10 +2212,10 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C101" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2234,10 +2234,10 @@
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C103" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C104" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C105" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2267,10 +2267,10 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C106" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2278,10 +2278,10 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C108" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2300,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C109" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2311,10 +2311,10 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C110" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2322,10 +2322,10 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C111" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2333,10 +2333,10 @@
         <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C112" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2344,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C113" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2355,10 +2355,10 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C114" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C115" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2377,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C116" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2388,10 +2388,10 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C117" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2399,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C118" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2410,10 +2410,10 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C119" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2421,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C120" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2432,10 +2432,10 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C121" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C122" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2454,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C123" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2465,10 +2465,10 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C124" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C125" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C126" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2498,10 +2498,10 @@
         <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C127" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2509,10 +2509,10 @@
         <v>0</v>
       </c>
       <c r="B128" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C128" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C129" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2531,10 +2531,10 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C130" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2542,10 +2542,10 @@
         <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C131" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2553,10 +2553,10 @@
         <v>0</v>
       </c>
       <c r="B132" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C132" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2564,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="B133" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C133" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2575,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="B134" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C134" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2586,10 +2586,10 @@
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C135" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2597,10 +2597,10 @@
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C136" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C137" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2619,10 +2619,10 @@
         <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C138" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2630,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C139" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2641,10 +2641,10 @@
         <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C140" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2652,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="B141" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C141" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2663,10 +2663,10 @@
         <v>0</v>
       </c>
       <c r="B142" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C142" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2674,10 +2674,10 @@
         <v>0</v>
       </c>
       <c r="B143" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C143" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="B144" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C144" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2696,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="B145" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C145" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2707,10 +2707,10 @@
         <v>0</v>
       </c>
       <c r="B146" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C146" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="B147" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C147" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2729,10 +2729,10 @@
         <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C148" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2740,10 +2740,10 @@
         <v>0</v>
       </c>
       <c r="B149" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C149" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2751,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="B150" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C150" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2762,10 +2762,10 @@
         <v>0</v>
       </c>
       <c r="B151" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C151" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2773,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="B152" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C152" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2784,10 +2784,10 @@
         <v>0</v>
       </c>
       <c r="B153" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C153" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2795,10 +2795,10 @@
         <v>0</v>
       </c>
       <c r="B154" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C154" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="B155" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C155" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2817,10 +2817,10 @@
         <v>0</v>
       </c>
       <c r="B156" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C156" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2828,10 +2828,10 @@
         <v>0</v>
       </c>
       <c r="B157" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C157" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C158" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2850,10 +2850,10 @@
         <v>0</v>
       </c>
       <c r="B159" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2861,10 +2861,10 @@
         <v>0</v>
       </c>
       <c r="B160" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C160" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2872,10 +2872,10 @@
         <v>0</v>
       </c>
       <c r="B161" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="C161" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2883,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="B162" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="C162" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="B163" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="C163" t="s">
         <v>156</v>
@@ -2905,10 +2905,10 @@
         <v>0</v>
       </c>
       <c r="B164" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="C164" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="B165" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="C165" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2927,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="B166" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="C166" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2938,10 +2938,10 @@
         <v>0</v>
       </c>
       <c r="B167" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C167" t="s">
-        <v>160</v>
+        <v>28</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2949,10 +2949,10 @@
         <v>0</v>
       </c>
       <c r="B168" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C168" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2960,10 +2960,10 @@
         <v>0</v>
       </c>
       <c r="B169" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C169" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2971,10 +2971,10 @@
         <v>0</v>
       </c>
       <c r="B170" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C170" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2982,10 +2982,10 @@
         <v>0</v>
       </c>
       <c r="B171" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C171" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2993,10 +2993,10 @@
         <v>0</v>
       </c>
       <c r="B172" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C172" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3004,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="B173" t="s">
+        <v>161</v>
+      </c>
+      <c r="C173" t="s">
         <v>162</v>
-      </c>
-      <c r="C173" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="B174" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C174" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3026,10 +3026,10 @@
         <v>0</v>
       </c>
       <c r="B175" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C175" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="B176" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C176" t="s">
         <v>165</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="B177" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C177" t="s">
         <v>166</v>
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="B178" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C178" t="s">
         <v>167</v>
@@ -3070,10 +3070,10 @@
         <v>0</v>
       </c>
       <c r="B179" t="s">
+        <v>161</v>
+      </c>
+      <c r="C179" t="s">
         <v>168</v>
-      </c>
-      <c r="C179" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3081,10 +3081,10 @@
         <v>0</v>
       </c>
       <c r="B180" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C180" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="B181" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C181" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3103,10 +3103,10 @@
         <v>0</v>
       </c>
       <c r="B182" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C182" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3114,10 +3114,10 @@
         <v>0</v>
       </c>
       <c r="B183" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C183" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3125,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="B184" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C184" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3136,10 +3136,10 @@
         <v>0</v>
       </c>
       <c r="B185" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C185" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3147,10 +3147,10 @@
         <v>0</v>
       </c>
       <c r="B186" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C186" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="B187" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C187" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3169,10 +3169,10 @@
         <v>0</v>
       </c>
       <c r="B188" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C188" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3180,10 +3180,10 @@
         <v>0</v>
       </c>
       <c r="B189" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C189" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="B190" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C190" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="B191" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C191" t="s">
         <v>175</v>
@@ -3213,10 +3213,10 @@
         <v>0</v>
       </c>
       <c r="B192" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C192" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3224,10 +3224,10 @@
         <v>0</v>
       </c>
       <c r="B193" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C193" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C194" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="B195" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C195" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3257,10 +3257,10 @@
         <v>0</v>
       </c>
       <c r="B196" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C196" t="s">
-        <v>59</v>
+        <v>178</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="B197" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C197" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3279,10 +3279,10 @@
         <v>0</v>
       </c>
       <c r="B198" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C198" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3290,10 +3290,10 @@
         <v>0</v>
       </c>
       <c r="B199" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C199" t="s">
-        <v>179</v>
+        <v>62</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3301,10 +3301,10 @@
         <v>0</v>
       </c>
       <c r="B200" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C200" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3312,10 +3312,10 @@
         <v>0</v>
       </c>
       <c r="B201" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C201" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3323,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="B202" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C202" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3334,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="B203" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C203" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3345,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="B204" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C204" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3356,10 +3356,10 @@
         <v>0</v>
       </c>
       <c r="B205" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C205" t="s">
-        <v>181</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3367,10 +3367,10 @@
         <v>0</v>
       </c>
       <c r="B206" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C206" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3378,10 +3378,10 @@
         <v>0</v>
       </c>
       <c r="B207" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C207" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3389,10 +3389,10 @@
         <v>0</v>
       </c>
       <c r="B208" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C208" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3400,10 +3400,10 @@
         <v>0</v>
       </c>
       <c r="B209" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C209" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3411,10 +3411,10 @@
         <v>0</v>
       </c>
       <c r="B210" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C210" t="s">
-        <v>184</v>
+        <v>25</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3422,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="B211" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C211" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="B212" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C212" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3444,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="B213" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C213" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3455,10 +3455,10 @@
         <v>0</v>
       </c>
       <c r="B214" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C214" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="B215" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C215" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="B216" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C216" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3488,10 +3488,10 @@
         <v>0</v>
       </c>
       <c r="B217" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C217" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3499,10 +3499,10 @@
         <v>0</v>
       </c>
       <c r="B218" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C218" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3510,10 +3510,10 @@
         <v>0</v>
       </c>
       <c r="B219" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C219" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3521,10 +3521,10 @@
         <v>0</v>
       </c>
       <c r="B220" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C220" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="B221" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C221" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3543,10 +3543,10 @@
         <v>0</v>
       </c>
       <c r="B222" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C222" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="B223" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C223" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="B224" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C224" t="s">
         <v>190</v>
@@ -3576,10 +3576,10 @@
         <v>0</v>
       </c>
       <c r="B225" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>191</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3587,10 +3587,10 @@
         <v>0</v>
       </c>
       <c r="B226" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C226" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3598,10 +3598,10 @@
         <v>0</v>
       </c>
       <c r="B227" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C227" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3609,10 +3609,10 @@
         <v>0</v>
       </c>
       <c r="B228" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C228" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3620,10 +3620,10 @@
         <v>0</v>
       </c>
       <c r="B229" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C229" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="B230" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C230" t="s">
         <v>194</v>
@@ -3642,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="B231" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="C231" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3653,10 +3653,10 @@
         <v>0</v>
       </c>
       <c r="B232" t="s">
+        <v>170</v>
+      </c>
+      <c r="C232" t="s">
         <v>195</v>
-      </c>
-      <c r="C232" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3664,10 +3664,10 @@
         <v>0</v>
       </c>
       <c r="B233" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="C233" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="B234" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C234" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3686,10 +3686,10 @@
         <v>0</v>
       </c>
       <c r="B235" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C235" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3697,10 +3697,10 @@
         <v>0</v>
       </c>
       <c r="B236" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C236" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="B237" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C237" t="s">
         <v>199</v>
@@ -3719,10 +3719,10 @@
         <v>0</v>
       </c>
       <c r="B238" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C238" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3730,10 +3730,10 @@
         <v>0</v>
       </c>
       <c r="B239" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C239" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3741,10 +3741,10 @@
         <v>0</v>
       </c>
       <c r="B240" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C240" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3752,10 +3752,10 @@
         <v>0</v>
       </c>
       <c r="B241" t="s">
+        <v>200</v>
+      </c>
+      <c r="C241" t="s">
         <v>201</v>
-      </c>
-      <c r="C241" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3763,10 +3763,10 @@
         <v>0</v>
       </c>
       <c r="B242" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C242" t="s">
-        <v>171</v>
+        <v>47</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3774,10 +3774,10 @@
         <v>0</v>
       </c>
       <c r="B243" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C243" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3785,10 +3785,10 @@
         <v>0</v>
       </c>
       <c r="B244" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C244" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="B245" t="s">
+        <v>202</v>
+      </c>
+      <c r="C245" t="s">
         <v>205</v>
-      </c>
-      <c r="C245" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3807,10 +3807,10 @@
         <v>0</v>
       </c>
       <c r="B246" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C246" t="s">
-        <v>72</v>
+        <v>206</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3818,10 +3818,10 @@
         <v>0</v>
       </c>
       <c r="B247" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C247" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3829,10 +3829,10 @@
         <v>0</v>
       </c>
       <c r="B248" t="s">
+        <v>202</v>
+      </c>
+      <c r="C248" t="s">
         <v>207</v>
-      </c>
-      <c r="C248" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3840,10 +3840,10 @@
         <v>0</v>
       </c>
       <c r="B249" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C249" t="s">
-        <v>75</v>
+        <v>208</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3851,10 +3851,10 @@
         <v>0</v>
       </c>
       <c r="B250" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C250" t="s">
-        <v>76</v>
+        <v>209</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3862,10 +3862,10 @@
         <v>0</v>
       </c>
       <c r="B251" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C251" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3873,10 +3873,10 @@
         <v>0</v>
       </c>
       <c r="B252" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C252" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3884,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="B253" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C253" t="s">
-        <v>126</v>
+        <v>213</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3895,10 +3895,10 @@
         <v>0</v>
       </c>
       <c r="B254" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C254" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="B255" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C255" t="s">
-        <v>107</v>
+        <v>214</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3917,10 +3917,10 @@
         <v>0</v>
       </c>
       <c r="B256" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C256" t="s">
-        <v>209</v>
+        <v>42</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3928,10 +3928,10 @@
         <v>0</v>
       </c>
       <c r="B257" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C257" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3939,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="B258" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C258" t="s">
-        <v>44</v>
+        <v>215</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3950,10 +3950,10 @@
         <v>0</v>
       </c>
       <c r="B259" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C259" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="B260" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C260" t="s">
-        <v>31</v>
+        <v>217</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3972,10 +3972,10 @@
         <v>0</v>
       </c>
       <c r="B261" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C261" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3983,10 +3983,10 @@
         <v>0</v>
       </c>
       <c r="B262" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C262" t="s">
-        <v>212</v>
+        <v>20</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="B263" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C263" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4005,10 +4005,10 @@
         <v>0</v>
       </c>
       <c r="B264" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C264" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4016,10 +4016,10 @@
         <v>0</v>
       </c>
       <c r="B265" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C265" t="s">
-        <v>215</v>
+        <v>16</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="B266" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C266" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4038,10 +4038,10 @@
         <v>0</v>
       </c>
       <c r="B267" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C267" t="s">
-        <v>216</v>
+        <v>64</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4049,10 +4049,10 @@
         <v>0</v>
       </c>
       <c r="B268" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C268" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4060,10 +4060,10 @@
         <v>0</v>
       </c>
       <c r="B269" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C269" t="s">
-        <v>43</v>
+        <v>222</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4071,10 +4071,10 @@
         <v>0</v>
       </c>
       <c r="B270" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C270" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4082,10 +4082,10 @@
         <v>0</v>
       </c>
       <c r="B271" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C271" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4093,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="B272" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C272" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4104,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="B273" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C273" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4115,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="B274" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C274" t="s">
-        <v>220</v>
+        <v>54</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4126,10 +4126,10 @@
         <v>0</v>
       </c>
       <c r="B275" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C275" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="B276" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C276" t="s">
-        <v>33</v>
+        <v>226</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="B277" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C277" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4159,10 +4159,10 @@
         <v>0</v>
       </c>
       <c r="B278" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C278" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4170,10 +4170,10 @@
         <v>0</v>
       </c>
       <c r="B279" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C279" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4181,10 +4181,10 @@
         <v>0</v>
       </c>
       <c r="B280" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C280" t="s">
-        <v>224</v>
+        <v>116</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4192,10 +4192,10 @@
         <v>0</v>
       </c>
       <c r="B281" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C281" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4203,10 +4203,10 @@
         <v>0</v>
       </c>
       <c r="B282" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C282" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4214,10 +4214,10 @@
         <v>0</v>
       </c>
       <c r="B283" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C283" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4225,10 +4225,10 @@
         <v>0</v>
       </c>
       <c r="B284" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C284" t="s">
-        <v>120</v>
+        <v>228</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4236,10 +4236,10 @@
         <v>0</v>
       </c>
       <c r="B285" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C285" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4247,10 +4247,10 @@
         <v>0</v>
       </c>
       <c r="B286" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C286" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4258,10 +4258,10 @@
         <v>0</v>
       </c>
       <c r="B287" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C287" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4269,10 +4269,10 @@
         <v>0</v>
       </c>
       <c r="B288" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C288" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4280,10 +4280,10 @@
         <v>0</v>
       </c>
       <c r="B289" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C289" t="s">
-        <v>116</v>
+        <v>231</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4291,10 +4291,10 @@
         <v>0</v>
       </c>
       <c r="B290" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C290" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -4302,10 +4302,10 @@
         <v>0</v>
       </c>
       <c r="B291" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C291" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -4313,10 +4313,10 @@
         <v>0</v>
       </c>
       <c r="B292" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C292" t="s">
-        <v>228</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -4324,10 +4324,10 @@
         <v>0</v>
       </c>
       <c r="B293" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C293" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -4335,10 +4335,10 @@
         <v>0</v>
       </c>
       <c r="B294" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C294" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -4346,10 +4346,10 @@
         <v>0</v>
       </c>
       <c r="B295" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C295" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -4357,10 +4357,10 @@
         <v>0</v>
       </c>
       <c r="B296" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C296" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -4368,10 +4368,10 @@
         <v>0</v>
       </c>
       <c r="B297" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C297" t="s">
-        <v>134</v>
+        <v>235</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="B298" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C298" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -4390,10 +4390,10 @@
         <v>0</v>
       </c>
       <c r="B299" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C299" t="s">
-        <v>98</v>
+        <v>236</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -4401,10 +4401,10 @@
         <v>0</v>
       </c>
       <c r="B300" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C300" t="s">
-        <v>231</v>
+        <v>118</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -4412,10 +4412,10 @@
         <v>0</v>
       </c>
       <c r="B301" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C301" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -4423,10 +4423,10 @@
         <v>0</v>
       </c>
       <c r="B302" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C302" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -4434,10 +4434,10 @@
         <v>0</v>
       </c>
       <c r="B303" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C303" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -4445,10 +4445,10 @@
         <v>0</v>
       </c>
       <c r="B304" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C304" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="B305" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C305" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -4467,10 +4467,10 @@
         <v>0</v>
       </c>
       <c r="B306" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C306" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -4478,10 +4478,10 @@
         <v>0</v>
       </c>
       <c r="B307" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C307" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -4489,10 +4489,10 @@
         <v>0</v>
       </c>
       <c r="B308" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C308" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -4500,10 +4500,10 @@
         <v>0</v>
       </c>
       <c r="B309" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C309" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4511,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="B310" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C310" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -4522,10 +4522,10 @@
         <v>0</v>
       </c>
       <c r="B311" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C311" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -4533,10 +4533,10 @@
         <v>0</v>
       </c>
       <c r="B312" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C312" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -4544,10 +4544,10 @@
         <v>0</v>
       </c>
       <c r="B313" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C313" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -4555,10 +4555,10 @@
         <v>0</v>
       </c>
       <c r="B314" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C314" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -4569,7 +4569,7 @@
         <v>237</v>
       </c>
       <c r="C315" t="s">
-        <v>7</v>
+        <v>244</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -4580,7 +4580,7 @@
         <v>237</v>
       </c>
       <c r="C316" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -4591,7 +4591,7 @@
         <v>237</v>
       </c>
       <c r="C317" t="s">
-        <v>239</v>
+        <v>80</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -4602,7 +4602,7 @@
         <v>237</v>
       </c>
       <c r="C318" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -4613,7 +4613,7 @@
         <v>237</v>
       </c>
       <c r="C319" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -4624,7 +4624,7 @@
         <v>237</v>
       </c>
       <c r="C320" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -4635,7 +4635,7 @@
         <v>237</v>
       </c>
       <c r="C321" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -4646,7 +4646,7 @@
         <v>237</v>
       </c>
       <c r="C322" t="s">
-        <v>102</v>
+        <v>249</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -4657,7 +4657,7 @@
         <v>237</v>
       </c>
       <c r="C323" t="s">
-        <v>174</v>
+        <v>250</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -4668,271 +4668,7 @@
         <v>237</v>
       </c>
       <c r="C324" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3">
-      <c r="A325" t="s">
-        <v>0</v>
-      </c>
-      <c r="B325" t="s">
-        <v>237</v>
-      </c>
-      <c r="C325" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3">
-      <c r="A326" t="s">
-        <v>0</v>
-      </c>
-      <c r="B326" t="s">
-        <v>237</v>
-      </c>
-      <c r="C326" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3">
-      <c r="A327" t="s">
-        <v>0</v>
-      </c>
-      <c r="B327" t="s">
-        <v>237</v>
-      </c>
-      <c r="C327" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
-      <c r="A328" t="s">
-        <v>0</v>
-      </c>
-      <c r="B328" t="s">
-        <v>237</v>
-      </c>
-      <c r="C328" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
-      <c r="A329" t="s">
-        <v>0</v>
-      </c>
-      <c r="B329" t="s">
-        <v>237</v>
-      </c>
-      <c r="C329" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3">
-      <c r="A330" t="s">
-        <v>0</v>
-      </c>
-      <c r="B330" t="s">
-        <v>237</v>
-      </c>
-      <c r="C330" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3">
-      <c r="A331" t="s">
-        <v>0</v>
-      </c>
-      <c r="B331" t="s">
-        <v>237</v>
-      </c>
-      <c r="C331" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3">
-      <c r="A332" t="s">
-        <v>0</v>
-      </c>
-      <c r="B332" t="s">
-        <v>237</v>
-      </c>
-      <c r="C332" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
-      <c r="A333" t="s">
-        <v>0</v>
-      </c>
-      <c r="B333" t="s">
-        <v>237</v>
-      </c>
-      <c r="C333" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3">
-      <c r="A334" t="s">
-        <v>0</v>
-      </c>
-      <c r="B334" t="s">
-        <v>237</v>
-      </c>
-      <c r="C334" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3">
-      <c r="A335" t="s">
-        <v>0</v>
-      </c>
-      <c r="B335" t="s">
-        <v>237</v>
-      </c>
-      <c r="C335" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3">
-      <c r="A336" t="s">
-        <v>0</v>
-      </c>
-      <c r="B336" t="s">
-        <v>237</v>
-      </c>
-      <c r="C336" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3">
-      <c r="A337" t="s">
-        <v>0</v>
-      </c>
-      <c r="B337" t="s">
-        <v>237</v>
-      </c>
-      <c r="C337" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3">
-      <c r="A338" t="s">
-        <v>0</v>
-      </c>
-      <c r="B338" t="s">
-        <v>237</v>
-      </c>
-      <c r="C338" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3">
-      <c r="A339" t="s">
-        <v>0</v>
-      </c>
-      <c r="B339" t="s">
-        <v>237</v>
-      </c>
-      <c r="C339" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3">
-      <c r="A340" t="s">
-        <v>0</v>
-      </c>
-      <c r="B340" t="s">
-        <v>237</v>
-      </c>
-      <c r="C340" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3">
-      <c r="A341" t="s">
-        <v>0</v>
-      </c>
-      <c r="B341" t="s">
-        <v>237</v>
-      </c>
-      <c r="C341" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3">
-      <c r="A342" t="s">
-        <v>0</v>
-      </c>
-      <c r="B342" t="s">
-        <v>237</v>
-      </c>
-      <c r="C342" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3">
-      <c r="A343" t="s">
-        <v>0</v>
-      </c>
-      <c r="B343" t="s">
-        <v>237</v>
-      </c>
-      <c r="C343" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3">
-      <c r="A344" t="s">
-        <v>0</v>
-      </c>
-      <c r="B344" t="s">
-        <v>237</v>
-      </c>
-      <c r="C344" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3">
-      <c r="A345" t="s">
-        <v>0</v>
-      </c>
-      <c r="B345" t="s">
-        <v>237</v>
-      </c>
-      <c r="C345" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3">
-      <c r="A346" t="s">
-        <v>0</v>
-      </c>
-      <c r="B346" t="s">
-        <v>237</v>
-      </c>
-      <c r="C346" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3">
-      <c r="A347" t="s">
-        <v>0</v>
-      </c>
-      <c r="B347" t="s">
-        <v>237</v>
-      </c>
-      <c r="C347" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
-      <c r="A348" t="s">
-        <v>0</v>
-      </c>
-      <c r="B348" t="s">
-        <v>237</v>
-      </c>
-      <c r="C348" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/sentence_level/data/sentences/all/2012_debby_tornado.xlsx
+++ b/sentence_level/data/sentences/all/2012_debby_tornado.xlsx
@@ -14,762 +14,1758 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="584">
   <si>
     <t>2012_debby_tornado</t>
   </si>
   <si>
+    <t>Alachua</t>
+  </si>
+  <si>
+    <t>It is expected to weaken into a tropical depression when its center passes over Alachua and Flagler counties by Friday.</t>
+  </si>
+  <si>
+    <t>ENGLEWOOD FLORIDA</t>
+  </si>
+  <si>
+    <t>SUMMARY OF WATCHES AND WARNINGS IN EFFECT...  A TROPICAL STORM WARNING IS IN EFFECT FOR...  * THE MISSISSIPPI-ALABAMA BORDER EASTWARD TO THE SUWANNEE RIVER  FLORIDA  A TROPICAL STORM WATCH IS IN EFFECT FOR...  * SOUTH OF THE SUWANNEE RIVER TO ENGLEWOOD FLORIDA  STORM SURGE...THE COMBINATION OF A STORM SURGE AND THE TIDE WILL  CAUSE NORMALLY DRY AREAS NEAR THE COAST TO BE FLOODED BY RISING  WATERS.</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Near the mouth of the Mississippi southeast of New Orleans, Plaquemines Parish President Billy Nungesser said officials were making preparations to protect the main highway from tidal flooding.</t>
+  </si>
+  <si>
+    <t>Parts of Florida's west coast and coastal Mississippi could see 2 to 4 feet deep waters.</t>
+  </si>
+  <si>
+    <t>Publix</t>
+  </si>
+  <si>
+    <t>Down in Largo, Andrea Swanson, an 18-year-old Publix cashier, sat on her couch in her second-floor condominium on Walsingham Road when it looked like the worst of the storm was over.</t>
+  </si>
+  <si>
+    <t>Cedar Key</t>
+  </si>
+  <si>
+    <t>Debby is expected to make landfall Thursday north of Cedar Key, then track across the peninsula.</t>
+  </si>
+  <si>
+    <t>Apalachicola</t>
+  </si>
+  <si>
+    <t>One of the latest advisories from the National Hurricane Center put the storm southwest of Apalachicola and stationary with maximum sustained winds of 45 mph.</t>
+  </si>
+  <si>
+    <t>Such sustained winds were recorded early Sunday evening in several spots on the Florida Panhandle, west of Apalachicola.</t>
+  </si>
+  <si>
+    <t>Debby was essentially stationary about 115 miles (185 km) south-southwest of Apalachicola, Florida, on Sunday evening.</t>
+  </si>
+  <si>
+    <t>With tropical storm-force winds extending outward up to 230 miles (370 km) from its center off the northwest coastal town of Apalachicola late Monday afternoon, forecasters said Debby menaced a broad swath of inland territory with flash flooding from torrential downpours.</t>
+  </si>
+  <si>
+    <t>By late Sunday night, Debby sat nearly stationary some 115 miles south-southwest of the coastal Panhandle town of Apalachicola, and the storm's unsparing rain and wind were expected to continue today and maybe into Tuesday.</t>
+  </si>
+  <si>
+    <t>At 8 p.m. ET, Debby was centered 30 miles south-southwest of Apalachicola and was not moving.</t>
+  </si>
+  <si>
+    <t>Debby's center was essentially stationary about 110 miles (180 km) south-southwest of Apalachicola, Fla., on Sunday evening.</t>
+  </si>
+  <si>
+    <t>By late afternoon, Debby was in the Gulf of Mexico, 30 miles southwest of Apalachicola, with sustained winds around 45 mph.</t>
+  </si>
+  <si>
+    <t>Ruskin</t>
+  </si>
+  <si>
+    <t>"We're so overwhelmed with normal operations that we haven't been able to send anyone out to confirm that," said Dan Noah at the National Weather Service's local office in Ruskin.</t>
+  </si>
+  <si>
+    <t>Sunshine Skyway Bridge</t>
+  </si>
+  <si>
+    <t>The Sunshine Skyway Bridge remains closed this morning, according to the Florida Highway Patrol due to high winds.</t>
+  </si>
+  <si>
+    <t>Highlands County</t>
+  </si>
+  <si>
+    <t>On Sunday, Debby spawned twisters that killed a woman, badly injured a child and wrecked homes in central Florida in rural Highlands County, according to an emergency management official.</t>
+  </si>
+  <si>
+    <t>One of the more significant tornadoes proved deadly in Highlands County, where a tornado killed a woman and critically injured her child in the town of Venus on Sunday.</t>
+  </si>
+  <si>
+    <t>Southeast of Tampa Bay in Highlands County, Sheriff's Office spokeswoman Nell Hays said a woman was found dead in a house in the Highlands town of Venus that was destroyed in the storm.</t>
+  </si>
+  <si>
+    <t>WPTV</t>
+  </si>
+  <si>
+    <t>Miss Town's anguished father, Elmer Town, told WPTV that his daughter's sacrifice showed the type of a mother she was.</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>And BP spokesman Brett Clanton said early Sunday evening that "we've evacuated the majority of our offshore personnel in the Gulf of Mexico" due to Tropical Storm Debby.</t>
+  </si>
+  <si>
+    <t>Shell, BP and ExxonMobil began evacuating workers from offshore rigs on Sunday, but BP and Shell had made plans to return to those platforms as Debby turned toward Florida.</t>
+  </si>
+  <si>
+    <t>Terrebonne Parish</t>
+  </si>
+  <si>
+    <t>Even though it was far from clear it would hit Louisiana, officials in that state weren't taking any chances -- with Terrebonne Parish and Lafourche Parish among those issuing precautionary states of emergency, after the governor did the same.</t>
+  </si>
+  <si>
+    <t>Federal Emergency Management Agency</t>
+  </si>
+  <si>
+    <t>St. George Island and other low-lying areas in Franklin County on the Florida Panhandle, the Federal Emergency Management Agency said in a Sunday night news release.</t>
+  </si>
+  <si>
+    <t>Gulf Coast</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby drenches Florida's Gulf Coast (+video).</t>
+  </si>
+  <si>
+    <t>The LOOP continued delivers to Gulf Coast refiners from underground storage caverns onshore.</t>
+  </si>
+  <si>
+    <t>In Alabama, rescuers continued a search on Monday for a swimmer who is presumed dead after he went missing off the Gulf Coast near Orange Beach on Sunday.</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Central Florida and southeast Georgia will likely be drenched with 5 to 10 inches, with smaller but still significant precipitation amounts in parts of coastal Alabama, southeastern Louisiana and south Florida.</t>
+  </si>
+  <si>
+    <t>Packing 60 mph winds, Debby's eye was still 115 miles south-southwest of Apalachiocola, Florida (and 195 miles east-southeast of the mouth of the Mississippi River in Louisiana) according to the National Hurricane Center's 7 p.m. (8 p.m. ET) Sunday update.</t>
+  </si>
+  <si>
+    <t>Storm warnings once stretched as far west as Morgan City, Louisiana, before shifting eastward on Sunday afternoon and Monday.</t>
+  </si>
+  <si>
+    <t>Louisiana Gov. Bobby Jindal also declared a state of emergency to make it easier to send supplies and workers to areas that may need it.</t>
+  </si>
+  <si>
+    <t>Meanwhile, a state of emergency was declared in the states of Florida and Louisiana as residents pick up the pieces in the areas hardest hit by Debby.</t>
+  </si>
+  <si>
+    <t>Underscoring the storm's unpredictable nature, forecasters discontinued a tropical storm warning for Louisiana after forecast models indicated Debby wasn't likely to turn west.</t>
+  </si>
+  <si>
+    <t>Alabama-Florida</t>
+  </si>
+  <si>
+    <t>A tropical storm warning is effect still for residents east of the Alabama-Florida border, east to the Suwannee River.</t>
+  </si>
+  <si>
+    <t>10:00 AM CDT Monday, June 25, 2012   Location: 28.6°N 85.2°W   Moving: Northeast at 3 miles per hour   Minimum pressure: 995 millibars   Maximum sustained winds: 45 miles per hour  Tropical Storm Warnings: East of the Alabama-Florida border eastward to the Suwannee River.</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>The computer model spread still shows no clear direction, but the National Hurricane Center has given up on the westward push towards Texas.</t>
+  </si>
+  <si>
+    <t>Pot Boulevard</t>
+  </si>
+  <si>
+    <t>Coffee Pot Boulevard in St. Petersburg.</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>One of them, Shell, said in a statement Sunday morning that it had evacuated 360 staff the previous day and was planning further evacuations.</t>
+  </si>
+  <si>
+    <t>Tampa Bay</t>
+  </si>
+  <si>
+    <t>It was unclear if any tornadoes actually touched down in the Tampa Bay area.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby, messy, unorganized and noncommittal in its path, loitered out in the gulf and sent lashing bands of record-breaking rain over Tampa Bay and its surrounding counties.</t>
+  </si>
+  <si>
+    <t>High winds forced the closure of an interstate bridge that spans Tampa Bay and links St. Petersburg with areas to the southeast.</t>
+  </si>
+  <si>
+    <t>High winds and the threat of flooding forced the closing of an interstate highway bridge that spans Tampa Bay and links St. Petersburg with areas to the southwest.</t>
+  </si>
+  <si>
+    <t>Even though Tropical Storm Debby has yet to make landfall, she's brought her wrath upon the Tampa Bay area.</t>
+  </si>
+  <si>
+    <t>Florida officials said the storm has left an estimated 35,000 people without power and forced the closure of a four-mile (six-km) bridge spanning Tampa Bay that connects the city of St. Petersburg with the Bradenton area.</t>
+  </si>
+  <si>
+    <t>Tampa Bay affiliate, FOX 13 reported 32-year-old, Heather Town was thrown from her home on Montana Trail when the tornado hit her home.</t>
+  </si>
+  <si>
+    <t>In other areas of the Southeast, Debby raked the Tampa Bay area with high wind and heavy rain Monday in a drenching that could top 2 feet over the next few days and trigger widespread flooding.</t>
+  </si>
+  <si>
+    <t>The Sunshine Skyway bridge, which stretches over Tampa Bay and connects Bradenton with St. Petersburg, was closed Sunday because of high winds and remained closed Monday, Pinellas County officials said.</t>
+  </si>
+  <si>
+    <t>Dan Shaffer shares photos and images from across the Tampa Bay area.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby brings heavy rain, strong winds to Tampa Bay.</t>
+  </si>
+  <si>
+    <t>The old oak in the family's back yard at 301 E Clinton St. in Old Seminole Heights burst through the guest bedroom ceiling just before 5 a.m. as Tropical Storm Debby raged outside, sending wind gusts of up to 50 mph tearing through the Tampa Bay area.</t>
+  </si>
+  <si>
+    <t>Lake County Water Authority</t>
+  </si>
+  <si>
+    <t>Lake levels are well below normal levels, and this past weekend brought 4 to 6 inches of rain -- not enough to alleviate the rainfall deficit, said Mike Perry, executive director of the Lake County Water Authority.</t>
+  </si>
+  <si>
+    <t>U.S. Gulf</t>
+  </si>
+  <si>
+    <t>Debby is expected to continue veering away from the U.S. Gulf waters that are home to about 20 percent of U.S. oil and 6 percent of natural gas output.</t>
+  </si>
+  <si>
+    <t>Manhattan Avenue</t>
+  </si>
+  <si>
+    <t>Tampa, Florida -- The flood waters in the South Tampa area are beginning to recede this morning, but several cars flooded out by the deep waters remain stalled in some of the hardest hit areas like Manhattan Avenue.</t>
+  </si>
+  <si>
+    <t>Pasco County</t>
+  </si>
+  <si>
+    <t>It began with Gulfport and Tampa and Pasco County flooding as high tide surged.</t>
+  </si>
+  <si>
+    <t>Palm Harbor</t>
+  </si>
+  <si>
+    <t>Up the coast, in Palm Harbor, firefighters reported swift, running water flowing over Lake St. George just north of Tampa Road and Alt.</t>
+  </si>
+  <si>
+    <t>Sawyer Road</t>
+  </si>
+  <si>
+    <t>The Hillsborough County Sheriff's Office is also reporting flooding in the areas of Winterwind Drive and Autumnwind Court, Hillsborough Avenue W and Sawyer Road, Hanely Road and Hillsborough Avenue, Powhatan Avenue W and Halifax, Powhatan Avenue W and Town and CountryBoulevard, Winter Oaks Lane and Carrollwood Village Drive.</t>
+  </si>
+  <si>
+    <t>Arlington</t>
+  </si>
+  <si>
+    <t>More than 7 inches of rain has fallen in the Arlington area.</t>
+  </si>
+  <si>
+    <t>FT  SOUTHEASTERN LOUISIANA TO COASTAL MISSISSIPPI</t>
+  </si>
+  <si>
+    <t>THE WATER COULD REACH THE FOLLOWING DEPTHS ABOVE GROUND AT  THE TIMES OF HIGH TIDE OVER THE NEXT FEW DAYS...  APALACHEE BAY TO WACCASASSA BAY...4 TO 6 FT  FLORIDA WEST COAST SOUTH OF WACCASASSA BAY...2 TO 4 FT  COASTAL ALABAMA EASTWARD TO APALACHEE BAY...2 TO 4 FT  SOUTHEASTERN LOUISIANA TO COASTAL MISSISSIPPI...1 TO 3 FT  Sign up for email updates of my Hurricane Page  Local storm conversation on my Facebook Page</t>
+  </si>
+  <si>
+    <t>Powhatan Avenue</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Branches laden with Spanish moss barely missed Young's sleeping sister and nephew, visiting from Atlanta.</t>
+  </si>
+  <si>
+    <t>Thankfully, no one in the home - including Ms Young's relatives visiting from Atlanta - were seriously injured.</t>
+  </si>
+  <si>
+    <t>Florida Gulf Coast</t>
+  </si>
+  <si>
+    <t>A tropical storm warning is in effect for the Florida Gulf Coast from Destin to Englewood.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby still threatening to flood much of Florida Gulf Coast.</t>
+  </si>
+  <si>
+    <t>Wind and tropical storm conditions will continue over portions of the Florida Gulf Coast tonight and Tuesday.</t>
+  </si>
+  <si>
+    <t>Forecast models show Debby making landfall along the northern Florida Gulf Coast by Thursday.</t>
+  </si>
+  <si>
+    <t>Volusia</t>
+  </si>
+  <si>
+    <t>Debby is projected to be downgraded to a tropical depression by the time it's expected to hover near Lake and Volusia counties Thursday.</t>
+  </si>
+  <si>
+    <t>Officials in Lake and Volusia counties said flooding isn't a big worry because most of the region has been under a drought, and more rainfall from Debby would actually be helpful.</t>
+  </si>
+  <si>
+    <t>Tampa</t>
+  </si>
+  <si>
+    <t>Neighbors found her still cradling her 3-year-old daughter, who was being treated at a Tampa hospital,  "She never let go of her little one even in death," Highland County Sheriff Susan Benton said in a statement issued Monday afternoon.</t>
+  </si>
+  <si>
+    <t>Tropical storm warnings were posted from the Panhandle resort of Destin to Englewood, about 50 miles south of Tampa.</t>
+  </si>
+  <si>
+    <t>Debby already has been blamed for one death in Venus, Florida, about 100 miles southeast of Tampa, when a woman died while trying to shelter her 3-year-old daughter during a tornado.</t>
+  </si>
+  <si>
+    <t>The Highlands County Sheriff's Office said in a news release that several tornadoes moved through the area southeast of Tampa, damaging homes.</t>
+  </si>
+  <si>
+    <t>TS Debby's deluge flooding Tampa area, stranding drivers.</t>
+  </si>
+  <si>
+    <t>Oak tree arrives in Tampa home's guest bedroom with thud, thanks to Tropical Storm Debby  TAMPA — Joseph Shelton woke up from a dream early Monday in a cold sweat.</t>
+  </si>
+  <si>
+    <t>10:20 a.m. Gov. Rick Scott has canceled a trip to Tampa and is returning to Tallahassee for a briefing on Debby.</t>
+  </si>
+  <si>
+    <t>In Tampa, Barbara Young was lucky to be alive after the storm uprooted a tree that fell on her home as she slept.</t>
+  </si>
+  <si>
+    <t>Bayshore Boulevard in Tampa.</t>
+  </si>
+  <si>
+    <t>Doppler Radar estimates show that over 8 inches of rain has fallen so far just north of Tampa.</t>
+  </si>
+  <si>
+    <t>The storm, likely to linger for several days, has already doused Tampa with record amounts of rain, toppled trees, downed power lines and flooded roads.</t>
+  </si>
+  <si>
+    <t>Meanwhile, areas from Sarasota and the Tampa area are experiencing squalls of strong storms that are producing isolated tornadoes.</t>
+  </si>
+  <si>
+    <t>Oak tree arrives in Tampa home's guest bedroom with thud, thanks to Tropical Storm Debby.</t>
+  </si>
+  <si>
+    <t>Atlantic ocean</t>
+  </si>
+  <si>
+    <t>Afterwards, Debby will push into the Atlantic ocean and travel northeast and should spare the eastern coast.</t>
+  </si>
+  <si>
+    <t>Florida Emergency Operations Center</t>
+  </si>
+  <si>
+    <t>“The widespread flooding is the biggest concern,” said Florida Emergency Operations Center spokeswoman Julie Roberts.</t>
+  </si>
+  <si>
+    <t>Bradenton</t>
+  </si>
+  <si>
+    <t>And high winds have prompted authorities to shut down the Sunshine Skyway bridge on Interstate 275 connecting St. Petersburg and Bradenton, Florida, said Elizabeth LaRotonda with St. Petersburg police.</t>
+  </si>
+  <si>
+    <t>Florida National Guard</t>
+  </si>
+  <si>
+    <t>Scott's Executive Order directs all state agencies, including the Florida National Guard, to provide any necessary assistance when requested by local governments.</t>
+  </si>
+  <si>
+    <t>"Some communities are already grappling with flooding, wind damage and electrical outages," said Scott, who ordered all state agencies, including the  Florida National Guard, to provide any necessary assistance requested by local governments.</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby advisory No. 10 from the National Hurricane Center in Miami says the threat of flooding continues for the next day or two.</t>
+  </si>
+  <si>
+    <t>Saturday marks the 15th anniversary of the tornado that cut through downtown Miami.</t>
+  </si>
+  <si>
+    <t>FLORIDA</t>
+  </si>
+  <si>
+    <t>Bayshore Boulevard</t>
+  </si>
+  <si>
+    <t>\  Bayshore Boulevard is closed due to the incliment weather.Avoid the area if you can.</t>
+  </si>
+  <si>
+    <t>Tampa Police say they are getting reports of flooding this morning in the usual areas where we see flood waters build during major rain events like South Dale Mabry, Bayshore Boulevard, Manhattan, Swann Avenue, and Westshore Boulevard.</t>
+  </si>
+  <si>
+    <t>Southern Alabama</t>
+  </si>
+  <si>
+    <t>Flash flood threats remain in place across Northern Florida and Southern Alabama as well.</t>
+  </si>
+  <si>
+    <t>Florida Panhandle</t>
+  </si>
+  <si>
+    <t>The National Hurricane reports to news that several possible tornadoes could form today June 25, 2012 across the eastern Florida Panhandle.</t>
+  </si>
+  <si>
+    <t>The bridge leading to St. George Island, a vacation spot along the Florida Panhandle, was closed to everyone except residents, renters and business owners to keep looters out.</t>
+  </si>
+  <si>
+    <t>Beyond that, the new forecast track showed Debby remaining a tropical storm as it moves northward and makes landfall, possibly Thursday, on the Florida Panhandle.</t>
+  </si>
+  <si>
+    <t>An erratic Tropical Storm Debby stalled just off the Florida Panhandle on Monday evening, dumping sheets of rain on Florida's Big Bend marshes and towns far down the peninsula.</t>
+  </si>
+  <si>
+    <t>Revised forecasts showed Debby remaining a tropical storm until it makes landfall early Thursday near Apalachee Bay, in the bend of the state where the Florida Panhandle ends.</t>
+  </si>
+  <si>
+    <t>Debby should dump 10 to 15 inches of rain in the Florida Panhandle and elsewhere in northern Florida before it's done, the hurricane center said, with as much as 25 inches possible in spots.</t>
+  </si>
+  <si>
+    <t>Florida Governor Rick Scott declared a state of emergency and a tropical storm warning was in effect along much of the Gulf coastline, from the Florida Panhandle down through the central west coast.</t>
+  </si>
+  <si>
+    <t>The highest potential is 25 inches along portions of the Florida Panhandle.</t>
+  </si>
+  <si>
+    <t>Lenox Avenue</t>
+  </si>
+  <si>
+    <t>A fallen tree has caused almost 430 JEA customers to lose power near Lenox Avenue and Fouraker Road, the utility company said.</t>
+  </si>
+  <si>
+    <t>Coast Guard</t>
+  </si>
+  <si>
+    <t>In Orange Beach, Alabama, a 32-year-old man went missing Sunday in rough surf kicked up by the storm, said Coast Guard Lt. j.g. Torry James.</t>
+  </si>
+  <si>
+    <t>In Orange Beach, Ala., a 32-year-old man went missing Sunday in rough surf kicked up by the storm, said Coast Guard Lt. j.g. Torry James.</t>
+  </si>
+  <si>
+    <t>Gulfport Casino</t>
+  </si>
+  <si>
+    <t>Thigh-deep water went five blocks north, turning hundreds of homes, bars and the Gulfport Casino into islands.</t>
+  </si>
+  <si>
+    <t>Jacksonville Sheriff's Office</t>
+  </si>
+  <si>
+    <t>The Jacksonville Sheriff's Office has just updated local road closures, cutting the original list nearly in half.</t>
+  </si>
+  <si>
+    <t>Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>The storm is then expected to cross the state and head into the Atlantic Ocean south of Jacksonville as a tropical depression on Saturday.</t>
+  </si>
+  <si>
+    <t>Though Debby's track was still uncertain, the hurricane center said it could re-emerge and gain strength over the western Atlantic Ocean by next weekend.</t>
+  </si>
+  <si>
+    <t>However, if it does emerge into the Atlantic Ocean, it could slowly intensify again as it moves away from land.</t>
+  </si>
+  <si>
+    <t>Tampa Road</t>
+  </si>
+  <si>
+    <t>19 N at Tampa Road.</t>
+  </si>
+  <si>
+    <t>Venus</t>
+  </si>
+  <si>
+    <t>Heather Town, 32, was found dead after the tornado ripped through her mobile home in Venus, Florida, in the debris of a barbed wire fence, with her young daughter in her arms.</t>
+  </si>
+  <si>
+    <t>The woman was found dead in a home in Venus, located in the middle of the state roughly between Port St. Lucie and Sarasota, Rybinski said.</t>
+  </si>
+  <si>
+    <t>Bayou Grande Boulevard</t>
+  </si>
+  <si>
+    <t>Siobhan Archard reached down into the foot-deep water around her on Bayou Grande Boulevard, near 62nd Avenue, and caught a squirming mullet.</t>
+  </si>
+  <si>
+    <t>Laguna Beach</t>
+  </si>
+  <si>
+    <t>See photos from Laguna Beach as the leading rain bands arrived  This is a large storm.</t>
+  </si>
+  <si>
+    <t>Savannah</t>
+  </si>
+  <si>
+    <t>As of late Monday, an estimated 1 to 2 inches of rain had fallen on downtown Savannah from Debby.</t>
+  </si>
+  <si>
+    <t>Weather Service</t>
+  </si>
+  <si>
+    <t>The Weather Service has posted flood warnings for much of the area.</t>
+  </si>
+  <si>
+    <t>Camden</t>
+  </si>
+  <si>
+    <t>9:50 a.m. Tornado warnings have been issued for northeastern Camden and southeastern Glynn counties in Georgia, expiring at 10:15 a.m.  9:45 a.m. Steve Letro, meteorologist-in-charge of Jacksonville's National Weather Service office, said the First Coast can expect periodic bands of heavy rain over the next few days, with periodic breaks.</t>
+  </si>
+  <si>
+    <t>A tornado warning posted for southeastern Camden and Glynn counties in Georgia is set to expire at 9:30 a.m.</t>
+  </si>
+  <si>
+    <t>A warning, expiring at 9:30 a.m., is currently in place for southeastern Camden and southern Glynn counties in Georgia.</t>
+  </si>
+  <si>
+    <t>Sheriff's Office</t>
+  </si>
+  <si>
+    <t>Sheriff's Office spokeswoman Nell Hays said a woman was found dead in a house in Venus that was destroyed in the storm.</t>
+  </si>
+  <si>
+    <t>LOOP</t>
+  </si>
+  <si>
+    <t>northern Gulf of Mexico</t>
+  </si>
+  <si>
+    <t>As it remains stationary over the open waters of the northern Gulf of Mexico, the storm will simply upwell colder ocean water to the surface.</t>
+  </si>
+  <si>
+    <t>Gulfport</t>
+  </si>
+  <si>
+    <t>The beach in Gulfport was gone.</t>
+  </si>
+  <si>
+    <t>Kameel Stanley</t>
+  </si>
+  <si>
+    <t>Staff writers Drew Harwell, Peter Jamison, Diane Steinle, Kameel Stanley, Stephanie Wang, Rich Shopes and Waveney Ann Moore contributed to this report.</t>
+  </si>
+  <si>
+    <t>Gulf</t>
+  </si>
+  <si>
+    <t>In fact, Tropical Storm Debby will likely remain stationary over the northern Gulf for the next 24 hours and continue to produce heavy rains, large areas of flooding, and isolated tornadoes for the next three to five days.</t>
+  </si>
+  <si>
+    <t>Apache and Chevron Corp. (CVX) said on their websites that they began evacuating non-essential personnel from some Gulf facilities yesterday.</t>
+  </si>
+  <si>
+    <t>Offshore oil and natural gas platforms need to carry out evacuations in advance of a storm’s arrival so any system in the Gulf can cause production disruptions.</t>
+  </si>
+  <si>
+    <t>Beach areas were "basically underwater," as were many side streets and at least two major thoroughfares -- U.S. Highway 19 and Gulf to Bay Boulevard.</t>
+  </si>
+  <si>
+    <t>St. Marys River</t>
+  </si>
+  <si>
+    <t>Skies were sunny and blue, at least temporarily, about 10 a.m.  9:55 a.m. Baker County EOC head Adam Faircloth reports that officials are monitoring the St. Marys River, but no problems have been reported so far.</t>
+  </si>
+  <si>
+    <t>Plaquemines</t>
+  </si>
+  <si>
+    <t>Crawfordville</t>
+  </si>
+  <si>
+    <t>Convenience store employee Lindsey Bennight watches floodwaters surround the store where she works in Crawfordville, Fla.</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Forecasters declared a flash flood emergency for parts of Franklin, Liberty and Wakulla counties near Tallahassee until late Monday, and Debby drove rising tides across neighborhood streets as far south as the Tampa-St.</t>
+  </si>
+  <si>
+    <t>Redington Beach</t>
+  </si>
+  <si>
+    <t>In nearby Redington Beach, fellow iReporter Keri Ann Eversole said winds appeared to be blowing between 40 to 50 miles per hour.</t>
+  </si>
+  <si>
+    <t>Brevard</t>
+  </si>
+  <si>
+    <t>At least a dozen Florida counties have been impacted by possible and or confirmed tornado damage including Polk, Marion, Duval, Miami-Dade, Pasco, Osceole, Brevard, Haree, Highlands, Glades, Palm Beach and Collier.</t>
+  </si>
+  <si>
+    <t>Petersburg</t>
+  </si>
+  <si>
+    <t>Petersburg area.</t>
+  </si>
+  <si>
+    <t>Seminole</t>
+  </si>
+  <si>
+    <t>He and his wife packed bags for a few days and headed to a makeshift shelter set up by the Red Cross, in the cafeteria of Chapel on the Hill, a church in Seminole.</t>
+  </si>
+  <si>
+    <t>Port St. Lucie</t>
+  </si>
+  <si>
+    <t>Carrollwood Village Drive</t>
+  </si>
+  <si>
+    <t>Tropical Storm Fay</t>
+  </si>
+  <si>
+    <t>In 2008, Tropical Storm Fay dumped about 21 inches of rain in 24 hours, overwhelming lakes and flooding 130 homes in DeBary alone.</t>
+  </si>
+  <si>
+    <t>Glynn</t>
+  </si>
+  <si>
+    <t>Hyatt Regency</t>
+  </si>
+  <si>
+    <t>So was the Bright House Field baseball park, and the Hyatt Regency, where workers mopped up water and lined the building with sandbags.</t>
+  </si>
+  <si>
+    <t>Montana Trail</t>
+  </si>
+  <si>
+    <t>Highlands</t>
+  </si>
+  <si>
+    <t>NWS</t>
+  </si>
+  <si>
+    <t>St. Johns County was under a tornado watch through late Monday night and is under a flood warning until this evening, according to the NWS.</t>
+  </si>
+  <si>
+    <t>The NWS recorded a waterspout about eight nautical miles off the coast of Vilano Beach on Monday evening at about 5:45 p.m.</t>
+  </si>
+  <si>
+    <t>Since forming on Saturday, more than 25 reports of tornadoes have been received by the National Weather Service (NWS) including damage reports from possible tornadoes in the Naples, Saint Petersburg and Jacksonville areas.</t>
+  </si>
+  <si>
+    <t>NWS tells news that at 8:37 AM EST Doppler Radar spotted a “severe thunderstorm it strong rotation”.</t>
+  </si>
+  <si>
+    <t>Phil Peterson, a meteorologist with the NWS, said Tropical Storm Debby is a very slow-moving storm that is traveling northeast across Florida from the Gulf of Mexico.</t>
+  </si>
+  <si>
+    <t>NWS had issued more than 60 tornado warnings across parts of the state as of noon Monday.</t>
+  </si>
+  <si>
+    <t>Belcher Road</t>
+  </si>
+  <si>
+    <t>Meanwhile, in Clearwater, at On Top of the World, the sprawling condominium complex for retirees off Belcher Road, flood waters spilled over the golf course starting at 3.</t>
+  </si>
+  <si>
+    <t>Chevron Corp.</t>
+  </si>
+  <si>
+    <t>Neptune Beach</t>
+  </si>
+  <si>
+    <t>Neptune Beach police dispatchers reported similar conditions following the first round of Debby's visit.</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>By Tuesday, tributes to Miss Town were posted on social networking sites like Facebook.</t>
+  </si>
+  <si>
+    <t>Hillsborough Avenue</t>
+  </si>
+  <si>
+    <t>Jupiter</t>
+  </si>
+  <si>
+    <t>One of them includes this storm captured off shore from Jupiter.</t>
+  </si>
+  <si>
+    <t>Times-Union</t>
+  </si>
+  <si>
+    <t>Jacksonville.com and the Times-Union would like to hear from you regarding any flooding or other weather issues.</t>
+  </si>
+  <si>
+    <t>Highland County</t>
+  </si>
+  <si>
+    <t>Offshoot tornadoes, like the ones that seemed to hit Highland County, are one major concern.</t>
+  </si>
+  <si>
+    <t>Gloria Rybinski, emergency operations spokeswoman for Highland County, said two twisters destroyed four homes in the southern end of the county and damaged others.</t>
+  </si>
+  <si>
+    <t>Lake County</t>
+  </si>
+  <si>
+    <t>Weitlich said forecasters will likely extend a flood warning beyond Lake County for low-lying areas as rain bands form over Central Florida.</t>
+  </si>
+  <si>
+    <t>Baker County EOC</t>
+  </si>
+  <si>
+    <t>Swann Avenue</t>
+  </si>
+  <si>
+    <t>Central Florida</t>
+  </si>
+  <si>
+    <t>Barring major forecast changes, Debby's bands will bring steady rain and wind to all of Central Florida through the end of the week, spawning the threat of rapid-forming tornadoes and dropping up to 8 inches of rain in different locations across the region, forecasters said.</t>
+  </si>
+  <si>
+    <t>Monday, as it churned slowly in the Gulf, it had again drifted -- this time going generally northeast and putting Central Florida counties in its projected path.</t>
+  </si>
+  <si>
+    <t>Debby</t>
+  </si>
+  <si>
+    <t>Frazier said they're bracing for the next round of wet thrashing from Debby, anticipated later today.</t>
+  </si>
+  <si>
+    <t>FOX</t>
+  </si>
+  <si>
+    <t>U.S.</t>
+  </si>
+  <si>
+    <t>Gulf to Bay Boulevard in Clearwater and U.S. 19 up into Pasco.</t>
+  </si>
+  <si>
+    <t>Over the weekend, the storm idled about a quarter of U.S. offshore oil and natural gas production in the Gulf of Mexico, based on figures issued by U.S. offshore regulators.</t>
+  </si>
+  <si>
+    <t>The Gulf of Mexico is home to 6.5 percent of U.S. natural gas production, 29 percent of oil output and 40 percent of refining capacity.</t>
+  </si>
+  <si>
+    <t>Pasco emergency officials reported severe flooding especially in areas west of U.S. 19.</t>
+  </si>
+  <si>
+    <t>And the Louisiana Offshore Oil Port, which unloads about 1 million barrels per day of U.S. crude oil imports from giant tankers, said it was set to resume operations on Monday, after shutting Sunday due to rough seas.</t>
+  </si>
+  <si>
+    <t>But U.S. regulators said on Monday that Gulf of Mexico oil and gas operators had shut in 44.1 percent of daily oil and 34.8 percent of daily natural gas production because of Tropical Storm Debby, a near doubling of the oil total from Sunday.</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Debby kicks up storm along Florida panhandle.</t>
+  </si>
+  <si>
+    <t>The storm has caused several tornadoes in central Florida and southern Georgia — something that St. Augustine residents should be aware of, Peterson said.</t>
+  </si>
+  <si>
+    <t>While Debby has yet to make landfall, numerous reports of damage have been reported across parts of Florida from a rash of tornadoes spawned by the storm.</t>
+  </si>
+  <si>
+    <t>There are no reports of any injuries after authorities say a tornado touched down in southwest Florida as Tropical Storm Debby formed.</t>
+  </si>
+  <si>
+    <t>Debby is actually more than 100 miles off the north Florida coast, and barely moving.</t>
+  </si>
+  <si>
+    <t>A public advisory said parts of northern Florida could receive 10 to 15 inches of rain, with some areas getting as much as 25.</t>
+  </si>
+  <si>
+    <t>Debby spawns rash of tornadoes in Florida; 1 killed (photos, video).</t>
+  </si>
+  <si>
+    <t>MIAMI - Slow-moving Tropical Storm Debby's outer bands lashed Florida with rain and kicked up rough surf off Alabama on Sunday, prompting storm warnings for those states and causing at least one death.</t>
+  </si>
+  <si>
+    <t>Coastal Alabama and parts of Florida, including the Panhandle, were under tropical storm warnings.</t>
+  </si>
+  <si>
+    <t>People in several sparsely populated counties near the crook of Florida’s elbow were urged to leave low-lying neighborhoods because of the danger of flooding.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby Drenches Florida.</t>
+  </si>
+  <si>
+    <t>One Death   The death in Florida was blamed on a tornado spawned by the storm, while a man went missing in the Gulf of Mexico at an Alabama beach.</t>
+  </si>
+  <si>
+    <t>Most of the strongest storms are occurring throughout central Florida and even as far northeast into southeastern Georgia.</t>
+  </si>
+  <si>
+    <t>It could dump more than a foot (30 cm) of rain in some areas of the state, with isolated amounts of more than two feet (64 cm) in north Florida, the hurricane center said.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby, its accompanying winds and rains brought flooding to parts of Florida.</t>
+  </si>
+  <si>
+    <t>Officials tracked a tornado northwest of Fernandina Beach, Florida moments ago; weather reports are advising residents to take cover in the area promptly.</t>
+  </si>
+  <si>
+    <t>Rainfall totals have already been very impressive across Florida.</t>
+  </si>
+  <si>
+    <t>A tornado watch has been posted for all of northeast Florida and Southeast Georgia until 11 p.m.  2:45 p.m. Bradford County Sheriff's Office and Animal Control staff finished relocating about 60 dogs, cats and puppies from the county animal shelter to high ground at the county fairgrounds.</t>
+  </si>
+  <si>
+    <t>CORAL GABLES (LALATE) – Tropical Storm Debby’s projected path is now prompting Florida tornado warnings today.</t>
+  </si>
+  <si>
+    <t>Debby already has dumped heavy rain on parts of Florida and spawned some isolated tornadoes, causing damage to homes and knocking down power lines.</t>
+  </si>
+  <si>
+    <t>Letro said the most severe weather has been and will be from heavy rain bands that have been pounding central, north and northeast Florida.</t>
+  </si>
+  <si>
+    <t>Much of north-central Florida was experiencing drought conditions until Tropical Storm Debby came through.</t>
+  </si>
+  <si>
+    <t>Florida's Pinellas Country was also hit hard, with flash flooding in some areas and at least 20 houses with roofs that were partially or fully blown off during a tornado-like storm on Sunday.</t>
+  </si>
+  <si>
+    <t>Parts of northern Florida could get 10 to 15 inches of rain, and some spots as much as 25 inches, as the storm wrings itself out, forecasters said.</t>
+  </si>
+  <si>
+    <t>Citing the threat of heavy rainfall and potential tornadoes, Florida Gov. Rick Scott declared a state of emergency Monday "so we can coordinate the use of all state resources to make sure we can respond promptly if anything happens."</t>
+  </si>
+  <si>
+    <t>Forecasters said it would crawl to the northeast, come ashore along Florida’s northwestern coast on Wednesday and track slowly across the state, exiting along the Atlantic Coast by Saturday morning and losing steam along the way.</t>
+  </si>
+  <si>
+    <t>The National Hurricane Center tells news that a tornado in Fernandina Beach, Florida was spotted Monday June 25, 2012 as Tropical Storm Debby 2012 continues its projected path northward.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby Projected Path Prompts Florida Tornado in Fernandina Beach.</t>
+  </si>
+  <si>
+    <t>Debby is currently causing a lot of problems throughout the western coast of Florida and the Panhandle.</t>
+  </si>
+  <si>
+    <t>The Storm Prediction Center has noted 15 tornado reports today in Florida.</t>
+  </si>
+  <si>
+    <t>Debby is one Florida tourist who appears to be here to stay through the end of the week.</t>
+  </si>
+  <si>
+    <t>Expect tornado watches to be issued throughout the next 24 to 48 hours across Florida as the storms stays to the west of the coast.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby is bringing a deluge of water to Florida, but what slight rain the Coastal Empire saw from the storm Monday should be the most we get as today is expected to be drier.</t>
+  </si>
+  <si>
+    <t>What that means for Central Florida is more rain, flooding and more wind for the next few days.</t>
+  </si>
+  <si>
+    <t>Thousands were on the beach at Pensacola Beach, Florida, on Sunday morning.</t>
+  </si>
+  <si>
+    <t>5 to 10 inches are possible over central Florida and southeast Georgia into coastal South Carolina.</t>
+  </si>
+  <si>
+    <t>The combination of a storm surge and the high tide could cause 4 to 6 feet of flooding at Florida's Apalachee Bay to Waccasassa Bay, forecasters said.</t>
+  </si>
+  <si>
+    <t>Slideshow: How Florida is dealing with Debby  "Because of the broad impact of Tropical Storm Debby, virtually every county in Florida could be affected," Scott said.</t>
+  </si>
+  <si>
+    <t>The same alert is also in place for people south of the River to Englewood, Florida, officials tell news.</t>
+  </si>
+  <si>
+    <t>At least one person was killed Sunday by a tornado spun off by Debby in Florida, and Alabama authorities searched for a man who disappeared in the rough surf.</t>
+  </si>
+  <si>
+    <t>What Florida really needs, Monson said, is the return of a regular rainfall pattern.</t>
+  </si>
+  <si>
+    <t>We could easily see 10 to 15 inches of rain over eastern portions of the Florida panhandle and northern Florida with isolated areas seeing nearly 25 inches!</t>
+  </si>
+  <si>
+    <t>"Because of the broad impact of Tropical Storm Debby, virtually every county in Florida could be affected," Scott said in a statement announcing the statewide emergency.</t>
+  </si>
+  <si>
+    <t>Residents in several counties near the crook of Florida's elbow were urged to leave low-lying neighborhoods because of the threat of flooding.</t>
+  </si>
+  <si>
+    <t>Florida wrapped in the eastern circulation of Debby combined with strong low-level shear and instability to lead to the rash of tornadoes.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby: Florida reports 15 tornadoes, video.</t>
+  </si>
+  <si>
+    <t>The hurricane center said tropical storm conditions will extend for the entire area from the Mississippi-Alabama line eastward to the Suwannee River, Florida, by night's end.</t>
+  </si>
+  <si>
+    <t>Check out these rainfall totals (in inches) from the past 24 hours up to 8am today (8am June 24, 2012 through 8am June 25, 2012):  Here’s a look by the Hydrometeorological Prediction Center for possible rainfall totals for the next five days:  Bottom line: Tropical Storm Debby will slowly drift to the east-northeast and push through Florida towards the end of the week.</t>
+  </si>
+  <si>
+    <t>The twisters came as Debby churned on an uncertain track toward Florida's Gulf coast on Sunday, bringing strong winds and waves that forced the closure of about a quarter of offshore oil and gas production in the Gulf of Mexico.</t>
+  </si>
+  <si>
+    <t>According to the National Hurricane Center, almost all tropical cyclones near or at landfall spawn at least one tornado, provided enough of the storm's circulation moves over land, which was the case in Florida.</t>
+  </si>
+  <si>
+    <t>The hurricane center also warned that more tornadoes were possible in parts of Florida and southern Georgia.</t>
+  </si>
+  <si>
+    <t>Despite the immediate dangers of the storm, the heavy rains may have a long-term positive effect for Florida.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby lashed parts of Florida with driving rains and high winds on Monday, threatening to trigger more flooding and tornadoes as it hovered off the state's northern Gulf of Mexico coast.</t>
+  </si>
+  <si>
+    <t>A few tornadoes are possible today across the eastern Florida panhandle, the Florida peninsula, and southern Georgia.</t>
+  </si>
+  <si>
+    <t>The expansive, stalled Tropical Storm Debby lashed Florida on Sunday, spawning apparent tornadoes in the central part of the state that killed one woman, a county spokeswoman said.</t>
+  </si>
+  <si>
+    <t>Debby was already bringing up to 5 inches of rain per hour on parts of the Panhandle, and the National Hurricane Center said northern Florida could see another 6 to 12 inches in the next two days.</t>
+  </si>
+  <si>
+    <t>Isolated storm total amounts of 25 inches are possible in north Florida.</t>
+  </si>
+  <si>
+    <t>Debby brings downpours to Florida's Big Bend - .</t>
+  </si>
+  <si>
+    <t>The National Weather Service had tornado warnings out, indicating a high likelihood of a twister strike, in spots off-and-on throughout the day Sunday, and a less severe tornado watch is in effect for much of western Florida through 5 a.m. Monday.</t>
+  </si>
+  <si>
+    <t>It should be a nasty weather week for Florida and southeast Georgia.</t>
+  </si>
+  <si>
+    <t>The death in Florida was blamed on a tornado spawned by the storm, while a man went missing in the Gulf of Mexico at an Alabama beach.</t>
+  </si>
+  <si>
+    <t>Then, by Sunday night, it headed north toward Florida's Panhandle.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby spawns fatal tornado in Florida, drenches coast - .</t>
+  </si>
+  <si>
+    <t>The storm is expected to produce the following rain accumulations in the next couple of days: 6 to 12 inches across northern Florida, 4 to 8 inches across central Florida and extreme southeastern Georgia, and 3 to 5 inches in south Florida and extreme southeastern South Carolina.</t>
+  </si>
+  <si>
+    <t>Tropical Storm Watches: South of the Suwannee River to Englewood, Florida.</t>
+  </si>
+  <si>
+    <t>Walsingham Road</t>
+  </si>
+  <si>
+    <t>Times</t>
+  </si>
+  <si>
+    <t>The Times reported that her 16-year-old nephew was hospitalised for minour injuries.</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>As if moves east-northeast, the system could push into the Atlantic and travel along the eastern coast of the United States.</t>
+  </si>
+  <si>
+    <t>Flash flood warnings were in effect for many areas and the Florida Division of Emergency Management has cautioned that inland flooding is associated with more than half the deaths from tropical cyclones in the United States over the last 30 years.</t>
+  </si>
+  <si>
+    <t>Gulf of Mexico</t>
+  </si>
+  <si>
+    <t>About 900 JEA customers were without power at 9 a.m.  Letro said the unpredictability and slow movement of the tropical storm makes it possible that periodic rain could fall in the area throughout much of the week.Letro said there is currently no steering pattern controlling the poorly organized storm, leaving it trapped over the northeastern Gulf of Mexico.</t>
+  </si>
+  <si>
+    <t>With that said, I do not anticipate Debby to develop into a hurricane while it stays stationary off the northeastern coast of the Gulf of Mexico.</t>
+  </si>
+  <si>
+    <t>BP Plc, the largest oil producer in the Gulf of Mexico, was shutting in all of its oil and gas offshore platforms on Sunday.</t>
+  </si>
+  <si>
+    <t>Employees have been evacuated from 13 drilling rigs and 61 production platforms in the Gulf of Mexico.</t>
+  </si>
+  <si>
+    <t>In basic terms, there is nothing out there that can give this storm a push to shove it out of the Gulf of Mexico and allow it to move away.</t>
+  </si>
+  <si>
+    <t>Debby will likely stay fairly weak with winds around 40-50 mph as it continues to upwell colder waters in the northeastern Gulf of Mexico.</t>
+  </si>
+  <si>
+    <t>Look at where the tropical storm has been and where it has been forecast to go: During the weekend, it was heading northwest in the Gulf of Mexico and was Texas-bound.</t>
+  </si>
+  <si>
+    <t>But on Monday, big offshore Gulf of Mexico drillers like BP Plc and Royal Dutch Shell began returning staff to offshore platforms.</t>
+  </si>
+  <si>
+    <t>The Miami-based National Hurricane Center said Debby, the first named storm of 2012 to move into the Gulf of Mexico, was packing top sustained winds of about 45 miles per hour (72 kph) and forecasters predicted little change in strength over the next couple of days.</t>
+  </si>
+  <si>
+    <t>On Saturday, June 23, 2012, Tropical Storm Debby formed across the eastern Gulf of Mexico.</t>
+  </si>
+  <si>
+    <t>In fact, the heart of the storm was churning but not moving in the Gulf of Mexico on Sunday evening, and forecasters still don't know where it will end up.</t>
+  </si>
+  <si>
+    <t>St. Johns</t>
+  </si>
+  <si>
+    <t>We are awaiting word from emergency officials in Clay and St. Johns counties on any storm-related issues.</t>
+  </si>
+  <si>
+    <t>Ms Young</t>
+  </si>
+  <si>
+    <t>Apalachiocola</t>
+  </si>
+  <si>
+    <t>Mykonos</t>
+  </si>
+  <si>
+    <t>In Tarpon Springs, Dimitri's on the Water flooded, taking on 3 to 4 inches of water, according to Andy Salivaras, the owner of Mykonos restaurant on the Sponge Docks whose son runs Dimitri's.</t>
+  </si>
+  <si>
+    <t>Florida Division of Emergency Management</t>
+  </si>
+  <si>
+    <t>Mariner</t>
+  </si>
+  <si>
+    <t>In Largo, Chris McCready was watching the water rise from his mobile home at Mariner's Cove, a perennially problematic flooding spot off Ulmerton Road.</t>
+  </si>
+  <si>
+    <t>McCready, 44, from the mobile homes at Mariner's Cove, was told by firefighters to evacuate.</t>
+  </si>
+  <si>
+    <t>Volusia County Emergency Management</t>
+  </si>
+  <si>
+    <t>Ryan Williams, operations coordinator for Volusia County Emergency Management, said the latest forecasts for Debby don't predict such a heavy rainfall for Volusia.</t>
+  </si>
+  <si>
+    <t>Westshore Boulevard</t>
+  </si>
+  <si>
+    <t>Sponge Docks</t>
+  </si>
+  <si>
+    <t>Lafourche Parish</t>
+  </si>
+  <si>
+    <t>Palm Beach</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Steady rainfall spurred by Debby is expected to extend to southern areas of Alabama, Georgia and South Carolina.</t>
+  </si>
+  <si>
+    <t>In a news statement Monday, the National Weather Service told news of a tornado warning for Glynn County, Georgia and neighboring areas.</t>
+  </si>
+  <si>
+    <t>Winter Oaks Lane</t>
+  </si>
+  <si>
+    <t>Winterwind Drive</t>
+  </si>
+  <si>
+    <t>U.S. Gulf of Mexico</t>
+  </si>
+  <si>
+    <t>Royal Dutch Shell PLC said Sunday it shut down production at two of its U.S. Gulf of Mexico production platforms Sunday and was evacuating employees as Tropical Storm Debby bore down.</t>
+  </si>
+  <si>
+    <t>Pensacola Beach</t>
+  </si>
+  <si>
+    <t>Thousands were on the beach at Pensacola Beach, Fla., on Sunday morning.</t>
+  </si>
+  <si>
+    <t>Tarpon Springs</t>
+  </si>
+  <si>
+    <t>Ala.</t>
+  </si>
+  <si>
+    <t>Destin</t>
+  </si>
+  <si>
+    <t>Old Seminole Heights</t>
+  </si>
+  <si>
+    <t>Largo</t>
+  </si>
+  <si>
+    <t>Ulmerton Road</t>
+  </si>
+  <si>
+    <t>Fouraker Road</t>
+  </si>
+  <si>
+    <t>Pinellas Country</t>
+  </si>
+  <si>
+    <t>Gulf coast</t>
+  </si>
+  <si>
+    <t>Just to the east and also on the Gulf coast, voluntary evacuations are being encouraged in parts of Taylor and Wakulla counties.</t>
+  </si>
+  <si>
+    <t>Pinellas County</t>
+  </si>
+  <si>
+    <t>Wind tore the roof off a marina in St. Pete Beach, and a pier was heavily damaged, said Tom Iovino, a Pinellas County government spokesman.</t>
+  </si>
+  <si>
+    <t>Oil Price Information Service</t>
+  </si>
+  <si>
+    <t>"It's largely a non-event for oil," said Tom Kloza, chief oil analyst at the Oil Price Information Service.</t>
+  </si>
+  <si>
+    <t>Matanzas Inlet</t>
+  </si>
+  <si>
+    <t>Marine Patrol has advised that there will be 6 beach patrol units patrolling from Mickler Beach to Matanzas Inlet.</t>
+  </si>
+  <si>
     <t>Red Cross</t>
   </si>
   <si>
     <t>Young, who is on dialysis and had to postpone a hospital trip, was on the phone with the Red Cross and her landlord Monday trying to get the roof taken care of — or her family moved — before the rain started up again.</t>
   </si>
   <si>
-    <t>He and his wife packed bags for a few days and headed to a makeshift shelter set up by the Red Cross, in the cafeteria of Chapel on the Hill, a church in Seminole.</t>
-  </si>
-  <si>
     <t>Janet McGuire of the Red Cross said she had heard an estimated 50 people were on the way.</t>
   </si>
   <si>
+    <t>New Port Richey</t>
+  </si>
+  <si>
+    <t>CNN iReporter Magalie Caragiorgio said Monday she has been stuck in her home in New Port Richey, near St. Petersburg, since Sunday because of flooding and hasn't been able to get to her job as a nurse.</t>
+  </si>
+  <si>
+    <t>Pasco</t>
+  </si>
+  <si>
+    <t>Jacksonville Beach Fire Rescue</t>
+  </si>
+  <si>
+    <t>Jacksonville Beach Fire Rescue Chief Gary Frazier said the about 12 inches of rain fell between Sunday afternoon and Monday morning.</t>
+  </si>
+  <si>
+    <t>Third Street</t>
+  </si>
+  <si>
+    <t>The worst flooding was on Third Street near Fletcher Middle School as traffic came to a crawl in knee-deep water during the morning commute.</t>
+  </si>
+  <si>
+    <t>Alligator Alley</t>
+  </si>
+  <si>
+    <t>See a video of a funnel cloud in Alligator Alley sent by a viewer  Senior hurricane specialist Stacy Stewart with the National Hurricane Center says ``tornadic activity goes up'' because such strong winds are not typical.</t>
+  </si>
+  <si>
+    <t>St. Johns County</t>
+  </si>
+  <si>
+    <t>Some flooding, no reports of damage in St. Johns County.</t>
+  </si>
+  <si>
+    <t>Firestone</t>
+  </si>
+  <si>
+    <t>A sinkhole on Jacksonville's Westside has caused 118th Street to be closed between Firestone and Ricker roads.</t>
+  </si>
+  <si>
+    <t>St. Petersburg</t>
+  </si>
+  <si>
+    <t>Debbie Ponceti said wind was pushing run underneath the door to her home in Madeira Beach, about 10 miles east of St. Petersburg, while her front lawn has been reduced to mush and waters in a lagoon near her house are steadily rising.</t>
+  </si>
+  <si>
+    <t>More clear was the scene in St. Petersburg's Shore Acres.</t>
+  </si>
+  <si>
+    <t>Southeast Georgia</t>
+  </si>
+  <si>
+    <t>The direction of steering flow will continue to affect moisture in Southeast Georgia and South Carolina, Packett said.</t>
+  </si>
+  <si>
+    <t>Glynn County</t>
+  </si>
+  <si>
+    <t>Autumnwind Court</t>
+  </si>
+  <si>
+    <t>Clearwater</t>
+  </si>
+  <si>
+    <t>Clearwater police reported "widespread flooding" around the city.</t>
+  </si>
+  <si>
+    <t>Fire and rescue personnel in nearby Clearwater responded to 30 calls in an hour, as of 6 p.m. Sunday, to help people stranded in their cars due to the flooding or needing urgent medical help, the city's public safety spokeswoman Elizabeth Watts said.</t>
+  </si>
+  <si>
+    <t>Madeira Beach</t>
+  </si>
+  <si>
+    <t>Miami-Dade</t>
+  </si>
+  <si>
+    <t>Atlantic Beach City</t>
+  </si>
+  <si>
+    <t>Atlantic Beach City Manager Jim Hanson said recent infrastructure and drainage improvements have prevented any serious flooding, though roads were blocked for a while after deep water formed off Aquatic Drive.</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Ohio Republicans like Gov. Kasich, but will that translate into primary votes?</t>
+  </si>
+  <si>
+    <t>Flagler</t>
+  </si>
+  <si>
+    <t>Sunshine Skyway</t>
+  </si>
+  <si>
+    <t>The Florida Highway Patrol closed the Sunshine Skyway bridge because of vicious gusts.</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Latest stats from NHC at 11 pm EDT  Max winds 60 mph  Movement ‘Nearly Stationary  Pressure 991 mb, or 29.26”  Location: 170 southeast of the mouth of the Mississippi River  110 southwest of Apalachacola, FL.</t>
+  </si>
+  <si>
+    <t>FT  COASTAL ALABAMA</t>
+  </si>
+  <si>
+    <t>Florida Highway Patrol</t>
+  </si>
+  <si>
+    <t>Indian Rocks Beach</t>
+  </si>
+  <si>
+    <t>It had ripped apart trees, torn down power lines and bent a billboard on the way to Indian Rocks Beach.</t>
+  </si>
+  <si>
+    <t>El Prado</t>
+  </si>
+  <si>
+    <t>10 News spotted at least five cars that flooded out in the area of Manhattan and El Prado this morning.</t>
+  </si>
+  <si>
+    <t>62nd Avenue</t>
+  </si>
+  <si>
+    <t>Pass-A-Grille Marina</t>
+  </si>
+  <si>
+    <t>The storm ripped chunks out of the Pass-A-Grille Marina's roof.</t>
+  </si>
+  <si>
+    <t>Sarasota</t>
+  </si>
+  <si>
+    <t>JSO</t>
+  </si>
+  <si>
+    <t>JSO promises to tweet out further updates on its Twitter account: @JSOPIO on Twitter  10:30 a.m.</t>
+  </si>
+  <si>
+    <t>Savannah Morning News</t>
+  </si>
+  <si>
+    <t>Micah McVicker of the Savannah Morning News contributed to this report.</t>
+  </si>
+  <si>
+    <t>Executive Order</t>
+  </si>
+  <si>
+    <t>Franklin County</t>
+  </si>
+  <si>
+    <t>On Top of the World</t>
+  </si>
+  <si>
+    <t>She said it was only the second time in the 29 years she and her husband have lived at On Top of the World that they ended up stranded by flooding.</t>
+  </si>
+  <si>
+    <t>Northern Florida</t>
+  </si>
+  <si>
+    <t>Sheriff's Office</t>
+  </si>
+  <si>
+    <t>The shelter animals are expected to remain at the fairgrounds for four or five days until it is safe to return them to the shelter, said Sheriff's Office Capt. Carol Starling.</t>
+  </si>
+  <si>
+    <t>Royal Dutch Shell PLC</t>
+  </si>
+  <si>
+    <t>Lake St. George</t>
+  </si>
+  <si>
+    <t>Wakulla</t>
+  </si>
+  <si>
+    <t>Authorities urged residents to leave low-lying neighborhoods in Franklin, Taylor and Wakulla counties because of flooding.</t>
+  </si>
+  <si>
+    <t>St. Augustine</t>
+  </si>
+  <si>
+    <t>The tropical storm has dumped between 4 and 8 inches on St. Augustine so far and could give the city up to 20 inches more by Thursday, according to the National Weather Service in Jacksonville.</t>
+  </si>
+  <si>
+    <t>Tampa Bay area</t>
+  </si>
+  <si>
+    <t>On St. Pete Beach in the Tampa Bay area, surfers enjoyed the large waves in the Gulf, which is usually so calm the water looks like glass.</t>
+  </si>
+  <si>
+    <t>Kings Bay Base</t>
+  </si>
+  <si>
+    <t>At the same time, a “tornado was located near Kings Bay Base”.</t>
+  </si>
+  <si>
+    <t>Englewood</t>
+  </si>
+  <si>
+    <t>Jacksonville Beach Ocean Rescue</t>
+  </si>
+  <si>
+    <t>Jacksonville Beach Ocean Rescue’s Lt. Nick Wellington said there have been no rescues in the water and "typically, the rain keeps people away from the beach."</t>
+  </si>
+  <si>
+    <t>Suwannee River</t>
+  </si>
+  <si>
+    <t>NHC</t>
+  </si>
+  <si>
+    <t>The models are getting a better handle of the storm, and I believe the latest update by the NHC accurately portrays the most likely track.</t>
+  </si>
+  <si>
+    <t>MIAMI</t>
+  </si>
+  <si>
+    <t>MIAMI (CBSMiami/AP) — Several homes were damaged and trees knocked down when a tornado from Saturday’s storms touched down in East Naples.</t>
+  </si>
+  <si>
+    <t>Jacksonville International Airport</t>
+  </si>
+  <si>
+    <t>A heavy thunderstorm related to Tropical Storm Debby is being blamed for the shredding of part of a sheet metal roof torn off from a hanger at Jacksonville International Airport this morning.</t>
+  </si>
+  <si>
+    <t>About 4.8 inches or rain had been recorded at Jacksonville International Airport between midnight and 8 a.m.</t>
+  </si>
+  <si>
+    <t>Osceole</t>
+  </si>
+  <si>
+    <t>Wellington</t>
+  </si>
+  <si>
+    <t>Wellington said there are rip currents and advised beachgoers to stay out of the water.</t>
+  </si>
+  <si>
+    <t>Louisiana Offshore Oil Port</t>
+  </si>
+  <si>
+    <t>The Louisiana Offshore Oil Port (LOOP), the single location where the largest oil tanker ships can directly deliver crude, stopped offloading tankers on Sunday morning, as rough seas were building at its sea terminal.</t>
+  </si>
+  <si>
+    <t>Clay County</t>
+  </si>
+  <si>
+    <t>About a half dozen roads are closed due to flooding in Clay County.</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Waccasassa Bay</t>
+  </si>
+  <si>
+    <t>Fla</t>
+  </si>
+  <si>
+    <t>St. George Island</t>
+  </si>
+  <si>
+    <t>On St. George Island, many businesses were closed, but Eddy Teach’s bar had a few customers and used a generator to keep beer and food cold.</t>
+  </si>
+  <si>
+    <t>Apalachee Bay</t>
+  </si>
+  <si>
+    <t>Marine Patrol</t>
+  </si>
+  <si>
+    <t>Morgan City</t>
+  </si>
+  <si>
+    <t>Fernandina Beach</t>
+  </si>
+  <si>
+    <t>They are additionally warning residents northwest of Jacksonville Florida today, including Fernandina Beach to be on alert.</t>
+  </si>
+  <si>
+    <t>Deltona</t>
+  </si>
+  <si>
+    <t>DeBary and Deltona officials are prepared with stormwater pumps, but lakes there are also well below normal.</t>
+  </si>
+  <si>
+    <t>Palm Beach County</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby could affect Palm Beach County for days.</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>Mickler Beach</t>
+  </si>
+  <si>
+    <t>Royal Dutch Shell</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>DeBary</t>
+  </si>
+  <si>
+    <t>East Naples</t>
+  </si>
+  <si>
+    <t>Facebook Page</t>
+  </si>
+  <si>
+    <t>Mississippi-Alabama</t>
+  </si>
+  <si>
+    <t>Jacksonville Naval Air Station</t>
+  </si>
+  <si>
+    <t>A wind gust of 51 mph was recorded at Jacksonville Naval Air Station at 7 a.m.</t>
+  </si>
+  <si>
+    <t>Pinellas</t>
+  </si>
+  <si>
+    <t>It was the only shelter open in Pinellas as of the evening, according to Tom Iovino, a communications specialist with the county.</t>
+  </si>
+  <si>
+    <t>Jacksonville Florida</t>
+  </si>
+  <si>
+    <t>Orange Beach</t>
+  </si>
+  <si>
+    <t>Hudson</t>
+  </si>
+  <si>
+    <t>The county opened the Mike Fasano Hurricane Shelter in Hudson for people who wanted to evacuate their homes.</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>Saint Petersburg</t>
+  </si>
+  <si>
+    <t>Eddy Teach</t>
+  </si>
+  <si>
+    <t>'Most true islanders are hanging in there because they know that you may or may not be able to get back to your home when you need to,' said David Walker, an island resident having a beer at Eddy Teach's bar.</t>
+  </si>
+  <si>
+    <t>“Most true islanders are hanging in there because they know that you may or may not be able to get back to your home when you need to,” said David Walker, an island resident having a beer at Eddy Teach’s bar.</t>
+  </si>
+  <si>
+    <t>Atlantic Coast</t>
+  </si>
+  <si>
+    <t>St. Pete Beach</t>
+  </si>
+  <si>
+    <t>South Dale Mabry</t>
+  </si>
+  <si>
+    <t>Coastal Alabama</t>
+  </si>
+  <si>
+    <t>National Hurricane</t>
+  </si>
+  <si>
+    <t>Lake Apopka</t>
+  </si>
+  <si>
+    <t>Lake Apopka is still 2 feet below.</t>
+  </si>
+  <si>
+    <t>Florida Gulf Coast Today</t>
+  </si>
+  <si>
+    <t>However, “tropical storm conditions will condition over portions of the Florida Gulf Coast Today.”</t>
+  </si>
+  <si>
+    <t>Bradford County Sheriff's Office and Animal Control</t>
+  </si>
+  <si>
+    <t>Collier County Sheriff's Office</t>
+  </si>
+  <si>
+    <t>A Collier County Sheriff's Office spokeswoman confirmed a tornado touched down Saturday afternoon.</t>
+  </si>
+  <si>
+    <t>Pass-a-Grille Marina</t>
+  </si>
+  <si>
+    <t>In fact, Bay 9 News reported that there were injuries at Pass-a-Grille Marina after apparent tornado moved over the facility.</t>
+  </si>
+  <si>
+    <t>Manhattan</t>
+  </si>
+  <si>
+    <t>Tropical Storm Debby</t>
+  </si>
+  <si>
+    <t>FT  FLORIDA</t>
+  </si>
+  <si>
+    <t>Atlantic</t>
+  </si>
+  <si>
+    <t>Debby is now the fourth named storm for the 2012 Atlantic Hurricane Season, and the earliest fourth named storm to develop this early in our historical records.</t>
+  </si>
+  <si>
+    <t>Mississippi River</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Panhandle</t>
+  </si>
+  <si>
+    <t>However, despite warnings in the Panhandle, Debby hadn't totally dampened vacations.</t>
+  </si>
+  <si>
+    <t>Hillsborough County Sheriff's Office</t>
+  </si>
+  <si>
+    <t>Vilano Beach</t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
+  </si>
+  <si>
+    <t>The center of the storm is about 280 miles west-southwest of Jacksonville.</t>
+  </si>
+  <si>
+    <t>Heavy rain swept through Jacksonville through much of the early morning, though a break occurred about 9 a.m., which will be a signature of the storm, said Steve Letro, meteorologist-in-charge of Jacksonville's National Weather Service office.</t>
+  </si>
+  <si>
+    <t>Gulf Oil</t>
+  </si>
+  <si>
+    <t>Debby stops Gulf Oil and Gas operations.</t>
+  </si>
+  <si>
     <t>Highlands County Sheriff's Office</t>
   </si>
   <si>
     <t>That Sunday afternoon twister flung 32-year-old Heather Town about 200 feet into the surrounding woods when it hit her home, the Highlands County Sheriff's Office said Monday.</t>
   </si>
   <si>
-    <t>The Highlands County Sheriff's Office said in a news release that several tornadoes moved through the area southeast of Tampa, damaging homes.</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Steady rainfall spurred by Debby is expected to extend to southern areas of Alabama, Georgia and South Carolina.</t>
-  </si>
-  <si>
-    <t>The direction of steering flow will continue to affect moisture in Southeast Georgia and South Carolina, Packett said.</t>
-  </si>
-  <si>
-    <t>3:15 p.m. A tornado watch has been posted for all of northeast Florida and Southeast Georgia until 11 p.m.  2:45 p.m. Bradford County Sheriff's Office and Animal Control staff finished relocating about 60 dogs, cats and puppies from the county animal shelter to high ground at the county fairgrounds.</t>
-  </si>
-  <si>
-    <t>A few tornadoes are possible today across the eastern Florida panhandle, the Florida peninsula, and southern Georgia.</t>
-  </si>
-  <si>
-    <t>5 to 10 inches are possible over central Florida and southeast Georgia into coastal South Carolina.</t>
-  </si>
-  <si>
-    <t>Central Florida and southeast Georgia will likely be drenched with 5 to 10 inches, with smaller but still significant precipitation amounts in parts of coastal Alabama, southeastern Louisiana and south Florida.</t>
-  </si>
-  <si>
-    <t>It should be a nasty weather week for Florida and southeast Georgia.</t>
-  </si>
-  <si>
-    <t>9:50 a.m. Tornado warnings have been issued for northeastern Camden and southeastern Glynn counties in Georgia, expiring at 10:15 a.m.  9:45 a.m. Steve Letro, meteorologist-in-charge of Jacksonville's National Weather Service office, said the First Coast can expect periodic bands of heavy rain over the next few days, with periodic breaks.</t>
-  </si>
-  <si>
-    <t>In a news statement Monday, the National Weather Service told news of a tornado warning for Glynn County, Georgia and neighboring areas.</t>
-  </si>
-  <si>
-    <t>Most of the strongest storms are occurring throughout central Florida and even as far northeast into southeastern Georgia.</t>
-  </si>
-  <si>
-    <t>“It’s not going to intensify much,” he said, “But it looks like it’ll be here for a while.”  The storm has caused several tornadoes in central Florida and southern Georgia — something that St. Augustine residents should be aware of, Peterson said.</t>
-  </si>
-  <si>
-    <t>9:10 a.m. A tornado warning posted for southeastern Camden and Glynn counties in Georgia is set to expire at 9:30 a.m.  A stalled Tropical Storm Debby will likely pound the First Coast with periodic heavy rain for days, causing  flooding and other weather-related issues, according to the National Weather Service.</t>
-  </si>
-  <si>
-    <t>The storm is expected to produce the following rain accumulations in the next couple of days: 6 to 12 inches across northern Florida, 4 to 8 inches across central Florida and extreme southeastern Georgia, and 3 to 5 inches in south Florida and extreme southeastern South Carolina.</t>
-  </si>
-  <si>
-    <t>The hurricane center also warned that more tornadoes were possible in parts of Florida and southern Georgia.</t>
-  </si>
-  <si>
-    <t>A warning, expiring at 9:30 a.m., is currently in place for southeastern Camden and southern Glynn counties in Georgia.</t>
-  </si>
-  <si>
-    <t>Tampa Bay</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby, messy, unorganized and noncommittal in its path, loitered out in the gulf and sent lashing bands of record-breaking rain over Tampa Bay and its surrounding counties.</t>
-  </si>
-  <si>
-    <t>High winds forced the closure of an interstate bridge that spans Tampa Bay and links St. Petersburg with areas to the southeast.</t>
-  </si>
-  <si>
-    <t>Even though Tropical Storm Debby has yet to make landfall, she's brought her wrath upon the Tampa Bay area.</t>
-  </si>
-  <si>
-    <t>Florida officials said the storm has left an estimated 35,000 people without power and forced the closure of a four-mile (six-km) bridge spanning Tampa Bay that connects the city of St. Petersburg with the Bradenton area.</t>
-  </si>
-  <si>
-    <t>Tampa Bay affiliate, FOX 13 reported 32-year-old, Heather Town was thrown from her home on Montana Trail when the tornado hit her home.</t>
-  </si>
-  <si>
-    <t>It was unclear if any tornadoes actually touched down in the Tampa Bay area.</t>
-  </si>
-  <si>
-    <t>The Sunshine Skyway bridge, which stretches over Tampa Bay and connects Bradenton with St. Petersburg, was closed Sunday because of high winds and remained closed Monday, Pinellas County officials said.</t>
-  </si>
-  <si>
-    <t>In other areas of the Southeast, Debby raked the Tampa Bay area with high wind and heavy rain Monday in a drenching that could top 2 feet over the next few days and trigger widespread flooding.</t>
-  </si>
-  <si>
-    <t>The longer it sits, the more rain we get.”  High winds and the threat of flooding forced the closing of an interstate highway bridge that spans Tampa Bay and links St. Petersburg with areas to the southwest.</t>
-  </si>
-  <si>
-    <t>Dan Shaffer shares photos and images from across the Tampa Bay area.</t>
-  </si>
-  <si>
-    <t>On St. Pete Beach in the Tampa Bay area, surfers enjoyed the large waves in the Gulf, which is usually so calm the water looks like glass.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby brings heavy rain, strong winds to Tampa Bay.</t>
-  </si>
-  <si>
-    <t>The old oak in the family's back yard at 301 E Clinton St. in Old Seminole Heights burst through the guest bedroom ceiling just before 5 a.m. as Tropical Storm Debby raged outside, sending wind gusts of up to 50 mph tearing through the Tampa Bay area.</t>
-  </si>
-  <si>
-    <t>Southeast of Tampa Bay in Highlands County, Sheriff's Office spokeswoman Nell Hays said a woman was found dead in a house in the Highlands town of Venus that was destroyed in the storm.</t>
-  </si>
-  <si>
-    <t>NWS</t>
-  </si>
-  <si>
-    <t>St. Johns County was under a tornado watch through late Monday night and is under a flood warning until this evening, according to the NWS.</t>
-  </si>
-  <si>
-    <t>The NWS recorded a waterspout about eight nautical miles off the coast of Vilano Beach on Monday evening at about 5:45 p.m.</t>
-  </si>
-  <si>
-    <t>Since forming on Saturday, more than 25 reports of tornadoes have been received by the National Weather Service (NWS) including damage reports from possible tornadoes in the Naples, Saint Petersburg and Jacksonville areas.</t>
-  </si>
-  <si>
-    <t>NWS tells news that at 8:37 AM EST Doppler Radar spotted a “severe thunderstorm it strong rotation”.</t>
-  </si>
-  <si>
-    <t>Phil Peterson, a meteorologist with the NWS, said Tropical Storm Debby is a very slow-moving storm that is traveling northeast across Florida from the Gulf of Mexico.</t>
-  </si>
-  <si>
-    <t>NWS had issued more than 60 tornado warnings across parts of the state as of noon Monday.</t>
-  </si>
-  <si>
-    <t>Apalachicola</t>
-  </si>
-  <si>
-    <t>Such sustained winds were recorded early Sunday evening in several spots on the Florida Panhandle, west of Apalachicola.</t>
-  </si>
-  <si>
-    <t>One of the latest advisories from the National Hurricane Center put the storm southwest of Apalachicola and stationary with maximum sustained winds of 45 mph.</t>
-  </si>
-  <si>
-    <t>Debby was essentially stationary about 115 miles (185 km) south-southwest of Apalachicola, Florida, on Sunday evening.</t>
-  </si>
-  <si>
-    <t>With tropical storm-force winds extending outward up to 230 miles (370 km) from its center off the northwest coastal town of Apalachicola late Monday afternoon, forecasters said Debby menaced a broad swath of inland territory with flash flooding from torrential downpours.</t>
-  </si>
-  <si>
-    <t>By late Sunday night, Debby sat nearly stationary some 115 miles south-southwest of the coastal Panhandle town of Apalachicola, and the storm's unsparing rain and wind were expected to continue today and maybe into Tuesday.</t>
-  </si>
-  <si>
-    <t>Debby's center was essentially stationary about 110 miles (180 km) south-southwest of Apalachicola, Fla., on Sunday evening.</t>
-  </si>
-  <si>
-    <t>ET, Debby was centered 30 miles south-southwest of Apalachicola and was not moving.</t>
-  </si>
-  <si>
-    <t>By late afternoon, Debby was in the Gulf of Mexico, 30 miles southwest of Apalachicola, with sustained winds around 45 mph.</t>
+    <t>Black Creek</t>
+  </si>
+  <si>
+    <t>The always vulnerable Black Creek is rising, though county officials are not sure how high it will get for several days.</t>
+  </si>
+  <si>
+    <t>South Tampa</t>
+  </si>
+  <si>
+    <t>Apalachacola</t>
   </si>
   <si>
     <t>National Hurricane Center</t>
   </si>
   <si>
-    <t>Packing 60 mph winds, Debby's eye was still 115 miles south-southwest of Apalachiocola, Florida (and 195 miles east-southeast of the mouth of the Mississippi River in Louisiana) according to the National Hurricane Center's 7 p.m. (8 p.m.</t>
+    <t>Senior hurricane specialist Stacy Stewart with the National Hurricane Center says “tornadic activity goes up” because such strong winds are not typical.</t>
   </si>
   <si>
     <t>Stacy Stewart, a senior hurricane specialist with the National Hurricane Center, said of the twisters: 'This is quite common with this type of storm.</t>
   </si>
   <si>
-    <t>Debby was already bringing up to 5 inches of rain per hour on parts of the Panhandle, and the National Hurricane Center said northern Florida could see another 6 to 12 inches in the next two days.</t>
-  </si>
-  <si>
-    <t>See a video of a funnel cloud in Alligator Alley sent by a viewer  Senior hurricane specialist Stacy Stewart with the National Hurricane Center says ``tornadic activity goes up'' because such strong winds are not typical.</t>
-  </si>
-  <si>
-    <t>The National Hurricane Center’s (NHC) latest track indicates a little easterly movement, but the movement remains extremely slow.</t>
-  </si>
-  <si>
     <t>Chris Landsea, a meteorologist at the National Hurricane Center, said forecasters rely on computer models which were contradictory until Sunday.</t>
   </si>
   <si>
-    <t>The National Hurricane Center tells news that a tornado in Fernandina Beach, Florida was spotted Monday June 25, 2012 as Tropical Storm Debby 2012 continues its projected path northward.</t>
-  </si>
-  <si>
-    <t>Senior hurricane specialist Stacy Stewart with the National Hurricane Center says “tornadic activity goes up” because such strong winds are not typical.</t>
-  </si>
-  <si>
-    <t>The Miami-based National Hurricane Center said Debby, the first named storm of 2012 to move into the Gulf of Mexico, was packing top sustained winds of about 45 miles per hour (72 kph) and forecasters predicted little change in strength over the next couple of days.</t>
-  </si>
-  <si>
-    <t>10 from the National Hurricane Center in Miami says the threat of flooding continues for the next day or two.</t>
-  </si>
-  <si>
     <t>"This is quite common with this type of storm," senior hurricane specialist Stacy Stewart with the National Hurricane Center said of the twisters.</t>
   </si>
   <si>
-    <t>According to the National Hurricane Center, almost all tropical cyclones near or at landfall spawn at least one tornado, provided enough of the storm's circulation moves over land, which was the case in Florida.</t>
-  </si>
-  <si>
-    <t>The computer model spread still shows no clear direction, but the National Hurricane Center has given up on the westward push towards Texas.</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>On Sunday, Debby spawned twisters that killed a woman, badly injured a child and wrecked homes in central Florida in rural Highlands County, according to an emergency management official.</t>
-  </si>
-  <si>
-    <t>The Storm Prediction Center has noted 15 tornado reports today in Florida.</t>
-  </si>
-  <si>
-    <t>The Sunshine Skyway Bridge remains closed this morning, according to the Florida Highway Patrol due to high winds.</t>
-  </si>
-  <si>
-    <t>Scott's Executive Order directs all state agencies, including the Florida National Guard, to provide any necessary assistance when requested by local governments.</t>
-  </si>
-  <si>
-    <t>Debby spawns rash of tornadoes in Florida; 1 killed (photos, video).</t>
-  </si>
-  <si>
-    <t>Meanwhile, a state of emergency was declared in the states of Florida and Louisiana as residents pick up the pieces in the areas hardest hit by Debby.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby Projected Path Prompts Florida Tornado in Fernandina Beach.</t>
-  </si>
-  <si>
-    <t>Isolated storm total amounts of 25 inches are possible in north Florida.</t>
-  </si>
-  <si>
-    <t>Debby is one Florida tourist who appears to be here to stay through the end of the week.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby is bringing a deluge of water to Florida, but what slight rain the Coastal Empire saw from the storm Monday should be the most we get as today is expected to be drier.</t>
-  </si>
-  <si>
-    <t>Debby already has been blamed for one death in Venus, Florida, about 100 miles southeast of Tampa, when a woman died while trying to shelter her 3-year-old daughter during a tornado.</t>
-  </si>
-  <si>
-    <t>Thousands were on the beach at Pensacola Beach, Florida, on Sunday morning.</t>
-  </si>
-  <si>
-    <t>Heather Town, 32, was found dead after the tornado ripped through her mobile home in Venus, Florida, in the debris of a barbed wire fence, with her young daughter in her arms.</t>
-  </si>
-  <si>
-    <t>The same alert is also in place for people south of the River to Englewood, Florida, officials tell news.</t>
-  </si>
-  <si>
-    <t>Wind and tropical storm conditions will continue over portions of the Florida Gulf Coast tonight and Tuesday.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby spawns fatal tornado in Florida, drenches coast - .com.</t>
-  </si>
-  <si>
-    <t>10:00 AM CDT Monday, June 25, 2012   Location: 28.6°N 85.2°W   Moving: Northeast at 3 miles per hour   Minimum pressure: 995 millibars   Maximum sustained winds: 45 miles per hour  Tropical Storm Warnings: East of the Alabama-Florida border eastward to the Suwannee River.</t>
-  </si>
-  <si>
-    <t>Rainfall totals have already been very impressive across Florida.</t>
-  </si>
-  <si>
-    <t>Parts of northern Florida could get 10 to 15 inches of rain, and some spots as much as 25 inches, as the storm wrings itself out, forecasters said.</t>
-  </si>
-  <si>
-    <t>And high winds have prompted authorities to shut down the Sunshine Skyway bridge on Interstate 275 connecting St. Petersburg and Bradenton, Florida, said Elizabeth LaRotonda with St. Petersburg police.</t>
-  </si>
-  <si>
-    <t>Forecast models show Debby making landfall along the northern Florida Gulf Coast by Thursday.</t>
-  </si>
-  <si>
-    <t>Forecasters said it would crawl to the northeast, come ashore along Florida’s northwestern coast on Wednesday and track slowly across the state, exiting along the Atlantic Coast by Saturday morning and losing steam along the way.</t>
-  </si>
-  <si>
-    <t>The Florida Highway Patrol closed the Sunshine Skyway bridge because of vicious gusts.</t>
-  </si>
-  <si>
-    <t>"Some communities are already grappling with flooding, wind damage and electrical outages," said Scott, who ordered all state agencies, including the  Florida National Guard, to provide any necessary assistance requested by local governments.</t>
-  </si>
-  <si>
-    <t>Barring major forecast changes, Debby's bands will bring steady rain and wind to all of Central Florida through the end of the week, spawning the threat of rapid-forming tornadoes and dropping up to 8 inches of rain in different locations across the region, forecasters said.</t>
-  </si>
-  <si>
-    <t>There are no reports of any injuries after authorities say a tornado touched down in southwest Florida as Tropical Storm Debby formed.</t>
-  </si>
-  <si>
-    <t>Debby is actually more than 100 miles off the north Florida coast, and barely moving.</t>
-  </si>
-  <si>
-    <t>A tropical storm warning is effect still for residents east of the Alabama-Florida border, east to the Suwannee River.</t>
-  </si>
-  <si>
-    <t>Monday, as it churned slowly in the Gulf, it had again drifted -- this time going generally northeast and putting Central Florida counties in its projected path.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tropical Storm Debby Drenches Florida. </t>
-  </si>
-  <si>
-    <t>It could dump more than a foot (30 cm) of rain in some areas of the state, with isolated amounts of more than two feet (64 cm) in north Florida, the hurricane center said.</t>
-  </si>
-  <si>
-    <t>Tampa, Florida -- The flood waters in the South Tampa area are beginning to recede this morning, but several cars flooded out by the deep waters remain stalled in some of the hardest hit areas like Manhattan Avenue.</t>
-  </si>
-  <si>
-    <t>What that means for Central Florida is more rain, flooding and more wind for the next few days.</t>
-  </si>
-  <si>
-    <t>Slideshow: How Florida is dealing with Debby  "Because of the broad impact of Tropical Storm Debby, virtually every county in Florida could be affected," Scott said.</t>
-  </si>
-  <si>
-    <t>“The widespread flooding is the biggest concern,” said Florida Emergency Operations Center spokeswoman Julie Roberts.</t>
-  </si>
-  <si>
-    <t>The combination of a storm surge and the high tide could cause 4 to 6 feet of flooding at Florida's Apalachee Bay to Waccasassa Bay, forecasters said.</t>
-  </si>
-  <si>
-    <t>Expect tornado watches to be issued throughout the next 24 to 48 hours across Florida as the storms stays to the west of the coast.</t>
-  </si>
-  <si>
-    <t>We could easily see 10 to 15 inches of rain over eastern portions of the Florida panhandle and northern Florida with isolated areas seeing nearly 25 inches!</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby drenches Florida's Gulf Coast (+video).</t>
-  </si>
-  <si>
-    <t>Much of north-central Florida was experiencing drought conditions until Tropical Storm Debby came through.</t>
-  </si>
-  <si>
-    <t>The expansive, stalled Tropical Storm Debby lashed Florida on Sunday, spawning apparent tornadoes in the central part of the state that killed one woman, a county spokeswoman said.</t>
-  </si>
-  <si>
-    <t>Weitlich said forecasters will likely extend a flood warning beyond Lake County for low-lying areas as rain bands form over Central Florida.</t>
-  </si>
-  <si>
-    <t>The death in Florida was blamed on a tornado spawned by the storm, while a man went missing in the Gulf of Mexico at an Alabama beach.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Watches: South of the Suwannee River to Englewood, Florida.</t>
-  </si>
-  <si>
-    <t>At least a dozen Florida counties have been impacted by possible and or confirmed tornado damage including Polk, Marion, Duval, Miami-Dade, Pasco, Osceole, Brevard, Haree, Highlands, Glades, Palm Beach and Collier.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby still threatening to flood much of Florida Gulf Coast.</t>
-  </si>
-  <si>
-    <t>The twisters came as Debby churned on an uncertain track toward Florida's Gulf coast on Sunday, bringing strong winds and waves that forced the closure of about a quarter of offshore oil and gas production in the Gulf of Mexico.</t>
-  </si>
-  <si>
-    <t>A public advisory said parts of northern Florida could receive 10 to 15 inches of rain, with some areas getting as much as 25.</t>
-  </si>
-  <si>
-    <t>Coastal Alabama and parts of Florida, including the Panhandle, were under tropical storm warnings.</t>
-  </si>
-  <si>
-    <t>MIAMI - Slow-moving Tropical Storm Debby's outer bands lashed Florida with rain and kicked up rough surf off Alabama on Sunday, prompting storm warnings for those states and causing at least one death.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby, its accompanying winds and rains brought flooding to parts of Florida.</t>
-  </si>
-  <si>
-    <t>Officials tracked a tornado northwest of Fernandina Beach, Florida moments ago; weather reports are advising residents to take cover in the area promptly.</t>
-  </si>
-  <si>
-    <t>Flash flood threats remain in place across Northern Florida and Southern Alabama as well.</t>
-  </si>
-  <si>
-    <t>Florida wrapped in the eastern circulation of Debby combined with strong low-level shear and instability to lead to the rash of tornadoes.</t>
-  </si>
-  <si>
-    <t>Letro said the most severe weather has been and will be from heavy rain bands that have been pounding central, north and northeast Florida.</t>
-  </si>
-  <si>
-    <t>Debby kicks up storm along Florida panhandle.</t>
-  </si>
-  <si>
-    <t>They are additionally warning residents northwest of Jacksonville Florida today, including Fernandina Beach to be on alert.</t>
-  </si>
-  <si>
-    <t>People in several sparsely populated counties near the crook of Florida’s elbow were urged to leave low-lying neighborhoods because of the danger of flooding.</t>
-  </si>
-  <si>
-    <t>Check out these rainfall totals (in inches) from the past 24 hours up to 8am today (8am June 24, 2012 through 8am June 25, 2012):  Here’s a look by the Hydrometeorological Prediction Center for possible rainfall totals for the next five days:  Bottom line: Tropical Storm Debby will slowly drift to the east-northeast and push through Florida towards the end of the week.</t>
-  </si>
-  <si>
-    <t>At least one person was killed Sunday by a tornado spun off by Debby in Florida, and Alabama authorities searched for a man who disappeared in the rough surf.</t>
-  </si>
-  <si>
-    <t>What Florida really needs, Monson said, is the return of a regular rainfall pattern.</t>
-  </si>
-  <si>
-    <t>"Because of the broad impact of Tropical Storm Debby, virtually every county in Florida could be affected," Scott said in a statement announcing the statewide emergency.</t>
-  </si>
-  <si>
-    <t>Debby already has dumped heavy rain on parts of Florida and spawned some isolated tornadoes, causing damage to homes and knocking down power lines.</t>
-  </si>
-  <si>
-    <t>A tropical storm warning is in effect for the Florida Gulf Coast from Destin to Englewood.</t>
-  </si>
-  <si>
-    <t>Parts of Florida's west coast and coastal Mississippi could see 2 to 4 feet deep waters.</t>
-  </si>
-  <si>
-    <t>Debby brings downpours to Florida's Big Bend - .com.</t>
-  </si>
-  <si>
-    <t>While Debby has yet to make landfall, numerous reports of damage have been reported across parts of Florida from a rash of tornadoes spawned by the storm.</t>
-  </si>
-  <si>
-    <t>Citing the threat of heavy rainfall and potential tornadoes, Florida Gov.</t>
-  </si>
-  <si>
-    <t>CORAL GABLES (LALATE) – Tropical Storm Debby’s projected path is now prompting Florida tornado warnings today.</t>
-  </si>
-  <si>
-    <t>Then, by Sunday night, it headed north toward Florida's Panhandle.</t>
-  </si>
-  <si>
-    <t>Florida's Pinellas Country was also hit hard, with flash flooding in some areas and at least 20 houses with roofs that were partially or fully blown off during a tornado-like storm on Sunday.</t>
-  </si>
-  <si>
-    <t>Debby is currently causing a lot of problems throughout the western coast of Florida and the Panhandle.</t>
-  </si>
-  <si>
-    <t>“Little movement is expect during the next couple of days.” However, “tropical storm conditions will condition over portions of the Florida Gulf Coast Today.” For the latest update, click HERE.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby: Florida reports 15 tornadoes, video.</t>
-  </si>
-  <si>
-    <t>Residents in several counties near the crook of Florida's elbow were urged to leave low-lying neighborhoods because of the threat of flooding.</t>
-  </si>
-  <si>
-    <t>Flash flood warnings were in effect for many areas and the Florida Division of Emergency Management has cautioned that inland flooding is associated with more than half the deaths from tropical cyclones in the United States over the last 30 years.</t>
-  </si>
-  <si>
-    <t>Shell, BP and ExxonMobil began evacuating workers from offshore rigs on Sunday, but BP and Shell had made plans to return to those platforms as Debby turned toward Florida.</t>
-  </si>
-  <si>
-    <t>One Death   The death in Florida was blamed on a tornado spawned by the storm, while a man went missing in the Gulf of Mexico at an Alabama beach.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby lashed parts of Florida with driving rains and high winds on Monday, threatening to trigger more flooding and tornadoes as it hovered off the state's northern Gulf of Mexico coast.</t>
-  </si>
-  <si>
-    <t>The hurricane center said tropical storm conditions will extend for the entire area from the Mississippi-Alabama line eastward to the Suwannee River, Florida, by night's end.</t>
-  </si>
-  <si>
-    <t>The National Weather Service had tornado warnings out, indicating a high likelihood of a twister strike, in spots off-and-on throughout the day Sunday, and a less severe tornado watch is in effect for much of western Florida through 5 a.m. Monday.</t>
-  </si>
-  <si>
-    <t>Despite the immediate dangers of the storm, the heavy rains may have a long-term positive effect for Florida.</t>
-  </si>
-  <si>
-    <t>Louisiana Offshore Oil Port</t>
-  </si>
-  <si>
-    <t>And the Louisiana Offshore Oil Port, which unloads about 1 million barrels per day of U.S. crude oil imports from giant tankers, said it was set to resume operations on Monday, after shutting Sunday due to rough seas.</t>
-  </si>
-  <si>
-    <t>The Louisiana Offshore Oil Port (LOOP), the single location where the largest oil tanker ships can directly deliver crude, stopped offloading tankers on Sunday morning, as rough seas were building at its sea terminal.</t>
-  </si>
-  <si>
-    <t>St. Petersburg</t>
-  </si>
-  <si>
-    <t>Debbie Ponceti said wind was pushing run underneath the door to her home in Madeira Beach, about 10 miles east of St. Petersburg, while her front lawn has been reduced to mush and waters in a lagoon near her house are steadily rising.</t>
-  </si>
-  <si>
-    <t>More clear was the scene in St. Petersburg's Shore Acres.</t>
-  </si>
-  <si>
-    <t>Forecasters declared a flash flood emergency for parts of Franklin, Liberty and Wakulla counties near Tallahassee until late Monday, and Debby drove rising tides across neighborhood streets as far south as the Tampa-St. Petersburg area.</t>
-  </si>
-  <si>
-    <t>CNN iReporter Magalie Caragiorgio said Monday she has been stuck in her home in New Port Richey, near St. Petersburg, since Sunday because of flooding and hasn't been able to get to her job as a nurse.</t>
-  </si>
-  <si>
-    <t>Coffee Pot Boulevard in St. Petersburg.</t>
-  </si>
-  <si>
-    <t>U.S.</t>
-  </si>
-  <si>
-    <t>Debby is expected to continue veering away from the U.S. Gulf waters that are home to about 20 percent of U.S. oil and 6 percent of natural gas output.</t>
-  </si>
-  <si>
-    <t>Beach areas were "basically underwater," as were many side streets and at least two major thoroughfares -- U.S. Highway 19 and Gulf to Bay Boulevard.</t>
-  </si>
-  <si>
-    <t>Gulf to Bay Boulevard in Clearwater and U.S. 19 up into Pasco.</t>
-  </si>
-  <si>
-    <t>Over the weekend, the storm idled about a quarter of U.S. offshore oil and natural gas production in the Gulf of Mexico, based on figures issued by U.S. offshore regulators.</t>
-  </si>
-  <si>
-    <t>The Gulf of Mexico is home to 6.5 percent of U.S. natural gas production, 29 percent of oil output and 40 percent of refining capacity.</t>
-  </si>
-  <si>
-    <t>Royal Dutch Shell PLC said Sunday it shut down production at two of its U.S. Gulf of Mexico production platforms Sunday and was evacuating employees as Tropical Storm Debby bore down.</t>
-  </si>
-  <si>
-    <t>Pasco emergency officials reported severe flooding especially in areas west of U.S. 19.</t>
-  </si>
-  <si>
-    <t>But U.S. regulators said on Monday that Gulf of Mexico oil and gas operators had shut in 44.1 percent of daily oil and 34.8 percent of daily natural gas production because of Tropical Storm Debby, a near doubling of the oil total from Sunday.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby</t>
-  </si>
-  <si>
-    <t>The western portion of Tropical Storm Debby has been lacking throughout the weekend.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby could affect Palm Beach County for days.</t>
-  </si>
-  <si>
-    <t>And BP spokesman Brett Clanton said early Sunday evening that "we've evacuated the majority of our offshore personnel in the Gulf of Mexico" due to Tropical Storm Debby.</t>
-  </si>
-  <si>
-    <t>On Saturday, June 23, 2012, Tropical Storm Debby formed across the eastern Gulf of Mexico.</t>
-  </si>
-  <si>
-    <t>Photos of damage from Tropical Storm Debby.</t>
-  </si>
-  <si>
-    <t>Oak tree arrives in Tampa home's guest bedroom with thud, thanks to Tropical Storm Debby.</t>
-  </si>
-  <si>
-    <t>In fact, Tropical Storm Debby will likely remain stationary over the northern Gulf for the next 24 hours and continue to produce heavy rains, large areas of flooding, and isolated tornadoes for the next three to five days.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby spawns tornado warnings, severe weather.... Just One More Thing...  We have sent you a verification email.</t>
-  </si>
-  <si>
-    <t>At 4 p.m., the center of Tropical Storm Debby was located near latitude 29.3 north, longitude 85.1 west.</t>
-  </si>
-  <si>
-    <t>View a slideshow that includes videos and more photos from the affects of Tropical Storm Debby.</t>
-  </si>
-  <si>
-    <t>Although Tropical Storm Debby has weakened, coastal   flooding is not yet diminishing.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby is a large tropical cyclone, with strong winds and heavy rains occurring at large distances from the center.</t>
-  </si>
-  <si>
-    <t>Rainfall totals will be the biggest threat from Tropical Storm Debby.</t>
-  </si>
-  <si>
-    <t>12:45 p.m. A heavy thunderstorm related to Tropical Storm Debby is being blamed for the shredding of part of a sheet metal roof torn off from a hanger at Jacksonville International Airport this morning.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby a dangerous slow mover | EarthSky.org.</t>
-  </si>
-  <si>
-    <t>Oak tree arrives in Tampa home's guest bedroom with thud, thanks to Tropical Storm Debby  TAMPA — Joseph Shelton woke up from a dream early Monday in a cold sweat.</t>
-  </si>
-  <si>
-    <t>An erratic Tropical Storm Debby stalled just off the Florida Panhandle on Monday evening, dumping sheets of rain on Florida's Big Bend marshes and towns far down the peninsula.</t>
-  </si>
-  <si>
-    <t>The tornado touched down as Tropical Storm Debby formed.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby brings tornado threat to region.</t>
-  </si>
-  <si>
-    <t>As of now, the track of Tropical Storm Debby shows very little movement for the next several days.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby advisory No.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby is moving slowly toward the northeast at about 3 mph.</t>
+    <t>Naples</t>
+  </si>
+  <si>
+    <t>Tornado Reported in Naples as Debby Formed.</t>
+  </si>
+  <si>
+    <t>Tornado Damages Homes In Naples.</t>
+  </si>
+  <si>
+    <t>Fletcher Middle School</t>
+  </si>
+  <si>
+    <t>Savannah/Hilton Head International Airport</t>
+  </si>
+  <si>
+    <t>As of 5 p.m. Monday, four-tenths of an inch fell at the Savannah/Hilton Head International Airport.</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Because it's moving so slowly there is a greater concern for flooding," said Derrick Weitlich, a meteorologist at the National Weather Service in Melbourne.</t>
+  </si>
+  <si>
+    <t>"These tornadoes are characterized by rapid development and also dissipate quickly," said John Pendergrast, senior meteorologist with the National Weather Service in Melbourne.</t>
+  </si>
+  <si>
+    <t>St. Johns County Marine Patrol</t>
+  </si>
+  <si>
+    <t>St. Johns County Marine Patrol is encouraging citizens and visitors to stay out of the water until conditions improve.</t>
+  </si>
+  <si>
+    <t>Alligator Creek</t>
+  </si>
+  <si>
+    <t>A flash flood early this morning sent water from Alligator Creek into the shelter despite sand bags and other precautions.</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>"Typically when a thunderstorm happens, it is over in 20 minutes," Ponceti told CNN iReport.</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>BP Plc</t>
+  </si>
+  <si>
+    <t>Naples Daily News</t>
+  </si>
+  <si>
+    <t>The Naples Daily News reports several homes were damaged and tree limbs are down.</t>
+  </si>
+  <si>
+    <t>ConocoPhillips</t>
+  </si>
+  <si>
+    <t>ConocoPhillips (COP) said it’s taking non- essential employees off its Magnolia platform.</t>
+  </si>
+  <si>
+    <t>Fla.</t>
+  </si>
+  <si>
+    <t>Tallahassee</t>
+  </si>
+  <si>
+    <t>Miss Town</t>
+  </si>
+  <si>
+    <t>that the mobile home that Miss Town had been living in with her three daughters, was destroyed by the twister.</t>
+  </si>
+  <si>
+    <t>National Weather Service</t>
+  </si>
+  <si>
+    <t>The latest forecast from the National Weather Service calls for an 80 percent chance of rain tonight, with breezy south winds between 15 and 17 mph.</t>
+  </si>
+  <si>
+    <t>There are currently no tornado or flood warnings in the area, according to the National Weather Service website.</t>
+  </si>
+  <si>
+    <t>The National Weather Service forecasts a 40 percent chance of moderate-to-heavy rain today.</t>
+  </si>
+  <si>
+    <t>A stalled Tropical Storm Debby will likely pound the First Coast with periodic heavy rain for days, causing  flooding and other weather-related issues, according to the National Weather Service.</t>
+  </si>
+  <si>
+    <t>The National Weather Service is now predicting as much as 15 to 25 inches of rain in some isolated spots along the First Coast by week's end, said Meteorologist Phil Peterson.</t>
+  </si>
+  <si>
+    <t>Nassau County</t>
+  </si>
+  <si>
+    <t>In Nassau County, early morning storms closed a handful of roads and toppled a few trees, but no damage or injuries were reported.</t>
+  </si>
+  <si>
+    <t>Aquatic Drive</t>
+  </si>
+  <si>
+    <t>Tampa Police</t>
+  </si>
+  <si>
+    <t>Tampa Police say unless there is an emergency, your only solution is to call a tow truck company to get you out.</t>
+  </si>
+  <si>
+    <t>Pass-a-Grille</t>
+  </si>
+  <si>
+    <t>Pass-a-Grille was black.</t>
+  </si>
+  <si>
+    <t>It ended late Sunday night with officials in Pass-a-Grille searching its darkened streets in search of roofs torn and tossed.</t>
+  </si>
+  <si>
+    <t>Mother and son, 45 and 17, stood on a Pass-a-Grille pier filming the waves.</t>
+  </si>
+  <si>
+    <t>First Coast</t>
   </si>
   <si>
     <t>The projected track of slow-moving Tropical Storm Debby has shifted from the north to the northeast, which will possibly bring more heavy rain bands than initially expected over the First Coast through the weekend, said meteorologist Phil Peterson of the National Weather service.</t>
   </si>
   <si>
-    <t>A young mother was killed while clinging to her toddler daughter to protect her from the devastating tornado spawned by Tropical Storm Debby as it destroyed her mobile home.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby’s wind, rain do damage, set records in.... Just One More Thing...  We have sent you a verification email.</t>
-  </si>
-  <si>
-    <t>Tropical Storm Debby to ease up on Coastal Empire.</t>
-  </si>
-  <si>
-    <t>Shell</t>
-  </si>
-  <si>
-    <t>One of them, Shell, said in a statement Sunday morning that it had evacuated 360 staff the previous day and was planning further evacuations.</t>
-  </si>
-  <si>
-    <t>But on Monday, big offshore Gulf of Mexico drillers like BP Plc and Royal Dutch Shell began returning staff to offshore platforms.</t>
-  </si>
-  <si>
-    <t>BP</t>
-  </si>
-  <si>
-    <t>BP Plc, the largest oil producer in the Gulf of Mexico, was shutting in all of its oil and gas offshore platforms on Sunday.</t>
-  </si>
-  <si>
-    <t>Florida Panhandle</t>
-  </si>
-  <si>
-    <t>The National Hurricane reports to news that several possible tornadoes could form today June 25, 2012 across the eastern Florida Panhandle.</t>
-  </si>
-  <si>
-    <t>St. George Island and other low-lying areas in Franklin County on the Florida Panhandle, the Federal Emergency Management Agency said in a Sunday night news release.</t>
-  </si>
-  <si>
-    <t>The bridge leading to St. George Island, a vacation spot along the Florida Panhandle, was closed to everyone except residents, renters and business owners to keep looters out.</t>
-  </si>
-  <si>
-    <t>Beyond that, the new forecast track showed Debby remaining a tropical storm as it moves northward and makes landfall, possibly Thursday, on the Florida Panhandle.</t>
-  </si>
-  <si>
-    <t>Revised forecasts showed Debby remaining a tropical storm until it makes landfall early Thursday near Apalachee Bay, in the bend of the state where the Florida Panhandle ends.</t>
-  </si>
-  <si>
-    <t>Debby should dump 10 to 15 inches of rain in the Florida Panhandle and elsewhere in northern Florida before it's done, the hurricane center said, with as much as 25 inches possible in spots.</t>
-  </si>
-  <si>
-    <t>Florida Governor Rick Scott declared a state of emergency and a tropical storm warning was in effect along much of the Gulf coastline, from the Florida Panhandle down through the central west coast.</t>
-  </si>
-  <si>
-    <t>The highest potential is 25 inches along portions of the Florida Panhandle.</t>
-  </si>
-  <si>
-    <t>National Weather Service</t>
-  </si>
-  <si>
-    <t>"These tornadoes are characterized by rapid development and also dissipate quickly," said John Pendergrast, senior meteorologist with the National Weather Service in Melbourne.</t>
-  </si>
-  <si>
-    <t>The latest forecast from the National Weather Service calls for an 80 percent chance of rain tonight, with breezy south winds between 15 and 17 mph.</t>
-  </si>
-  <si>
-    <t>Heavy rain swept through Jacksonville through much of the early morning, though a break occurred about 9 a.m., which will be a signature of the storm, said Steve Letro, meteorologist-in-charge of Jacksonville's National Weather Service office.</t>
-  </si>
-  <si>
-    <t>Because it's moving so slowly there is a greater concern for flooding," said Derrick Weitlich, a meteorologist at the National Weather Service in Melbourne.</t>
-  </si>
-  <si>
-    <t>There are currently no tornado or flood warnings in the area, according to the National Weather Service website.</t>
-  </si>
-  <si>
-    <t>The National Weather Service forecasts a 40 percent chance of moderate-to-heavy rain today.</t>
-  </si>
-  <si>
-    <t>"We're so overwhelmed with normal operations that we haven't been able to send anyone out to confirm that," said Dan Noah at the National Weather Service's local office in Ruskin.</t>
-  </si>
-  <si>
-    <t>The tropical storm has dumped between 4 and 8 inches on St. Augustine so far and could give the city up to 20 inches more by Thursday, according to the National Weather Service in Jacksonville.</t>
-  </si>
-  <si>
-    <t>The National Weather Service is now predicting as much as 15 to 25 inches of rain in some isolated spots along the First Coast by week's end, said Meteorologist Phil Peterson.</t>
-  </si>
-  <si>
-    <t>Gulf of Mexico</t>
-  </si>
-  <si>
-    <t>Debby will likely stay fairly weak with winds around 40-50 mph as it continues to upwell colder waters in the northeastern Gulf of Mexico.</t>
-  </si>
-  <si>
-    <t>Look at where the tropical storm has been and where it has been forecast to go: During the weekend, it was heading northwest in the Gulf of Mexico and was Texas-bound.</t>
-  </si>
-  <si>
-    <t>Employees have been evacuated from 13 drilling rigs and 61 production platforms in the Gulf of Mexico.</t>
-  </si>
-  <si>
-    <t>About 900 JEA customers were without power at 9 a.m.  Letro said the unpredictability and slow movement of the tropical storm makes it possible that periodic rain could fall in the area throughout much of the week.Letro said there is currently no steering pattern controlling the poorly organized storm, leaving it trapped over the northeastern Gulf of Mexico.</t>
-  </si>
-  <si>
-    <t>With that said, I do not anticipate Debby to develop into a hurricane while it stays stationary off the northeastern coast of the Gulf of Mexico.</t>
-  </si>
-  <si>
-    <t>As it remains stationary over the open waters of the northern Gulf of Mexico, the storm will simply upwell colder ocean water to the surface.</t>
-  </si>
-  <si>
-    <t>In basic terms, there is nothing out there that can give this storm a push to shove it out of the Gulf of Mexico and allow it to move away.</t>
-  </si>
-  <si>
-    <t>In fact, the heart of the storm was churning but not moving in the Gulf of Mexico on Sunday evening, and forecasters still don't know where it will end up.</t>
-  </si>
-  <si>
-    <t>Eddy Teach</t>
-  </si>
-  <si>
-    <t>'Most true islanders are hanging in there because they know that you may or may not be able to get back to your home when you need to,' said David Walker, an island resident having a beer at Eddy Teach's bar.</t>
-  </si>
-  <si>
-    <t>On St. George Island, many businesses were closed, but Eddy Teach’s bar had a few customers and used a generator to keep beer and food cold.</t>
-  </si>
-  <si>
-    <t>“Most true islanders are hanging in there because they know that you may or may not be able to get back to your home when you need to,” said David Walker, an island resident having a beer at Eddy Teach’s bar.</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>In Alabama, rescuers continued a search on Monday for a swimmer who is presumed dead after he went missing off the Gulf Coast near Orange Beach on Sunday.</t>
-  </si>
-  <si>
-    <t>In Orange Beach, Alabama, a 32-year-old man went missing Sunday in rough surf kicked up by the storm, said Coast Guard Lt. j.g.</t>
-  </si>
-  <si>
-    <t>Tampa</t>
-  </si>
-  <si>
-    <t>TS Debby's deluge flooding Tampa area, stranding drivers.</t>
-  </si>
-  <si>
-    <t>19 N at Tampa Road.</t>
-  </si>
-  <si>
-    <t>Tampa Police say unless there is an emergency, your only solution is to call a tow truck company to get you out.</t>
-  </si>
-  <si>
-    <t>Doppler Radar estimates show that over 8 inches of rain has fallen so far just north of Tampa.</t>
-  </si>
-  <si>
-    <t>The storm, likely to linger for several days, has already doused Tampa with record amounts of rain, toppled trees, downed power lines and flooded roads.</t>
-  </si>
-  <si>
-    <t>It began with Gulfport and Tampa and Pasco County flooding as high tide surged.</t>
-  </si>
-  <si>
-    <t>Meanwhile, areas from Sarasota and the Tampa area are experiencing squalls of strong storms that are producing isolated tornadoes.</t>
-  </si>
-  <si>
-    <t>Neighbors found her still cradling her 3-year-old daughter, who was being treated at a Tampa hospital,  "She never let go of her little one even in death," Highland County Sheriff Susan Benton said in a statement issued Monday afternoon.</t>
-  </si>
-  <si>
-    <t>Bayshore Boulevard in Tampa.</t>
-  </si>
-  <si>
-    <t>Tropical storm warnings were posted from the Panhandle resort of Destin to Englewood, about 50 miles south of Tampa.</t>
-  </si>
-  <si>
-    <t>In Tampa, Barbara Young was lucky to be alive after the storm uprooted a tree that fell on her home as she slept.</t>
-  </si>
-  <si>
-    <t>Up the coast, in Palm Harbor, firefighters reported swift, running water flowing over Lake St. George just north of Tampa Road and Alt.</t>
-  </si>
-  <si>
-    <t>Rick Scott has canceled a trip to Tampa and is returning to Tallahassee for a briefing on Debby.</t>
-  </si>
-  <si>
-    <t>Tampa Police say they are getting reports of flooding this morning in the usual areas where we see flood waters build during major rain events like South Dale Mabry, Bayshore Boulevard, Manhattan, Swann Avenue, and Westshore Boulevard.\  Bayshore Boulevard is closed due to the incliment weather.Avoid the area if you can.</t>
+    <t>Debby heads toward First Coast; up to 25 overall inches of rain in some spots.</t>
+  </si>
+  <si>
+    <t>Jekyll Island</t>
+  </si>
+  <si>
+    <t>Officials are warning residents in Jekyll Island, High Point to take caution.</t>
+  </si>
+  <si>
+    <t>ExxonMobil</t>
+  </si>
+  <si>
+    <t>ExxonMobil said it has "evacuated nonessential personnel" from its offshore facilities and is preparing to evacuate the rest.</t>
+  </si>
+  <si>
+    <t>Bay Boulevard</t>
+  </si>
+  <si>
+    <t>Plaquemines Parish</t>
+  </si>
+  <si>
+    <t>In Plaquemines Parish, the state's southernmost parish, authorities were using baskets and tubes to keep Highway 23 -- the parish's main evacuation and emergency route -- free of water should the 4-foot levees be topped, said Billy Nungesser, parish president.</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +2097,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C324"/>
+  <dimension ref="A1:C582"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1123,10 +2119,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1134,10 +2130,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1148,7 +2144,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1156,10 +2152,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1167,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1178,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1189,10 +2185,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1200,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1211,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1222,10 +2218,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1233,10 +2229,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1244,10 +2240,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1255,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1266,10 +2262,10 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1277,10 +2273,10 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1288,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1299,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1310,10 +2306,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1321,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1332,10 +2328,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1343,10 +2339,10 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1354,10 +2350,10 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1365,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1376,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1387,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1398,10 +2394,10 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1409,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1420,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1431,10 +2427,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1442,10 +2438,10 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1453,10 +2449,10 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1464,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1475,10 +2471,10 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1486,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1497,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1508,10 +2504,10 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1519,10 +2515,10 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1530,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1541,10 +2537,10 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1552,10 +2548,10 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1563,10 +2559,10 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1574,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1585,10 +2581,10 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1596,10 +2592,10 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1607,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1618,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1629,10 +2625,10 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1640,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1651,10 +2647,10 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1662,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1673,10 +2669,10 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1684,10 +2680,10 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1695,10 +2691,10 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1706,10 +2702,10 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1717,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1728,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1739,10 +2735,10 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1750,10 +2746,10 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1761,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1772,10 +2768,10 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1783,10 +2779,10 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1794,10 +2790,10 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1805,10 +2801,10 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1816,10 +2812,10 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C65" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1827,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C66" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1838,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C67" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1849,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C68" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1860,10 +2856,10 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1871,10 +2867,10 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C70" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1882,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C71" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1893,10 +2889,10 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C72" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1904,10 +2900,10 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C73" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1915,10 +2911,10 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C74" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1926,10 +2922,10 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C75" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1937,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C76" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1948,10 +2944,10 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1959,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1970,10 +2966,10 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C79" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1981,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C80" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1992,10 +2988,10 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C81" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2003,10 +2999,10 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C82" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2014,10 +3010,10 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C83" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2025,10 +3021,10 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C84" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2036,10 +3032,10 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C85" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2047,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="C86" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2058,10 +3054,10 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="C87" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2069,10 +3065,10 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="C88" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2080,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="C89" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2091,10 +3087,10 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="C90" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2102,10 +3098,10 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="C91" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2113,10 +3109,10 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="C92" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2124,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="C93" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2135,10 +3131,10 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="C94" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2146,10 +3142,10 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2157,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="C96" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2168,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="C97" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2179,10 +3175,10 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="C98" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2190,10 +3186,10 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="C99" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2201,10 +3197,10 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="C100" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2212,10 +3208,10 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="C101" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2223,10 +3219,10 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="C102" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2234,10 +3230,10 @@
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="C103" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2245,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="C104" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2256,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="C105" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2267,10 +3263,10 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="C106" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2278,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="C107" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2289,10 +3285,10 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="C108" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2300,10 +3296,10 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="C109" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2311,10 +3307,10 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="C110" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2322,10 +3318,10 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="C111" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2333,10 +3329,10 @@
         <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="C112" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2344,10 +3340,10 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="C113" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2355,10 +3351,10 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="C114" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2366,10 +3362,10 @@
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2377,10 +3373,10 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="C116" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2388,10 +3384,10 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="C117" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2399,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="C118" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2410,10 +3406,10 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="C119" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2421,10 +3417,10 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="C120" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2432,10 +3428,10 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="C121" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2443,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="C122" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2454,10 +3450,10 @@
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="C123" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2465,10 +3461,10 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="C124" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2476,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="C125" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2487,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="C126" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2498,10 +3494,10 @@
         <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="C127" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2509,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="B128" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="C128" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2520,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="C129" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2531,10 +3527,10 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="C130" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2542,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="C131" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2553,10 +3549,10 @@
         <v>0</v>
       </c>
       <c r="B132" t="s">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="C132" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2564,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="B133" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="C133" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2575,10 +3571,10 @@
         <v>0</v>
       </c>
       <c r="B134" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="C134" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2586,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="C135" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2597,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="C136" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2608,10 +3604,10 @@
         <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
       <c r="C137" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2619,10 +3615,10 @@
         <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="C138" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2630,10 +3626,10 @@
         <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="C139" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2641,10 +3637,10 @@
         <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="C140" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2652,10 +3648,10 @@
         <v>0</v>
       </c>
       <c r="B141" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="C141" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2663,10 +3659,10 @@
         <v>0</v>
       </c>
       <c r="B142" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="C142" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2674,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="B143" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="C143" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2685,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="B144" t="s">
-        <v>69</v>
+        <v>186</v>
       </c>
       <c r="C144" t="s">
-        <v>138</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2696,10 +3692,10 @@
         <v>0</v>
       </c>
       <c r="B145" t="s">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="C145" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2707,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="B146" t="s">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="C146" t="s">
-        <v>14</v>
+        <v>190</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2718,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="B147" t="s">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="C147" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2729,10 +3725,10 @@
         <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="C148" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2740,10 +3736,10 @@
         <v>0</v>
       </c>
       <c r="B149" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="C149" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2751,10 +3747,10 @@
         <v>0</v>
       </c>
       <c r="B150" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="C150" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2762,10 +3758,10 @@
         <v>0</v>
       </c>
       <c r="B151" t="s">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c r="C151" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2773,10 +3769,10 @@
         <v>0</v>
       </c>
       <c r="B152" t="s">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="C152" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2784,10 +3780,10 @@
         <v>0</v>
       </c>
       <c r="B153" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="C153" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2795,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="B154" t="s">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="C154" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2806,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="B155" t="s">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="C155" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2817,10 +3813,10 @@
         <v>0</v>
       </c>
       <c r="B156" t="s">
-        <v>69</v>
+        <v>204</v>
       </c>
       <c r="C156" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2828,10 +3824,10 @@
         <v>0</v>
       </c>
       <c r="B157" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="C157" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2839,10 +3835,10 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>194</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2850,10 +3846,10 @@
         <v>0</v>
       </c>
       <c r="B159" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
       <c r="C159" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2861,10 +3857,10 @@
         <v>0</v>
       </c>
       <c r="B160" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="C160" t="s">
-        <v>151</v>
+        <v>209</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2872,10 +3868,10 @@
         <v>0</v>
       </c>
       <c r="B161" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="C161" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2883,10 +3879,10 @@
         <v>0</v>
       </c>
       <c r="B162" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="C162" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2894,10 +3890,10 @@
         <v>0</v>
       </c>
       <c r="B163" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="C163" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2905,10 +3901,10 @@
         <v>0</v>
       </c>
       <c r="B164" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="C164" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2916,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="B165" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="C165" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2927,10 +3923,10 @@
         <v>0</v>
       </c>
       <c r="B166" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="C166" t="s">
-        <v>89</v>
+        <v>216</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2938,10 +3934,10 @@
         <v>0</v>
       </c>
       <c r="B167" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="C167" t="s">
-        <v>28</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2949,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="B168" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="C168" t="s">
-        <v>31</v>
+        <v>219</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2960,10 +3956,10 @@
         <v>0</v>
       </c>
       <c r="B169" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="C169" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2971,10 +3967,10 @@
         <v>0</v>
       </c>
       <c r="B170" t="s">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="C170" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2982,10 +3978,10 @@
         <v>0</v>
       </c>
       <c r="B171" t="s">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="C171" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2993,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="B172" t="s">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="C172" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3004,10 +4000,10 @@
         <v>0</v>
       </c>
       <c r="B173" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="C173" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3015,10 +4011,10 @@
         <v>0</v>
       </c>
       <c r="B174" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="C174" t="s">
-        <v>163</v>
+        <v>228</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3026,10 +4022,10 @@
         <v>0</v>
       </c>
       <c r="B175" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="C175" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3037,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="B176" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="C176" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3048,10 +4044,10 @@
         <v>0</v>
       </c>
       <c r="B177" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
       <c r="C177" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3059,10 +4055,10 @@
         <v>0</v>
       </c>
       <c r="B178" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="C178" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3070,10 +4066,10 @@
         <v>0</v>
       </c>
       <c r="B179" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="C179" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3081,10 +4077,10 @@
         <v>0</v>
       </c>
       <c r="B180" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="C180" t="s">
-        <v>153</v>
+        <v>236</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3092,10 +4088,10 @@
         <v>0</v>
       </c>
       <c r="B181" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="C181" t="s">
-        <v>169</v>
+        <v>238</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3103,10 +4099,10 @@
         <v>0</v>
       </c>
       <c r="B182" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="C182" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3114,10 +4110,10 @@
         <v>0</v>
       </c>
       <c r="B183" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="C183" t="s">
-        <v>171</v>
+        <v>74</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3125,10 +4121,10 @@
         <v>0</v>
       </c>
       <c r="B184" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="C184" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3136,10 +4132,10 @@
         <v>0</v>
       </c>
       <c r="B185" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="C185" t="s">
-        <v>172</v>
+        <v>241</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3147,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="B186" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="C186" t="s">
-        <v>138</v>
+        <v>242</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3158,10 +4154,10 @@
         <v>0</v>
       </c>
       <c r="B187" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="C187" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3169,10 +4165,10 @@
         <v>0</v>
       </c>
       <c r="B188" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="C188" t="s">
-        <v>99</v>
+        <v>244</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3180,10 +4176,10 @@
         <v>0</v>
       </c>
       <c r="B189" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="C189" t="s">
-        <v>120</v>
+        <v>245</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3191,10 +4187,10 @@
         <v>0</v>
       </c>
       <c r="B190" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="C190" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3202,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="B191" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C191" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3213,10 +4209,10 @@
         <v>0</v>
       </c>
       <c r="B192" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C192" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3224,10 +4220,10 @@
         <v>0</v>
       </c>
       <c r="B193" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C193" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3235,10 +4231,10 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C194" t="s">
-        <v>177</v>
+        <v>33</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3246,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="B195" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C195" t="s">
-        <v>109</v>
+        <v>248</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3257,10 +4253,10 @@
         <v>0</v>
       </c>
       <c r="B196" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C196" t="s">
-        <v>178</v>
+        <v>249</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3268,10 +4264,10 @@
         <v>0</v>
       </c>
       <c r="B197" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C197" t="s">
-        <v>27</v>
+        <v>250</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3279,10 +4275,10 @@
         <v>0</v>
       </c>
       <c r="B198" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C198" t="s">
-        <v>179</v>
+        <v>251</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3290,10 +4286,10 @@
         <v>0</v>
       </c>
       <c r="B199" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C199" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3301,10 +4297,10 @@
         <v>0</v>
       </c>
       <c r="B200" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C200" t="s">
-        <v>76</v>
+        <v>253</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3312,10 +4308,10 @@
         <v>0</v>
       </c>
       <c r="B201" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C201" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3323,10 +4319,10 @@
         <v>0</v>
       </c>
       <c r="B202" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C202" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3334,10 +4330,10 @@
         <v>0</v>
       </c>
       <c r="B203" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C203" t="s">
-        <v>182</v>
+        <v>256</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3345,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="B204" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C204" t="s">
-        <v>44</v>
+        <v>257</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3356,10 +4352,10 @@
         <v>0</v>
       </c>
       <c r="B205" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C205" t="s">
-        <v>20</v>
+        <v>258</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3367,10 +4363,10 @@
         <v>0</v>
       </c>
       <c r="B206" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C206" t="s">
-        <v>128</v>
+        <v>259</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3378,10 +4374,10 @@
         <v>0</v>
       </c>
       <c r="B207" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C207" t="s">
-        <v>79</v>
+        <v>260</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3389,10 +4385,10 @@
         <v>0</v>
       </c>
       <c r="B208" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C208" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3400,10 +4396,10 @@
         <v>0</v>
       </c>
       <c r="B209" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C209" t="s">
-        <v>184</v>
+        <v>262</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3411,10 +4407,10 @@
         <v>0</v>
       </c>
       <c r="B210" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C210" t="s">
-        <v>25</v>
+        <v>263</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3422,10 +4418,10 @@
         <v>0</v>
       </c>
       <c r="B211" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C211" t="s">
-        <v>143</v>
+        <v>264</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3433,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="B212" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C212" t="s">
-        <v>185</v>
+        <v>265</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3444,10 +4440,10 @@
         <v>0</v>
       </c>
       <c r="B213" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C213" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3455,10 +4451,10 @@
         <v>0</v>
       </c>
       <c r="B214" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C214" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3466,10 +4462,10 @@
         <v>0</v>
       </c>
       <c r="B215" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C215" t="s">
-        <v>131</v>
+        <v>268</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3477,10 +4473,10 @@
         <v>0</v>
       </c>
       <c r="B216" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C216" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3488,10 +4484,10 @@
         <v>0</v>
       </c>
       <c r="B217" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C217" t="s">
-        <v>36</v>
+        <v>269</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3499,10 +4495,10 @@
         <v>0</v>
       </c>
       <c r="B218" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C218" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3510,10 +4506,10 @@
         <v>0</v>
       </c>
       <c r="B219" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C219" t="s">
-        <v>108</v>
+        <v>271</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3521,10 +4517,10 @@
         <v>0</v>
       </c>
       <c r="B220" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C220" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3532,10 +4528,10 @@
         <v>0</v>
       </c>
       <c r="B221" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C221" t="s">
-        <v>189</v>
+        <v>44</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3543,10 +4539,10 @@
         <v>0</v>
       </c>
       <c r="B222" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C222" t="s">
-        <v>148</v>
+        <v>273</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3554,10 +4550,10 @@
         <v>0</v>
       </c>
       <c r="B223" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C223" t="s">
-        <v>110</v>
+        <v>274</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3565,10 +4561,10 @@
         <v>0</v>
       </c>
       <c r="B224" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C224" t="s">
-        <v>190</v>
+        <v>275</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3576,10 +4572,10 @@
         <v>0</v>
       </c>
       <c r="B225" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C225" t="s">
-        <v>191</v>
+        <v>276</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3587,10 +4583,10 @@
         <v>0</v>
       </c>
       <c r="B226" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C226" t="s">
-        <v>192</v>
+        <v>277</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3598,10 +4594,10 @@
         <v>0</v>
       </c>
       <c r="B227" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C227" t="s">
-        <v>193</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3609,10 +4605,10 @@
         <v>0</v>
       </c>
       <c r="B228" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C228" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3620,10 +4616,10 @@
         <v>0</v>
       </c>
       <c r="B229" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C229" t="s">
-        <v>169</v>
+        <v>278</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3631,10 +4627,10 @@
         <v>0</v>
       </c>
       <c r="B230" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C230" t="s">
-        <v>194</v>
+        <v>279</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3642,10 +4638,10 @@
         <v>0</v>
       </c>
       <c r="B231" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C231" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3653,10 +4649,10 @@
         <v>0</v>
       </c>
       <c r="B232" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C232" t="s">
-        <v>195</v>
+        <v>281</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3664,10 +4660,10 @@
         <v>0</v>
       </c>
       <c r="B233" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="C233" t="s">
-        <v>196</v>
+        <v>102</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3675,10 +4671,10 @@
         <v>0</v>
       </c>
       <c r="B234" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="C234" t="s">
-        <v>167</v>
+        <v>282</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3686,10 +4682,10 @@
         <v>0</v>
       </c>
       <c r="B235" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="C235" t="s">
-        <v>198</v>
+        <v>283</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3697,10 +4693,10 @@
         <v>0</v>
       </c>
       <c r="B236" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="C236" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3708,10 +4704,10 @@
         <v>0</v>
       </c>
       <c r="B237" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="C237" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3719,10 +4715,10 @@
         <v>0</v>
       </c>
       <c r="B238" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="C238" t="s">
-        <v>173</v>
+        <v>286</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3730,10 +4726,10 @@
         <v>0</v>
       </c>
       <c r="B239" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="C239" t="s">
-        <v>199</v>
+        <v>287</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3741,10 +4737,10 @@
         <v>0</v>
       </c>
       <c r="B240" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="C240" t="s">
-        <v>146</v>
+        <v>288</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3752,10 +4748,10 @@
         <v>0</v>
       </c>
       <c r="B241" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="C241" t="s">
-        <v>201</v>
+        <v>289</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3763,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="B242" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="C242" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3774,10 +4770,10 @@
         <v>0</v>
       </c>
       <c r="B243" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="C243" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3785,10 +4781,10 @@
         <v>0</v>
       </c>
       <c r="B244" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="C244" t="s">
-        <v>204</v>
+        <v>291</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3796,10 +4792,10 @@
         <v>0</v>
       </c>
       <c r="B245" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>205</v>
+        <v>292</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3807,10 +4803,10 @@
         <v>0</v>
       </c>
       <c r="B246" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>206</v>
+        <v>293</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3818,10 +4814,10 @@
         <v>0</v>
       </c>
       <c r="B247" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="C247" t="s">
-        <v>187</v>
+        <v>294</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3829,10 +4825,10 @@
         <v>0</v>
       </c>
       <c r="B248" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="C248" t="s">
-        <v>207</v>
+        <v>295</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3840,10 +4836,10 @@
         <v>0</v>
       </c>
       <c r="B249" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="C249" t="s">
-        <v>208</v>
+        <v>296</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3851,10 +4847,10 @@
         <v>0</v>
       </c>
       <c r="B250" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="C250" t="s">
-        <v>209</v>
+        <v>297</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3862,10 +4858,10 @@
         <v>0</v>
       </c>
       <c r="B251" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="C251" t="s">
-        <v>210</v>
+        <v>39</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3873,10 +4869,10 @@
         <v>0</v>
       </c>
       <c r="B252" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C252" t="s">
-        <v>212</v>
+        <v>298</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3884,10 +4880,10 @@
         <v>0</v>
       </c>
       <c r="B253" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C253" t="s">
-        <v>213</v>
+        <v>47</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3895,10 +4891,10 @@
         <v>0</v>
       </c>
       <c r="B254" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C254" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3906,10 +4902,10 @@
         <v>0</v>
       </c>
       <c r="B255" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C255" t="s">
-        <v>214</v>
+        <v>299</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3917,10 +4913,10 @@
         <v>0</v>
       </c>
       <c r="B256" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C256" t="s">
-        <v>42</v>
+        <v>300</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3928,10 +4924,10 @@
         <v>0</v>
       </c>
       <c r="B257" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C257" t="s">
-        <v>150</v>
+        <v>301</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3939,10 +4935,10 @@
         <v>0</v>
       </c>
       <c r="B258" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C258" t="s">
-        <v>215</v>
+        <v>302</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3950,10 +4946,10 @@
         <v>0</v>
       </c>
       <c r="B259" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C259" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3961,10 +4957,10 @@
         <v>0</v>
       </c>
       <c r="B260" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C260" t="s">
-        <v>217</v>
+        <v>303</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3972,10 +4968,10 @@
         <v>0</v>
       </c>
       <c r="B261" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C261" t="s">
-        <v>218</v>
+        <v>304</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3983,10 +4979,10 @@
         <v>0</v>
       </c>
       <c r="B262" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C262" t="s">
-        <v>20</v>
+        <v>305</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3994,10 +4990,10 @@
         <v>0</v>
       </c>
       <c r="B263" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C263" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4005,10 +5001,10 @@
         <v>0</v>
       </c>
       <c r="B264" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C264" t="s">
-        <v>220</v>
+        <v>137</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4016,10 +5012,10 @@
         <v>0</v>
       </c>
       <c r="B265" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C265" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4027,10 +5023,10 @@
         <v>0</v>
       </c>
       <c r="B266" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="C266" t="s">
-        <v>173</v>
+        <v>64</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4038,10 +5034,10 @@
         <v>0</v>
       </c>
       <c r="B267" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="C267" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4049,10 +5045,10 @@
         <v>0</v>
       </c>
       <c r="B268" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="C268" t="s">
-        <v>174</v>
+        <v>307</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4060,10 +5056,10 @@
         <v>0</v>
       </c>
       <c r="B269" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="C269" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4071,10 +5067,10 @@
         <v>0</v>
       </c>
       <c r="B270" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="C270" t="s">
-        <v>223</v>
+        <v>309</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4082,10 +5078,10 @@
         <v>0</v>
       </c>
       <c r="B271" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="C271" t="s">
-        <v>166</v>
+        <v>43</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4093,10 +5089,10 @@
         <v>0</v>
       </c>
       <c r="B272" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="C272" t="s">
-        <v>44</v>
+        <v>310</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4104,10 +5100,10 @@
         <v>0</v>
       </c>
       <c r="B273" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="C273" t="s">
-        <v>224</v>
+        <v>311</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4115,10 +5111,10 @@
         <v>0</v>
       </c>
       <c r="B274" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="C274" t="s">
-        <v>54</v>
+        <v>312</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4126,10 +5122,10 @@
         <v>0</v>
       </c>
       <c r="B275" t="s">
-        <v>221</v>
+        <v>313</v>
       </c>
       <c r="C275" t="s">
-        <v>225</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4137,10 +5133,10 @@
         <v>0</v>
       </c>
       <c r="B276" t="s">
-        <v>221</v>
+        <v>314</v>
       </c>
       <c r="C276" t="s">
-        <v>226</v>
+        <v>315</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4148,10 +5144,10 @@
         <v>0</v>
       </c>
       <c r="B277" t="s">
-        <v>221</v>
+        <v>316</v>
       </c>
       <c r="C277" t="s">
-        <v>201</v>
+        <v>317</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4159,10 +5155,10 @@
         <v>0</v>
       </c>
       <c r="B278" t="s">
-        <v>221</v>
+        <v>316</v>
       </c>
       <c r="C278" t="s">
-        <v>227</v>
+        <v>318</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4170,10 +5166,10 @@
         <v>0</v>
       </c>
       <c r="B279" t="s">
-        <v>221</v>
+        <v>319</v>
       </c>
       <c r="C279" t="s">
-        <v>199</v>
+        <v>296</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4181,10 +5177,10 @@
         <v>0</v>
       </c>
       <c r="B280" t="s">
-        <v>221</v>
+        <v>319</v>
       </c>
       <c r="C280" t="s">
-        <v>116</v>
+        <v>320</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4192,10 +5188,10 @@
         <v>0</v>
       </c>
       <c r="B281" t="s">
-        <v>221</v>
+        <v>319</v>
       </c>
       <c r="C281" t="s">
-        <v>147</v>
+        <v>321</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4203,10 +5199,10 @@
         <v>0</v>
       </c>
       <c r="B282" t="s">
-        <v>221</v>
+        <v>319</v>
       </c>
       <c r="C282" t="s">
-        <v>165</v>
+        <v>322</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4214,10 +5210,10 @@
         <v>0</v>
       </c>
       <c r="B283" t="s">
-        <v>221</v>
+        <v>319</v>
       </c>
       <c r="C283" t="s">
-        <v>148</v>
+        <v>323</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4225,10 +5221,10 @@
         <v>0</v>
       </c>
       <c r="B284" t="s">
-        <v>221</v>
+        <v>319</v>
       </c>
       <c r="C284" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4236,10 +5232,10 @@
         <v>0</v>
       </c>
       <c r="B285" t="s">
-        <v>221</v>
+        <v>319</v>
       </c>
       <c r="C285" t="s">
-        <v>112</v>
+        <v>324</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4247,10 +5243,10 @@
         <v>0</v>
       </c>
       <c r="B286" t="s">
-        <v>221</v>
+        <v>319</v>
       </c>
       <c r="C286" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4258,10 +5254,10 @@
         <v>0</v>
       </c>
       <c r="B287" t="s">
-        <v>221</v>
+        <v>319</v>
       </c>
       <c r="C287" t="s">
-        <v>169</v>
+        <v>325</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4269,10 +5265,10 @@
         <v>0</v>
       </c>
       <c r="B288" t="s">
-        <v>221</v>
+        <v>319</v>
       </c>
       <c r="C288" t="s">
-        <v>229</v>
+        <v>326</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4280,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="B289" t="s">
-        <v>230</v>
+        <v>319</v>
       </c>
       <c r="C289" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4291,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="B290" t="s">
-        <v>230</v>
+        <v>319</v>
       </c>
       <c r="C290" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -4302,10 +5298,10 @@
         <v>0</v>
       </c>
       <c r="B291" t="s">
-        <v>230</v>
+        <v>319</v>
       </c>
       <c r="C291" t="s">
-        <v>233</v>
+        <v>327</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -4313,10 +5309,10 @@
         <v>0</v>
       </c>
       <c r="B292" t="s">
-        <v>234</v>
+        <v>319</v>
       </c>
       <c r="C292" t="s">
-        <v>9</v>
+        <v>328</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -4324,10 +5320,10 @@
         <v>0</v>
       </c>
       <c r="B293" t="s">
-        <v>234</v>
+        <v>319</v>
       </c>
       <c r="C293" t="s">
-        <v>149</v>
+        <v>259</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -4335,10 +5331,10 @@
         <v>0</v>
       </c>
       <c r="B294" t="s">
-        <v>234</v>
+        <v>319</v>
       </c>
       <c r="C294" t="s">
-        <v>112</v>
+        <v>243</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -4346,10 +5342,10 @@
         <v>0</v>
       </c>
       <c r="B295" t="s">
-        <v>234</v>
+        <v>319</v>
       </c>
       <c r="C295" t="s">
-        <v>14</v>
+        <v>246</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -4357,10 +5353,10 @@
         <v>0</v>
       </c>
       <c r="B296" t="s">
-        <v>234</v>
+        <v>319</v>
       </c>
       <c r="C296" t="s">
-        <v>129</v>
+        <v>329</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -4368,10 +5364,10 @@
         <v>0</v>
       </c>
       <c r="B297" t="s">
-        <v>234</v>
+        <v>319</v>
       </c>
       <c r="C297" t="s">
-        <v>235</v>
+        <v>330</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -4379,10 +5375,10 @@
         <v>0</v>
       </c>
       <c r="B298" t="s">
-        <v>234</v>
+        <v>319</v>
       </c>
       <c r="C298" t="s">
-        <v>97</v>
+        <v>300</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -4390,10 +5386,10 @@
         <v>0</v>
       </c>
       <c r="B299" t="s">
-        <v>234</v>
+        <v>319</v>
       </c>
       <c r="C299" t="s">
-        <v>236</v>
+        <v>20</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -4401,10 +5397,10 @@
         <v>0</v>
       </c>
       <c r="B300" t="s">
-        <v>234</v>
+        <v>331</v>
       </c>
       <c r="C300" t="s">
-        <v>118</v>
+        <v>332</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -4412,10 +5408,10 @@
         <v>0</v>
       </c>
       <c r="B301" t="s">
-        <v>234</v>
+        <v>333</v>
       </c>
       <c r="C301" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -4423,10 +5419,10 @@
         <v>0</v>
       </c>
       <c r="B302" t="s">
-        <v>234</v>
+        <v>334</v>
       </c>
       <c r="C302" t="s">
-        <v>147</v>
+        <v>44</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -4434,10 +5430,10 @@
         <v>0</v>
       </c>
       <c r="B303" t="s">
-        <v>234</v>
+        <v>335</v>
       </c>
       <c r="C303" t="s">
-        <v>86</v>
+        <v>336</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -4445,10 +5441,10 @@
         <v>0</v>
       </c>
       <c r="B304" t="s">
-        <v>234</v>
+        <v>337</v>
       </c>
       <c r="C304" t="s">
-        <v>122</v>
+        <v>318</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -4456,10 +5452,10 @@
         <v>0</v>
       </c>
       <c r="B305" t="s">
-        <v>237</v>
+        <v>338</v>
       </c>
       <c r="C305" t="s">
-        <v>7</v>
+        <v>339</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -4467,10 +5463,10 @@
         <v>0</v>
       </c>
       <c r="B306" t="s">
-        <v>237</v>
+        <v>338</v>
       </c>
       <c r="C306" t="s">
-        <v>238</v>
+        <v>340</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -4478,10 +5474,10 @@
         <v>0</v>
       </c>
       <c r="B307" t="s">
-        <v>237</v>
+        <v>341</v>
       </c>
       <c r="C307" t="s">
-        <v>239</v>
+        <v>342</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -4489,10 +5485,10 @@
         <v>0</v>
       </c>
       <c r="B308" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="C308" t="s">
-        <v>240</v>
+        <v>128</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -4500,10 +5496,10 @@
         <v>0</v>
       </c>
       <c r="B309" t="s">
-        <v>237</v>
+        <v>344</v>
       </c>
       <c r="C309" t="s">
-        <v>241</v>
+        <v>336</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4511,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="B310" t="s">
-        <v>237</v>
+        <v>345</v>
       </c>
       <c r="C310" t="s">
-        <v>242</v>
+        <v>35</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -4522,10 +5518,10 @@
         <v>0</v>
       </c>
       <c r="B311" t="s">
-        <v>237</v>
+        <v>346</v>
       </c>
       <c r="C311" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -4533,10 +5529,10 @@
         <v>0</v>
       </c>
       <c r="B312" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="C312" t="s">
-        <v>176</v>
+        <v>348</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -4544,10 +5540,10 @@
         <v>0</v>
       </c>
       <c r="B313" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="C313" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -4555,10 +5551,10 @@
         <v>0</v>
       </c>
       <c r="B314" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="C314" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -4566,10 +5562,10 @@
         <v>0</v>
       </c>
       <c r="B315" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="C315" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -4577,10 +5573,10 @@
         <v>0</v>
       </c>
       <c r="B316" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="C316" t="s">
-        <v>245</v>
+        <v>349</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -4588,10 +5584,10 @@
         <v>0</v>
       </c>
       <c r="B317" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="C317" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -4599,10 +5595,10 @@
         <v>0</v>
       </c>
       <c r="B318" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="C318" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -4610,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="B319" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="C319" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -4621,10 +5617,10 @@
         <v>0</v>
       </c>
       <c r="B320" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="C320" t="s">
-        <v>247</v>
+        <v>43</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -4632,10 +5628,10 @@
         <v>0</v>
       </c>
       <c r="B321" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="C321" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -4643,10 +5639,10 @@
         <v>0</v>
       </c>
       <c r="B322" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="C322" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -4654,10 +5650,10 @@
         <v>0</v>
       </c>
       <c r="B323" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="C323" t="s">
-        <v>250</v>
+        <v>311</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -4665,10 +5661,2848 @@
         <v>0</v>
       </c>
       <c r="B324" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="C324" t="s">
-        <v>251</v>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>0</v>
+      </c>
+      <c r="B325" t="s">
+        <v>350</v>
+      </c>
+      <c r="C325" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
+        <v>0</v>
+      </c>
+      <c r="B326" t="s">
+        <v>351</v>
+      </c>
+      <c r="C326" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>0</v>
+      </c>
+      <c r="B327" t="s">
+        <v>352</v>
+      </c>
+      <c r="C327" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>0</v>
+      </c>
+      <c r="B328" t="s">
+        <v>354</v>
+      </c>
+      <c r="C328" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>0</v>
+      </c>
+      <c r="B329" t="s">
+        <v>354</v>
+      </c>
+      <c r="C329" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>0</v>
+      </c>
+      <c r="B330" t="s">
+        <v>356</v>
+      </c>
+      <c r="C330" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>0</v>
+      </c>
+      <c r="B331" t="s">
+        <v>357</v>
+      </c>
+      <c r="C331" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>0</v>
+      </c>
+      <c r="B332" t="s">
+        <v>358</v>
+      </c>
+      <c r="C332" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
+        <v>0</v>
+      </c>
+      <c r="B333" t="s">
+        <v>358</v>
+      </c>
+      <c r="C333" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>0</v>
+      </c>
+      <c r="B334" t="s">
+        <v>359</v>
+      </c>
+      <c r="C334" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
+        <v>0</v>
+      </c>
+      <c r="B335" t="s">
+        <v>360</v>
+      </c>
+      <c r="C335" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
+        <v>0</v>
+      </c>
+      <c r="B336" t="s">
+        <v>360</v>
+      </c>
+      <c r="C336" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
+        <v>0</v>
+      </c>
+      <c r="B337" t="s">
+        <v>361</v>
+      </c>
+      <c r="C337" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="s">
+        <v>0</v>
+      </c>
+      <c r="B338" t="s">
+        <v>362</v>
+      </c>
+      <c r="C338" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
+        <v>0</v>
+      </c>
+      <c r="B339" t="s">
+        <v>363</v>
+      </c>
+      <c r="C339" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
+        <v>0</v>
+      </c>
+      <c r="B340" t="s">
+        <v>364</v>
+      </c>
+      <c r="C340" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
+        <v>0</v>
+      </c>
+      <c r="B341" t="s">
+        <v>364</v>
+      </c>
+      <c r="C341" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>0</v>
+      </c>
+      <c r="B342" t="s">
+        <v>366</v>
+      </c>
+      <c r="C342" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
+        <v>0</v>
+      </c>
+      <c r="B343" t="s">
+        <v>366</v>
+      </c>
+      <c r="C343" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
+        <v>0</v>
+      </c>
+      <c r="B344" t="s">
+        <v>368</v>
+      </c>
+      <c r="C344" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
+        <v>0</v>
+      </c>
+      <c r="B345" t="s">
+        <v>370</v>
+      </c>
+      <c r="C345" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>0</v>
+      </c>
+      <c r="B346" t="s">
+        <v>372</v>
+      </c>
+      <c r="C346" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
+        <v>0</v>
+      </c>
+      <c r="B347" t="s">
+        <v>372</v>
+      </c>
+      <c r="C347" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
+        <v>0</v>
+      </c>
+      <c r="B348" t="s">
+        <v>372</v>
+      </c>
+      <c r="C348" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
+        <v>0</v>
+      </c>
+      <c r="B349" t="s">
+        <v>375</v>
+      </c>
+      <c r="C349" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="s">
+        <v>0</v>
+      </c>
+      <c r="B350" t="s">
+        <v>377</v>
+      </c>
+      <c r="C350" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="s">
+        <v>0</v>
+      </c>
+      <c r="B351" t="s">
+        <v>377</v>
+      </c>
+      <c r="C351" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="s">
+        <v>0</v>
+      </c>
+      <c r="B352" t="s">
+        <v>378</v>
+      </c>
+      <c r="C352" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" t="s">
+        <v>0</v>
+      </c>
+      <c r="B353" t="s">
+        <v>380</v>
+      </c>
+      <c r="C353" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" t="s">
+        <v>0</v>
+      </c>
+      <c r="B354" t="s">
+        <v>382</v>
+      </c>
+      <c r="C354" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" t="s">
+        <v>0</v>
+      </c>
+      <c r="B355" t="s">
+        <v>384</v>
+      </c>
+      <c r="C355" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="s">
+        <v>0</v>
+      </c>
+      <c r="B356" t="s">
+        <v>384</v>
+      </c>
+      <c r="C356" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="s">
+        <v>0</v>
+      </c>
+      <c r="B357" t="s">
+        <v>386</v>
+      </c>
+      <c r="C357" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" t="s">
+        <v>0</v>
+      </c>
+      <c r="B358" t="s">
+        <v>388</v>
+      </c>
+      <c r="C358" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" t="s">
+        <v>0</v>
+      </c>
+      <c r="B359" t="s">
+        <v>388</v>
+      </c>
+      <c r="C359" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" t="s">
+        <v>0</v>
+      </c>
+      <c r="B360" t="s">
+        <v>388</v>
+      </c>
+      <c r="C360" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" t="s">
+        <v>0</v>
+      </c>
+      <c r="B361" t="s">
+        <v>388</v>
+      </c>
+      <c r="C361" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="s">
+        <v>0</v>
+      </c>
+      <c r="B362" t="s">
+        <v>388</v>
+      </c>
+      <c r="C362" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" t="s">
+        <v>0</v>
+      </c>
+      <c r="B363" t="s">
+        <v>388</v>
+      </c>
+      <c r="C363" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="s">
+        <v>0</v>
+      </c>
+      <c r="B364" t="s">
+        <v>388</v>
+      </c>
+      <c r="C364" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="s">
+        <v>0</v>
+      </c>
+      <c r="B365" t="s">
+        <v>388</v>
+      </c>
+      <c r="C365" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="s">
+        <v>0</v>
+      </c>
+      <c r="B366" t="s">
+        <v>388</v>
+      </c>
+      <c r="C366" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
+        <v>0</v>
+      </c>
+      <c r="B367" t="s">
+        <v>391</v>
+      </c>
+      <c r="C367" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="s">
+        <v>0</v>
+      </c>
+      <c r="B368" t="s">
+        <v>391</v>
+      </c>
+      <c r="C368" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="s">
+        <v>0</v>
+      </c>
+      <c r="B369" t="s">
+        <v>393</v>
+      </c>
+      <c r="C369" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
+        <v>0</v>
+      </c>
+      <c r="B370" t="s">
+        <v>394</v>
+      </c>
+      <c r="C370" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="s">
+        <v>0</v>
+      </c>
+      <c r="B371" t="s">
+        <v>395</v>
+      </c>
+      <c r="C371" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
+        <v>0</v>
+      </c>
+      <c r="B372" t="s">
+        <v>395</v>
+      </c>
+      <c r="C372" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
+        <v>0</v>
+      </c>
+      <c r="B373" t="s">
+        <v>395</v>
+      </c>
+      <c r="C373" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
+        <v>0</v>
+      </c>
+      <c r="B374" t="s">
+        <v>395</v>
+      </c>
+      <c r="C374" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
+        <v>0</v>
+      </c>
+      <c r="B375" t="s">
+        <v>398</v>
+      </c>
+      <c r="C375" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
+        <v>0</v>
+      </c>
+      <c r="B376" t="s">
+        <v>399</v>
+      </c>
+      <c r="C376" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="s">
+        <v>0</v>
+      </c>
+      <c r="B377" t="s">
+        <v>400</v>
+      </c>
+      <c r="C377" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="s">
+        <v>0</v>
+      </c>
+      <c r="B378" t="s">
+        <v>402</v>
+      </c>
+      <c r="C378" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
+        <v>0</v>
+      </c>
+      <c r="B379" t="s">
+        <v>404</v>
+      </c>
+      <c r="C379" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="s">
+        <v>0</v>
+      </c>
+      <c r="B380" t="s">
+        <v>405</v>
+      </c>
+      <c r="C380" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>0</v>
+      </c>
+      <c r="B381" t="s">
+        <v>405</v>
+      </c>
+      <c r="C381" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
+        <v>0</v>
+      </c>
+      <c r="B382" t="s">
+        <v>405</v>
+      </c>
+      <c r="C382" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
+        <v>0</v>
+      </c>
+      <c r="B383" t="s">
+        <v>407</v>
+      </c>
+      <c r="C383" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="s">
+        <v>0</v>
+      </c>
+      <c r="B384" t="s">
+        <v>409</v>
+      </c>
+      <c r="C384" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
+        <v>0</v>
+      </c>
+      <c r="B385" t="s">
+        <v>410</v>
+      </c>
+      <c r="C385" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
+        <v>0</v>
+      </c>
+      <c r="B386" t="s">
+        <v>410</v>
+      </c>
+      <c r="C386" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
+        <v>0</v>
+      </c>
+      <c r="B387" t="s">
+        <v>411</v>
+      </c>
+      <c r="C387" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
+        <v>0</v>
+      </c>
+      <c r="B388" t="s">
+        <v>413</v>
+      </c>
+      <c r="C388" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="s">
+        <v>0</v>
+      </c>
+      <c r="B389" t="s">
+        <v>415</v>
+      </c>
+      <c r="C389" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="s">
+        <v>0</v>
+      </c>
+      <c r="B390" t="s">
+        <v>416</v>
+      </c>
+      <c r="C390" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="s">
+        <v>0</v>
+      </c>
+      <c r="B391" t="s">
+        <v>418</v>
+      </c>
+      <c r="C391" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="s">
+        <v>0</v>
+      </c>
+      <c r="B392" t="s">
+        <v>418</v>
+      </c>
+      <c r="C392" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="s">
+        <v>0</v>
+      </c>
+      <c r="B393" t="s">
+        <v>419</v>
+      </c>
+      <c r="C393" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="s">
+        <v>0</v>
+      </c>
+      <c r="B394" t="s">
+        <v>421</v>
+      </c>
+      <c r="C394" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="s">
+        <v>0</v>
+      </c>
+      <c r="B395" t="s">
+        <v>423</v>
+      </c>
+      <c r="C395" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="s">
+        <v>0</v>
+      </c>
+      <c r="B396" t="s">
+        <v>424</v>
+      </c>
+      <c r="C396" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="s">
+        <v>0</v>
+      </c>
+      <c r="B397" t="s">
+        <v>425</v>
+      </c>
+      <c r="C397" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="s">
+        <v>0</v>
+      </c>
+      <c r="B398" t="s">
+        <v>427</v>
+      </c>
+      <c r="C398" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
+        <v>0</v>
+      </c>
+      <c r="B399" t="s">
+        <v>428</v>
+      </c>
+      <c r="C399" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="s">
+        <v>0</v>
+      </c>
+      <c r="B400" t="s">
+        <v>430</v>
+      </c>
+      <c r="C400" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="s">
+        <v>0</v>
+      </c>
+      <c r="B401" t="s">
+        <v>431</v>
+      </c>
+      <c r="C401" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" t="s">
+        <v>0</v>
+      </c>
+      <c r="B402" t="s">
+        <v>432</v>
+      </c>
+      <c r="C402" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" t="s">
+        <v>0</v>
+      </c>
+      <c r="B403" t="s">
+        <v>432</v>
+      </c>
+      <c r="C403" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" t="s">
+        <v>0</v>
+      </c>
+      <c r="B404" t="s">
+        <v>432</v>
+      </c>
+      <c r="C404" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" t="s">
+        <v>0</v>
+      </c>
+      <c r="B405" t="s">
+        <v>434</v>
+      </c>
+      <c r="C405" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" t="s">
+        <v>0</v>
+      </c>
+      <c r="B406" t="s">
+        <v>436</v>
+      </c>
+      <c r="C406" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" t="s">
+        <v>0</v>
+      </c>
+      <c r="B407" t="s">
+        <v>438</v>
+      </c>
+      <c r="C407" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" t="s">
+        <v>0</v>
+      </c>
+      <c r="B408" t="s">
+        <v>440</v>
+      </c>
+      <c r="C408" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" t="s">
+        <v>0</v>
+      </c>
+      <c r="B409" t="s">
+        <v>440</v>
+      </c>
+      <c r="C409" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" t="s">
+        <v>0</v>
+      </c>
+      <c r="B410" t="s">
+        <v>440</v>
+      </c>
+      <c r="C410" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" t="s">
+        <v>0</v>
+      </c>
+      <c r="B411" t="s">
+        <v>440</v>
+      </c>
+      <c r="C411" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" t="s">
+        <v>0</v>
+      </c>
+      <c r="B412" t="s">
+        <v>441</v>
+      </c>
+      <c r="C412" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" t="s">
+        <v>0</v>
+      </c>
+      <c r="B413" t="s">
+        <v>443</v>
+      </c>
+      <c r="C413" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" t="s">
+        <v>0</v>
+      </c>
+      <c r="B414" t="s">
+        <v>443</v>
+      </c>
+      <c r="C414" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" t="s">
+        <v>0</v>
+      </c>
+      <c r="B415" t="s">
+        <v>443</v>
+      </c>
+      <c r="C415" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" t="s">
+        <v>0</v>
+      </c>
+      <c r="B416" t="s">
+        <v>443</v>
+      </c>
+      <c r="C416" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" t="s">
+        <v>0</v>
+      </c>
+      <c r="B417" t="s">
+        <v>444</v>
+      </c>
+      <c r="C417" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" t="s">
+        <v>0</v>
+      </c>
+      <c r="B418" t="s">
+        <v>444</v>
+      </c>
+      <c r="C418" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" t="s">
+        <v>0</v>
+      </c>
+      <c r="B419" t="s">
+        <v>446</v>
+      </c>
+      <c r="C419" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" t="s">
+        <v>0</v>
+      </c>
+      <c r="B420" t="s">
+        <v>446</v>
+      </c>
+      <c r="C420" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" t="s">
+        <v>0</v>
+      </c>
+      <c r="B421" t="s">
+        <v>448</v>
+      </c>
+      <c r="C421" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" t="s">
+        <v>0</v>
+      </c>
+      <c r="B422" t="s">
+        <v>448</v>
+      </c>
+      <c r="C422" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" t="s">
+        <v>0</v>
+      </c>
+      <c r="B423" t="s">
+        <v>451</v>
+      </c>
+      <c r="C423" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" t="s">
+        <v>0</v>
+      </c>
+      <c r="B424" t="s">
+        <v>452</v>
+      </c>
+      <c r="C424" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" t="s">
+        <v>0</v>
+      </c>
+      <c r="B425" t="s">
+        <v>454</v>
+      </c>
+      <c r="C425" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" t="s">
+        <v>0</v>
+      </c>
+      <c r="B426" t="s">
+        <v>454</v>
+      </c>
+      <c r="C426" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" t="s">
+        <v>0</v>
+      </c>
+      <c r="B427" t="s">
+        <v>456</v>
+      </c>
+      <c r="C427" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" t="s">
+        <v>0</v>
+      </c>
+      <c r="B428" t="s">
+        <v>458</v>
+      </c>
+      <c r="C428" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" t="s">
+        <v>0</v>
+      </c>
+      <c r="B429" t="s">
+        <v>458</v>
+      </c>
+      <c r="C429" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" t="s">
+        <v>0</v>
+      </c>
+      <c r="B430" t="s">
+        <v>459</v>
+      </c>
+      <c r="C430" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" t="s">
+        <v>0</v>
+      </c>
+      <c r="B431" t="s">
+        <v>460</v>
+      </c>
+      <c r="C431" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" t="s">
+        <v>0</v>
+      </c>
+      <c r="B432" t="s">
+        <v>461</v>
+      </c>
+      <c r="C432" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" t="s">
+        <v>0</v>
+      </c>
+      <c r="B433" t="s">
+        <v>461</v>
+      </c>
+      <c r="C433" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" t="s">
+        <v>0</v>
+      </c>
+      <c r="B434" t="s">
+        <v>461</v>
+      </c>
+      <c r="C434" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" t="s">
+        <v>0</v>
+      </c>
+      <c r="B435" t="s">
+        <v>463</v>
+      </c>
+      <c r="C435" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" t="s">
+        <v>0</v>
+      </c>
+      <c r="B436" t="s">
+        <v>463</v>
+      </c>
+      <c r="C436" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" t="s">
+        <v>0</v>
+      </c>
+      <c r="B437" t="s">
+        <v>464</v>
+      </c>
+      <c r="C437" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" t="s">
+        <v>0</v>
+      </c>
+      <c r="B438" t="s">
+        <v>465</v>
+      </c>
+      <c r="C438" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" t="s">
+        <v>0</v>
+      </c>
+      <c r="B439" t="s">
+        <v>466</v>
+      </c>
+      <c r="C439" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" t="s">
+        <v>0</v>
+      </c>
+      <c r="B440" t="s">
+        <v>466</v>
+      </c>
+      <c r="C440" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" t="s">
+        <v>0</v>
+      </c>
+      <c r="B441" t="s">
+        <v>466</v>
+      </c>
+      <c r="C441" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" t="s">
+        <v>0</v>
+      </c>
+      <c r="B442" t="s">
+        <v>466</v>
+      </c>
+      <c r="C442" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" t="s">
+        <v>0</v>
+      </c>
+      <c r="B443" t="s">
+        <v>468</v>
+      </c>
+      <c r="C443" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" t="s">
+        <v>0</v>
+      </c>
+      <c r="B444" t="s">
+        <v>470</v>
+      </c>
+      <c r="C444" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" t="s">
+        <v>0</v>
+      </c>
+      <c r="B445" t="s">
+        <v>472</v>
+      </c>
+      <c r="C445" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" t="s">
+        <v>0</v>
+      </c>
+      <c r="B446" t="s">
+        <v>473</v>
+      </c>
+      <c r="C446" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" t="s">
+        <v>0</v>
+      </c>
+      <c r="B447" t="s">
+        <v>474</v>
+      </c>
+      <c r="C447" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" t="s">
+        <v>0</v>
+      </c>
+      <c r="B448" t="s">
+        <v>475</v>
+      </c>
+      <c r="C448" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" t="s">
+        <v>0</v>
+      </c>
+      <c r="B449" t="s">
+        <v>476</v>
+      </c>
+      <c r="C449" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" t="s">
+        <v>0</v>
+      </c>
+      <c r="B450" t="s">
+        <v>477</v>
+      </c>
+      <c r="C450" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" t="s">
+        <v>0</v>
+      </c>
+      <c r="B451" t="s">
+        <v>478</v>
+      </c>
+      <c r="C451" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" t="s">
+        <v>0</v>
+      </c>
+      <c r="B452" t="s">
+        <v>479</v>
+      </c>
+      <c r="C452" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" t="s">
+        <v>0</v>
+      </c>
+      <c r="B453" t="s">
+        <v>480</v>
+      </c>
+      <c r="C453" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" t="s">
+        <v>0</v>
+      </c>
+      <c r="B454" t="s">
+        <v>482</v>
+      </c>
+      <c r="C454" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" t="s">
+        <v>0</v>
+      </c>
+      <c r="B455" t="s">
+        <v>484</v>
+      </c>
+      <c r="C455" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" t="s">
+        <v>0</v>
+      </c>
+      <c r="B456" t="s">
+        <v>485</v>
+      </c>
+      <c r="C456" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" t="s">
+        <v>0</v>
+      </c>
+      <c r="B457" t="s">
+        <v>485</v>
+      </c>
+      <c r="C457" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" t="s">
+        <v>0</v>
+      </c>
+      <c r="B458" t="s">
+        <v>485</v>
+      </c>
+      <c r="C458" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" t="s">
+        <v>0</v>
+      </c>
+      <c r="B459" t="s">
+        <v>486</v>
+      </c>
+      <c r="C459" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" t="s">
+        <v>0</v>
+      </c>
+      <c r="B460" t="s">
+        <v>488</v>
+      </c>
+      <c r="C460" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" t="s">
+        <v>0</v>
+      </c>
+      <c r="B461" t="s">
+        <v>488</v>
+      </c>
+      <c r="C461" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" t="s">
+        <v>0</v>
+      </c>
+      <c r="B462" t="s">
+        <v>489</v>
+      </c>
+      <c r="C462" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" t="s">
+        <v>0</v>
+      </c>
+      <c r="B463" t="s">
+        <v>490</v>
+      </c>
+      <c r="C463" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" t="s">
+        <v>0</v>
+      </c>
+      <c r="B464" t="s">
+        <v>490</v>
+      </c>
+      <c r="C464" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" t="s">
+        <v>0</v>
+      </c>
+      <c r="B465" t="s">
+        <v>490</v>
+      </c>
+      <c r="C465" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" t="s">
+        <v>0</v>
+      </c>
+      <c r="B466" t="s">
+        <v>493</v>
+      </c>
+      <c r="C466" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" t="s">
+        <v>0</v>
+      </c>
+      <c r="B467" t="s">
+        <v>494</v>
+      </c>
+      <c r="C467" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" t="s">
+        <v>0</v>
+      </c>
+      <c r="B468" t="s">
+        <v>494</v>
+      </c>
+      <c r="C468" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" t="s">
+        <v>0</v>
+      </c>
+      <c r="B469" t="s">
+        <v>495</v>
+      </c>
+      <c r="C469" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" t="s">
+        <v>0</v>
+      </c>
+      <c r="B470" t="s">
+        <v>496</v>
+      </c>
+      <c r="C470" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" t="s">
+        <v>0</v>
+      </c>
+      <c r="B471" t="s">
+        <v>497</v>
+      </c>
+      <c r="C471" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" t="s">
+        <v>0</v>
+      </c>
+      <c r="B472" t="s">
+        <v>498</v>
+      </c>
+      <c r="C472" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" t="s">
+        <v>0</v>
+      </c>
+      <c r="B473" t="s">
+        <v>500</v>
+      </c>
+      <c r="C473" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" t="s">
+        <v>0</v>
+      </c>
+      <c r="B474" t="s">
+        <v>502</v>
+      </c>
+      <c r="C474" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" t="s">
+        <v>0</v>
+      </c>
+      <c r="B475" t="s">
+        <v>503</v>
+      </c>
+      <c r="C475" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" t="s">
+        <v>0</v>
+      </c>
+      <c r="B476" t="s">
+        <v>505</v>
+      </c>
+      <c r="C476" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" t="s">
+        <v>0</v>
+      </c>
+      <c r="B477" t="s">
+        <v>507</v>
+      </c>
+      <c r="C477" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" t="s">
+        <v>0</v>
+      </c>
+      <c r="B478" t="s">
+        <v>507</v>
+      </c>
+      <c r="C478" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" t="s">
+        <v>0</v>
+      </c>
+      <c r="B479" t="s">
+        <v>508</v>
+      </c>
+      <c r="C479" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" t="s">
+        <v>0</v>
+      </c>
+      <c r="B480" t="s">
+        <v>508</v>
+      </c>
+      <c r="C480" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" t="s">
+        <v>0</v>
+      </c>
+      <c r="B481" t="s">
+        <v>508</v>
+      </c>
+      <c r="C481" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" t="s">
+        <v>0</v>
+      </c>
+      <c r="B482" t="s">
+        <v>508</v>
+      </c>
+      <c r="C482" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" t="s">
+        <v>0</v>
+      </c>
+      <c r="B483" t="s">
+        <v>509</v>
+      </c>
+      <c r="C483" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" t="s">
+        <v>0</v>
+      </c>
+      <c r="B484" t="s">
+        <v>510</v>
+      </c>
+      <c r="C484" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" t="s">
+        <v>0</v>
+      </c>
+      <c r="B485" t="s">
+        <v>510</v>
+      </c>
+      <c r="C485" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" t="s">
+        <v>0</v>
+      </c>
+      <c r="B486" t="s">
+        <v>512</v>
+      </c>
+      <c r="C486" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" t="s">
+        <v>0</v>
+      </c>
+      <c r="B487" t="s">
+        <v>512</v>
+      </c>
+      <c r="C487" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" t="s">
+        <v>0</v>
+      </c>
+      <c r="B488" t="s">
+        <v>513</v>
+      </c>
+      <c r="C488" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" t="s">
+        <v>0</v>
+      </c>
+      <c r="B489" t="s">
+        <v>513</v>
+      </c>
+      <c r="C489" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" t="s">
+        <v>0</v>
+      </c>
+      <c r="B490" t="s">
+        <v>513</v>
+      </c>
+      <c r="C490" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" t="s">
+        <v>0</v>
+      </c>
+      <c r="B491" t="s">
+        <v>513</v>
+      </c>
+      <c r="C491" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" t="s">
+        <v>0</v>
+      </c>
+      <c r="B492" t="s">
+        <v>514</v>
+      </c>
+      <c r="C492" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" t="s">
+        <v>0</v>
+      </c>
+      <c r="B493" t="s">
+        <v>514</v>
+      </c>
+      <c r="C493" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" t="s">
+        <v>0</v>
+      </c>
+      <c r="B494" t="s">
+        <v>514</v>
+      </c>
+      <c r="C494" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" t="s">
+        <v>0</v>
+      </c>
+      <c r="B495" t="s">
+        <v>516</v>
+      </c>
+      <c r="C495" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" t="s">
+        <v>0</v>
+      </c>
+      <c r="B496" t="s">
+        <v>517</v>
+      </c>
+      <c r="C496" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" t="s">
+        <v>0</v>
+      </c>
+      <c r="B497" t="s">
+        <v>518</v>
+      </c>
+      <c r="C497" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" t="s">
+        <v>0</v>
+      </c>
+      <c r="B498" t="s">
+        <v>518</v>
+      </c>
+      <c r="C498" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" t="s">
+        <v>0</v>
+      </c>
+      <c r="B499" t="s">
+        <v>518</v>
+      </c>
+      <c r="C499" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" t="s">
+        <v>0</v>
+      </c>
+      <c r="B500" t="s">
+        <v>518</v>
+      </c>
+      <c r="C500" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" t="s">
+        <v>0</v>
+      </c>
+      <c r="B501" t="s">
+        <v>518</v>
+      </c>
+      <c r="C501" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" t="s">
+        <v>0</v>
+      </c>
+      <c r="B502" t="s">
+        <v>518</v>
+      </c>
+      <c r="C502" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" t="s">
+        <v>0</v>
+      </c>
+      <c r="B503" t="s">
+        <v>518</v>
+      </c>
+      <c r="C503" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" t="s">
+        <v>0</v>
+      </c>
+      <c r="B504" t="s">
+        <v>521</v>
+      </c>
+      <c r="C504" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" t="s">
+        <v>0</v>
+      </c>
+      <c r="B505" t="s">
+        <v>523</v>
+      </c>
+      <c r="C505" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" t="s">
+        <v>0</v>
+      </c>
+      <c r="B506" t="s">
+        <v>523</v>
+      </c>
+      <c r="C506" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" t="s">
+        <v>0</v>
+      </c>
+      <c r="B507" t="s">
+        <v>525</v>
+      </c>
+      <c r="C507" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" t="s">
+        <v>0</v>
+      </c>
+      <c r="B508" t="s">
+        <v>527</v>
+      </c>
+      <c r="C508" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" t="s">
+        <v>0</v>
+      </c>
+      <c r="B509" t="s">
+        <v>528</v>
+      </c>
+      <c r="C509" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" t="s">
+        <v>0</v>
+      </c>
+      <c r="B510" t="s">
+        <v>529</v>
+      </c>
+      <c r="C510" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" t="s">
+        <v>0</v>
+      </c>
+      <c r="B511" t="s">
+        <v>529</v>
+      </c>
+      <c r="C511" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" t="s">
+        <v>0</v>
+      </c>
+      <c r="B512" t="s">
+        <v>529</v>
+      </c>
+      <c r="C512" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" t="s">
+        <v>0</v>
+      </c>
+      <c r="B513" t="s">
+        <v>529</v>
+      </c>
+      <c r="C513" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" t="s">
+        <v>0</v>
+      </c>
+      <c r="B514" t="s">
+        <v>529</v>
+      </c>
+      <c r="C514" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" t="s">
+        <v>0</v>
+      </c>
+      <c r="B515" t="s">
+        <v>529</v>
+      </c>
+      <c r="C515" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" t="s">
+        <v>0</v>
+      </c>
+      <c r="B516" t="s">
+        <v>529</v>
+      </c>
+      <c r="C516" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" t="s">
+        <v>0</v>
+      </c>
+      <c r="B517" t="s">
+        <v>529</v>
+      </c>
+      <c r="C517" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" t="s">
+        <v>0</v>
+      </c>
+      <c r="B518" t="s">
+        <v>529</v>
+      </c>
+      <c r="C518" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" t="s">
+        <v>0</v>
+      </c>
+      <c r="B519" t="s">
+        <v>529</v>
+      </c>
+      <c r="C519" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" t="s">
+        <v>0</v>
+      </c>
+      <c r="B520" t="s">
+        <v>529</v>
+      </c>
+      <c r="C520" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" t="s">
+        <v>0</v>
+      </c>
+      <c r="B521" t="s">
+        <v>529</v>
+      </c>
+      <c r="C521" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" t="s">
+        <v>0</v>
+      </c>
+      <c r="B522" t="s">
+        <v>534</v>
+      </c>
+      <c r="C522" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" t="s">
+        <v>0</v>
+      </c>
+      <c r="B523" t="s">
+        <v>534</v>
+      </c>
+      <c r="C523" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" t="s">
+        <v>0</v>
+      </c>
+      <c r="B524" t="s">
+        <v>534</v>
+      </c>
+      <c r="C524" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" t="s">
+        <v>0</v>
+      </c>
+      <c r="B525" t="s">
+        <v>537</v>
+      </c>
+      <c r="C525" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" t="s">
+        <v>0</v>
+      </c>
+      <c r="B526" t="s">
+        <v>538</v>
+      </c>
+      <c r="C526" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" t="s">
+        <v>0</v>
+      </c>
+      <c r="B527" t="s">
+        <v>540</v>
+      </c>
+      <c r="C527" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" t="s">
+        <v>0</v>
+      </c>
+      <c r="B528" t="s">
+        <v>540</v>
+      </c>
+      <c r="C528" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" t="s">
+        <v>0</v>
+      </c>
+      <c r="B529" t="s">
+        <v>543</v>
+      </c>
+      <c r="C529" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" t="s">
+        <v>0</v>
+      </c>
+      <c r="B530" t="s">
+        <v>545</v>
+      </c>
+      <c r="C530" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" t="s">
+        <v>0</v>
+      </c>
+      <c r="B531" t="s">
+        <v>547</v>
+      </c>
+      <c r="C531" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" t="s">
+        <v>0</v>
+      </c>
+      <c r="B532" t="s">
+        <v>547</v>
+      </c>
+      <c r="C532" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" t="s">
+        <v>0</v>
+      </c>
+      <c r="B533" t="s">
+        <v>549</v>
+      </c>
+      <c r="C533" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" t="s">
+        <v>0</v>
+      </c>
+      <c r="B534" t="s">
+        <v>549</v>
+      </c>
+      <c r="C534" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" t="s">
+        <v>0</v>
+      </c>
+      <c r="B535" t="s">
+        <v>549</v>
+      </c>
+      <c r="C535" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" t="s">
+        <v>0</v>
+      </c>
+      <c r="B536" t="s">
+        <v>549</v>
+      </c>
+      <c r="C536" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" t="s">
+        <v>0</v>
+      </c>
+      <c r="B537" t="s">
+        <v>549</v>
+      </c>
+      <c r="C537" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" t="s">
+        <v>0</v>
+      </c>
+      <c r="B538" t="s">
+        <v>549</v>
+      </c>
+      <c r="C538" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" t="s">
+        <v>0</v>
+      </c>
+      <c r="B539" t="s">
+        <v>549</v>
+      </c>
+      <c r="C539" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" t="s">
+        <v>0</v>
+      </c>
+      <c r="B540" t="s">
+        <v>549</v>
+      </c>
+      <c r="C540" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" t="s">
+        <v>0</v>
+      </c>
+      <c r="B541" t="s">
+        <v>549</v>
+      </c>
+      <c r="C541" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" t="s">
+        <v>0</v>
+      </c>
+      <c r="B542" t="s">
+        <v>550</v>
+      </c>
+      <c r="C542" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" t="s">
+        <v>0</v>
+      </c>
+      <c r="B543" t="s">
+        <v>550</v>
+      </c>
+      <c r="C543" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" t="s">
+        <v>0</v>
+      </c>
+      <c r="B544" t="s">
+        <v>551</v>
+      </c>
+      <c r="C544" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" t="s">
+        <v>0</v>
+      </c>
+      <c r="B545" t="s">
+        <v>553</v>
+      </c>
+      <c r="C545" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" t="s">
+        <v>0</v>
+      </c>
+      <c r="B546" t="s">
+        <v>555</v>
+      </c>
+      <c r="C546" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547" t="s">
+        <v>0</v>
+      </c>
+      <c r="B547" t="s">
+        <v>555</v>
+      </c>
+      <c r="C547" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548" t="s">
+        <v>0</v>
+      </c>
+      <c r="B548" t="s">
+        <v>556</v>
+      </c>
+      <c r="C548" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" t="s">
+        <v>0</v>
+      </c>
+      <c r="B549" t="s">
+        <v>556</v>
+      </c>
+      <c r="C549" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550" t="s">
+        <v>0</v>
+      </c>
+      <c r="B550" t="s">
+        <v>557</v>
+      </c>
+      <c r="C550" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" t="s">
+        <v>0</v>
+      </c>
+      <c r="B551" t="s">
+        <v>557</v>
+      </c>
+      <c r="C551" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" t="s">
+        <v>0</v>
+      </c>
+      <c r="B552" t="s">
+        <v>559</v>
+      </c>
+      <c r="C552" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553" t="s">
+        <v>0</v>
+      </c>
+      <c r="B553" t="s">
+        <v>559</v>
+      </c>
+      <c r="C553" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554" t="s">
+        <v>0</v>
+      </c>
+      <c r="B554" t="s">
+        <v>559</v>
+      </c>
+      <c r="C554" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555" t="s">
+        <v>0</v>
+      </c>
+      <c r="B555" t="s">
+        <v>559</v>
+      </c>
+      <c r="C555" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556" t="s">
+        <v>0</v>
+      </c>
+      <c r="B556" t="s">
+        <v>559</v>
+      </c>
+      <c r="C556" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557" t="s">
+        <v>0</v>
+      </c>
+      <c r="B557" t="s">
+        <v>559</v>
+      </c>
+      <c r="C557" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558" t="s">
+        <v>0</v>
+      </c>
+      <c r="B558" t="s">
+        <v>559</v>
+      </c>
+      <c r="C558" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559" t="s">
+        <v>0</v>
+      </c>
+      <c r="B559" t="s">
+        <v>559</v>
+      </c>
+      <c r="C559" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" t="s">
+        <v>0</v>
+      </c>
+      <c r="B560" t="s">
+        <v>559</v>
+      </c>
+      <c r="C560" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561" t="s">
+        <v>0</v>
+      </c>
+      <c r="B561" t="s">
+        <v>559</v>
+      </c>
+      <c r="C561" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562" t="s">
+        <v>0</v>
+      </c>
+      <c r="B562" t="s">
+        <v>559</v>
+      </c>
+      <c r="C562" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" t="s">
+        <v>0</v>
+      </c>
+      <c r="B563" t="s">
+        <v>559</v>
+      </c>
+      <c r="C563" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564" t="s">
+        <v>0</v>
+      </c>
+      <c r="B564" t="s">
+        <v>559</v>
+      </c>
+      <c r="C564" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" t="s">
+        <v>0</v>
+      </c>
+      <c r="B565" t="s">
+        <v>559</v>
+      </c>
+      <c r="C565" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" t="s">
+        <v>0</v>
+      </c>
+      <c r="B566" t="s">
+        <v>565</v>
+      </c>
+      <c r="C566" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" t="s">
+        <v>0</v>
+      </c>
+      <c r="B567" t="s">
+        <v>567</v>
+      </c>
+      <c r="C567" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" t="s">
+        <v>0</v>
+      </c>
+      <c r="B568" t="s">
+        <v>568</v>
+      </c>
+      <c r="C568" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" t="s">
+        <v>0</v>
+      </c>
+      <c r="B569" t="s">
+        <v>568</v>
+      </c>
+      <c r="C569" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" t="s">
+        <v>0</v>
+      </c>
+      <c r="B570" t="s">
+        <v>570</v>
+      </c>
+      <c r="C570" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571" t="s">
+        <v>0</v>
+      </c>
+      <c r="B571" t="s">
+        <v>570</v>
+      </c>
+      <c r="C571" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572" t="s">
+        <v>0</v>
+      </c>
+      <c r="B572" t="s">
+        <v>570</v>
+      </c>
+      <c r="C572" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573" t="s">
+        <v>0</v>
+      </c>
+      <c r="B573" t="s">
+        <v>574</v>
+      </c>
+      <c r="C573" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574" t="s">
+        <v>0</v>
+      </c>
+      <c r="B574" t="s">
+        <v>574</v>
+      </c>
+      <c r="C574" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575" t="s">
+        <v>0</v>
+      </c>
+      <c r="B575" t="s">
+        <v>574</v>
+      </c>
+      <c r="C575" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576" t="s">
+        <v>0</v>
+      </c>
+      <c r="B576" t="s">
+        <v>574</v>
+      </c>
+      <c r="C576" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="A577" t="s">
+        <v>0</v>
+      </c>
+      <c r="B577" t="s">
+        <v>577</v>
+      </c>
+      <c r="C577" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578" t="s">
+        <v>0</v>
+      </c>
+      <c r="B578" t="s">
+        <v>579</v>
+      </c>
+      <c r="C578" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="A579" t="s">
+        <v>0</v>
+      </c>
+      <c r="B579" t="s">
+        <v>579</v>
+      </c>
+      <c r="C579" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3">
+      <c r="A580" t="s">
+        <v>0</v>
+      </c>
+      <c r="B580" t="s">
+        <v>581</v>
+      </c>
+      <c r="C580" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581" t="s">
+        <v>0</v>
+      </c>
+      <c r="B581" t="s">
+        <v>581</v>
+      </c>
+      <c r="C581" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3">
+      <c r="A582" t="s">
+        <v>0</v>
+      </c>
+      <c r="B582" t="s">
+        <v>582</v>
+      </c>
+      <c r="C582" t="s">
+        <v>583</v>
       </c>
     </row>
   </sheetData>
